--- a/planilhaderotascc15.xlsx
+++ b/planilhaderotascc15.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Robo-Baixa-Entregas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Lucas\Desktop\Robo-Baixa-Entregas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86899C1D-A670-472B-AE1F-BF1A8ABDCAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9135"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={EDA3BDDF-10EA-454C-9C17-EF98E99EE0F5}</author>
     <author>tc={B3A8EC8D-244E-486E-9093-48B5C2693A54}</author>
@@ -36,7 +37,7 @@
     <author>tc={A7924A08-948F-4489-B2EB-714C9FBD7FE2}</author>
   </authors>
   <commentList>
-    <comment ref="F73" authorId="0" shapeId="0">
+    <comment ref="F73" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -52,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F75" authorId="1" shapeId="0">
+    <comment ref="F75" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -68,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F161" authorId="2" shapeId="0">
+    <comment ref="F161" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -84,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F175" authorId="3" shapeId="0">
+    <comment ref="F175" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -100,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F176" authorId="4" shapeId="0">
+    <comment ref="F176" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -116,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G252" authorId="5" shapeId="0">
+    <comment ref="G252" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -132,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G397" authorId="6" shapeId="0">
+    <comment ref="G397" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -150,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G401" authorId="7" shapeId="0">
+    <comment ref="G401" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -275,8 +276,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,14 +473,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="4">
     <dxf>
       <font>
-        <color theme="1"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -489,7 +490,7 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
     </dxf>
@@ -509,67 +510,7 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -848,16 +789,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O709"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O11"/>
+      <selection activeCell="A12" sqref="A12:O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="38.25">
+    <row r="1" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -904,7 +845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>45446</v>
       </c>
@@ -929,7 +870,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>45446</v>
       </c>
@@ -970,7 +911,7 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>45446</v>
       </c>
@@ -1017,7 +958,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>45446</v>
       </c>
@@ -1060,7 +1001,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>45446</v>
       </c>
@@ -1107,7 +1048,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>45446</v>
       </c>
@@ -1154,7 +1095,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>45446</v>
       </c>
@@ -1201,7 +1142,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>45446</v>
       </c>
@@ -1244,7 +1185,7 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>45446</v>
       </c>
@@ -1291,7 +1232,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>45446</v>
       </c>
@@ -1338,7 +1279,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1355,7 +1296,7 @@
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1372,7 +1313,7 @@
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1389,7 +1330,7 @@
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1406,7 +1347,7 @@
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1423,7 +1364,7 @@
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="10"/>
@@ -1440,7 +1381,7 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1457,7 +1398,7 @@
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1474,7 +1415,7 @@
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1491,7 +1432,7 @@
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1508,7 +1449,7 @@
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1525,7 +1466,7 @@
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1542,7 +1483,7 @@
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1559,7 +1500,7 @@
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1576,7 +1517,7 @@
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1593,7 +1534,7 @@
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1610,7 +1551,7 @@
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1627,7 +1568,7 @@
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1644,7 +1585,7 @@
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1661,7 +1602,7 @@
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1678,7 +1619,7 @@
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1695,7 +1636,7 @@
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1712,7 +1653,7 @@
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1729,7 +1670,7 @@
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1746,7 +1687,7 @@
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1763,7 +1704,7 @@
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1780,7 +1721,7 @@
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1797,7 +1738,7 @@
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1814,7 +1755,7 @@
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1831,7 +1772,7 @@
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1848,7 +1789,7 @@
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1865,7 +1806,7 @@
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1882,7 +1823,7 @@
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1899,7 +1840,7 @@
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1916,7 +1857,7 @@
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1933,7 +1874,7 @@
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1950,7 +1891,7 @@
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1967,7 +1908,7 @@
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1984,7 +1925,7 @@
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -2001,7 +1942,7 @@
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -2018,7 +1959,7 @@
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2035,7 +1976,7 @@
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -2052,7 +1993,7 @@
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2069,7 +2010,7 @@
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2086,7 +2027,7 @@
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2103,7 +2044,7 @@
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2120,7 +2061,7 @@
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2137,7 +2078,7 @@
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2154,7 +2095,7 @@
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2171,7 +2112,7 @@
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -2188,7 +2129,7 @@
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="4"/>
       <c r="C62" s="10"/>
@@ -2205,7 +2146,7 @@
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -2222,7 +2163,7 @@
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -2239,7 +2180,7 @@
       <c r="N64" s="5"/>
       <c r="O64" s="5"/>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -2256,7 +2197,7 @@
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -2273,7 +2214,7 @@
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="4"/>
       <c r="C67" s="10"/>
@@ -2290,7 +2231,7 @@
       <c r="N67" s="5"/>
       <c r="O67" s="5"/>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -2307,7 +2248,7 @@
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2324,7 +2265,7 @@
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -2341,7 +2282,7 @@
       <c r="N70" s="5"/>
       <c r="O70" s="5"/>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -2358,7 +2299,7 @@
       <c r="N71" s="5"/>
       <c r="O71" s="5"/>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -2375,7 +2316,7 @@
       <c r="N72" s="5"/>
       <c r="O72" s="5"/>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -2392,7 +2333,7 @@
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -2409,7 +2350,7 @@
       <c r="N74" s="5"/>
       <c r="O74" s="5"/>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -2426,7 +2367,7 @@
       <c r="N75" s="5"/>
       <c r="O75" s="5"/>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -2443,7 +2384,7 @@
       <c r="N76" s="5"/>
       <c r="O76" s="5"/>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -2460,7 +2401,7 @@
       <c r="N77" s="5"/>
       <c r="O77" s="5"/>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="4"/>
       <c r="C78" s="10"/>
@@ -2477,7 +2418,7 @@
       <c r="N78" s="5"/>
       <c r="O78" s="5"/>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -2494,7 +2435,7 @@
       <c r="N79" s="5"/>
       <c r="O79" s="5"/>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -2511,7 +2452,7 @@
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -2528,7 +2469,7 @@
       <c r="N81" s="5"/>
       <c r="O81" s="5"/>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -2545,7 +2486,7 @@
       <c r="N82" s="5"/>
       <c r="O82" s="5"/>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -2562,7 +2503,7 @@
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -2579,7 +2520,7 @@
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -2596,7 +2537,7 @@
       <c r="N85" s="5"/>
       <c r="O85" s="5"/>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -2613,7 +2554,7 @@
       <c r="N86" s="5"/>
       <c r="O86" s="5"/>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -2630,7 +2571,7 @@
       <c r="N87" s="5"/>
       <c r="O87" s="5"/>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -2647,7 +2588,7 @@
       <c r="N88" s="5"/>
       <c r="O88" s="5"/>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -2664,7 +2605,7 @@
       <c r="N89" s="5"/>
       <c r="O89" s="5"/>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -2681,7 +2622,7 @@
       <c r="N90" s="5"/>
       <c r="O90" s="5"/>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -2698,7 +2639,7 @@
       <c r="N91" s="5"/>
       <c r="O91" s="5"/>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -2715,7 +2656,7 @@
       <c r="N92" s="5"/>
       <c r="O92" s="5"/>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -2732,7 +2673,7 @@
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -2749,7 +2690,7 @@
       <c r="N94" s="5"/>
       <c r="O94" s="5"/>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -2766,7 +2707,7 @@
       <c r="N95" s="5"/>
       <c r="O95" s="5"/>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -2783,7 +2724,7 @@
       <c r="N96" s="5"/>
       <c r="O96" s="5"/>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -2800,7 +2741,7 @@
       <c r="N97" s="5"/>
       <c r="O97" s="5"/>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -2817,7 +2758,7 @@
       <c r="N98" s="5"/>
       <c r="O98" s="5"/>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -2834,7 +2775,7 @@
       <c r="N99" s="5"/>
       <c r="O99" s="5"/>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -2851,7 +2792,7 @@
       <c r="N100" s="5"/>
       <c r="O100" s="5"/>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -2868,7 +2809,7 @@
       <c r="N101" s="5"/>
       <c r="O101" s="5"/>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="4"/>
       <c r="C102" s="10"/>
@@ -2885,7 +2826,7 @@
       <c r="N102" s="5"/>
       <c r="O102" s="5"/>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -2902,7 +2843,7 @@
       <c r="N103" s="5"/>
       <c r="O103" s="5"/>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -2919,7 +2860,7 @@
       <c r="N104" s="5"/>
       <c r="O104" s="5"/>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -2936,7 +2877,7 @@
       <c r="N105" s="5"/>
       <c r="O105" s="5"/>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -2953,7 +2894,7 @@
       <c r="N106" s="5"/>
       <c r="O106" s="5"/>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -2970,7 +2911,7 @@
       <c r="N107" s="5"/>
       <c r="O107" s="5"/>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -2987,7 +2928,7 @@
       <c r="N108" s="5"/>
       <c r="O108" s="5"/>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -3004,7 +2945,7 @@
       <c r="N109" s="5"/>
       <c r="O109" s="5"/>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -3021,7 +2962,7 @@
       <c r="N110" s="5"/>
       <c r="O110" s="5"/>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -3038,7 +2979,7 @@
       <c r="N111" s="5"/>
       <c r="O111" s="5"/>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -3055,7 +2996,7 @@
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -3072,7 +3013,7 @@
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -3089,7 +3030,7 @@
       <c r="N114" s="5"/>
       <c r="O114" s="5"/>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -3106,7 +3047,7 @@
       <c r="N115" s="5"/>
       <c r="O115" s="5"/>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -3123,7 +3064,7 @@
       <c r="N116" s="5"/>
       <c r="O116" s="5"/>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -3140,7 +3081,7 @@
       <c r="N117" s="5"/>
       <c r="O117" s="5"/>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -3157,7 +3098,7 @@
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
     </row>
-    <row r="119" spans="1:15">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="4"/>
       <c r="C119" s="10"/>
@@ -3174,7 +3115,7 @@
       <c r="N119" s="5"/>
       <c r="O119" s="5"/>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -3191,7 +3132,7 @@
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -3208,7 +3149,7 @@
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -3225,7 +3166,7 @@
       <c r="N122" s="5"/>
       <c r="O122" s="5"/>
     </row>
-    <row r="123" spans="1:15">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -3242,7 +3183,7 @@
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
     </row>
-    <row r="124" spans="1:15">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -3259,7 +3200,7 @@
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="4"/>
       <c r="C125" s="10"/>
@@ -3276,7 +3217,7 @@
       <c r="N125" s="5"/>
       <c r="O125" s="5"/>
     </row>
-    <row r="126" spans="1:15">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -3293,7 +3234,7 @@
       <c r="N126" s="5"/>
       <c r="O126" s="5"/>
     </row>
-    <row r="127" spans="1:15">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -3310,7 +3251,7 @@
       <c r="N127" s="5"/>
       <c r="O127" s="5"/>
     </row>
-    <row r="128" spans="1:15">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -3327,7 +3268,7 @@
       <c r="N128" s="5"/>
       <c r="O128" s="5"/>
     </row>
-    <row r="129" spans="1:15">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -3344,7 +3285,7 @@
       <c r="N129" s="5"/>
       <c r="O129" s="5"/>
     </row>
-    <row r="130" spans="1:15">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -3361,7 +3302,7 @@
       <c r="N130" s="5"/>
       <c r="O130" s="5"/>
     </row>
-    <row r="131" spans="1:15">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -3378,7 +3319,7 @@
       <c r="N131" s="5"/>
       <c r="O131" s="5"/>
     </row>
-    <row r="132" spans="1:15">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="4"/>
       <c r="C132" s="10"/>
@@ -3395,7 +3336,7 @@
       <c r="N132" s="5"/>
       <c r="O132" s="5"/>
     </row>
-    <row r="133" spans="1:15">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -3412,7 +3353,7 @@
       <c r="N133" s="5"/>
       <c r="O133" s="5"/>
     </row>
-    <row r="134" spans="1:15">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -3429,7 +3370,7 @@
       <c r="N134" s="5"/>
       <c r="O134" s="5"/>
     </row>
-    <row r="135" spans="1:15">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -3446,7 +3387,7 @@
       <c r="N135" s="5"/>
       <c r="O135" s="5"/>
     </row>
-    <row r="136" spans="1:15">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -3463,7 +3404,7 @@
       <c r="N136" s="5"/>
       <c r="O136" s="5"/>
     </row>
-    <row r="137" spans="1:15">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -3480,7 +3421,7 @@
       <c r="N137" s="5"/>
       <c r="O137" s="5"/>
     </row>
-    <row r="138" spans="1:15">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -3497,7 +3438,7 @@
       <c r="N138" s="5"/>
       <c r="O138" s="5"/>
     </row>
-    <row r="139" spans="1:15">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -3514,7 +3455,7 @@
       <c r="N139" s="5"/>
       <c r="O139" s="5"/>
     </row>
-    <row r="140" spans="1:15">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -3531,7 +3472,7 @@
       <c r="N140" s="5"/>
       <c r="O140" s="5"/>
     </row>
-    <row r="141" spans="1:15">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -3548,7 +3489,7 @@
       <c r="N141" s="5"/>
       <c r="O141" s="5"/>
     </row>
-    <row r="142" spans="1:15">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -3565,7 +3506,7 @@
       <c r="N142" s="5"/>
       <c r="O142" s="5"/>
     </row>
-    <row r="143" spans="1:15">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -3582,7 +3523,7 @@
       <c r="N143" s="5"/>
       <c r="O143" s="5"/>
     </row>
-    <row r="144" spans="1:15">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -3599,7 +3540,7 @@
       <c r="N144" s="5"/>
       <c r="O144" s="5"/>
     </row>
-    <row r="145" spans="1:15">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -3616,7 +3557,7 @@
       <c r="N145" s="5"/>
       <c r="O145" s="5"/>
     </row>
-    <row r="146" spans="1:15">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -3633,7 +3574,7 @@
       <c r="N146" s="5"/>
       <c r="O146" s="5"/>
     </row>
-    <row r="147" spans="1:15">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -3650,7 +3591,7 @@
       <c r="N147" s="5"/>
       <c r="O147" s="5"/>
     </row>
-    <row r="148" spans="1:15">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -3667,7 +3608,7 @@
       <c r="N148" s="5"/>
       <c r="O148" s="5"/>
     </row>
-    <row r="149" spans="1:15">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -3684,7 +3625,7 @@
       <c r="N149" s="5"/>
       <c r="O149" s="5"/>
     </row>
-    <row r="150" spans="1:15">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -3701,7 +3642,7 @@
       <c r="N150" s="5"/>
       <c r="O150" s="5"/>
     </row>
-    <row r="151" spans="1:15">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -3718,7 +3659,7 @@
       <c r="N151" s="5"/>
       <c r="O151" s="5"/>
     </row>
-    <row r="152" spans="1:15">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -3735,7 +3676,7 @@
       <c r="N152" s="5"/>
       <c r="O152" s="5"/>
     </row>
-    <row r="153" spans="1:15">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -3752,7 +3693,7 @@
       <c r="N153" s="5"/>
       <c r="O153" s="5"/>
     </row>
-    <row r="154" spans="1:15">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -3769,7 +3710,7 @@
       <c r="N154" s="5"/>
       <c r="O154" s="5"/>
     </row>
-    <row r="155" spans="1:15">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -3786,7 +3727,7 @@
       <c r="N155" s="5"/>
       <c r="O155" s="5"/>
     </row>
-    <row r="156" spans="1:15">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -3803,7 +3744,7 @@
       <c r="N156" s="5"/>
       <c r="O156" s="5"/>
     </row>
-    <row r="157" spans="1:15">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -3820,7 +3761,7 @@
       <c r="N157" s="5"/>
       <c r="O157" s="5"/>
     </row>
-    <row r="158" spans="1:15">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="4"/>
       <c r="C158" s="10"/>
@@ -3837,7 +3778,7 @@
       <c r="N158" s="5"/>
       <c r="O158" s="5"/>
     </row>
-    <row r="159" spans="1:15">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -3854,7 +3795,7 @@
       <c r="N159" s="5"/>
       <c r="O159" s="5"/>
     </row>
-    <row r="160" spans="1:15">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -3871,7 +3812,7 @@
       <c r="N160" s="5"/>
       <c r="O160" s="5"/>
     </row>
-    <row r="161" spans="1:15">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -3888,7 +3829,7 @@
       <c r="N161" s="5"/>
       <c r="O161" s="5"/>
     </row>
-    <row r="162" spans="1:15">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -3905,7 +3846,7 @@
       <c r="N162" s="5"/>
       <c r="O162" s="5"/>
     </row>
-    <row r="163" spans="1:15">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -3922,7 +3863,7 @@
       <c r="N163" s="5"/>
       <c r="O163" s="5"/>
     </row>
-    <row r="164" spans="1:15">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -3939,7 +3880,7 @@
       <c r="N164" s="5"/>
       <c r="O164" s="5"/>
     </row>
-    <row r="165" spans="1:15">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -3956,7 +3897,7 @@
       <c r="N165" s="5"/>
       <c r="O165" s="5"/>
     </row>
-    <row r="166" spans="1:15">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -3973,7 +3914,7 @@
       <c r="N166" s="5"/>
       <c r="O166" s="5"/>
     </row>
-    <row r="167" spans="1:15">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -3990,7 +3931,7 @@
       <c r="N167" s="5"/>
       <c r="O167" s="5"/>
     </row>
-    <row r="168" spans="1:15">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -4007,7 +3948,7 @@
       <c r="N168" s="5"/>
       <c r="O168" s="5"/>
     </row>
-    <row r="169" spans="1:15">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -4024,7 +3965,7 @@
       <c r="N169" s="5"/>
       <c r="O169" s="5"/>
     </row>
-    <row r="170" spans="1:15">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -4041,7 +3982,7 @@
       <c r="N170" s="5"/>
       <c r="O170" s="5"/>
     </row>
-    <row r="171" spans="1:15">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -4058,7 +3999,7 @@
       <c r="N171" s="5"/>
       <c r="O171" s="5"/>
     </row>
-    <row r="172" spans="1:15">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -4075,7 +4016,7 @@
       <c r="N172" s="5"/>
       <c r="O172" s="5"/>
     </row>
-    <row r="173" spans="1:15">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -4092,7 +4033,7 @@
       <c r="N173" s="5"/>
       <c r="O173" s="5"/>
     </row>
-    <row r="174" spans="1:15">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -4109,7 +4050,7 @@
       <c r="N174" s="5"/>
       <c r="O174" s="5"/>
     </row>
-    <row r="175" spans="1:15">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -4126,7 +4067,7 @@
       <c r="N175" s="5"/>
       <c r="O175" s="5"/>
     </row>
-    <row r="176" spans="1:15">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -4143,7 +4084,7 @@
       <c r="N176" s="5"/>
       <c r="O176" s="5"/>
     </row>
-    <row r="177" spans="1:15">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -4160,7 +4101,7 @@
       <c r="N177" s="5"/>
       <c r="O177" s="5"/>
     </row>
-    <row r="178" spans="1:15">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -4177,7 +4118,7 @@
       <c r="N178" s="5"/>
       <c r="O178" s="5"/>
     </row>
-    <row r="179" spans="1:15">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -4194,7 +4135,7 @@
       <c r="N179" s="5"/>
       <c r="O179" s="5"/>
     </row>
-    <row r="180" spans="1:15">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -4211,7 +4152,7 @@
       <c r="N180" s="5"/>
       <c r="O180" s="5"/>
     </row>
-    <row r="181" spans="1:15">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -4228,7 +4169,7 @@
       <c r="N181" s="5"/>
       <c r="O181" s="5"/>
     </row>
-    <row r="182" spans="1:15">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="4"/>
       <c r="C182" s="10"/>
@@ -4245,7 +4186,7 @@
       <c r="N182" s="5"/>
       <c r="O182" s="5"/>
     </row>
-    <row r="183" spans="1:15">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -4262,7 +4203,7 @@
       <c r="N183" s="5"/>
       <c r="O183" s="5"/>
     </row>
-    <row r="184" spans="1:15">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -4279,7 +4220,7 @@
       <c r="N184" s="5"/>
       <c r="O184" s="5"/>
     </row>
-    <row r="185" spans="1:15">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -4296,7 +4237,7 @@
       <c r="N185" s="5"/>
       <c r="O185" s="5"/>
     </row>
-    <row r="186" spans="1:15">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -4313,7 +4254,7 @@
       <c r="N186" s="5"/>
       <c r="O186" s="5"/>
     </row>
-    <row r="187" spans="1:15">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -4330,7 +4271,7 @@
       <c r="N187" s="5"/>
       <c r="O187" s="5"/>
     </row>
-    <row r="188" spans="1:15">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -4347,7 +4288,7 @@
       <c r="N188" s="5"/>
       <c r="O188" s="5"/>
     </row>
-    <row r="189" spans="1:15">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -4364,7 +4305,7 @@
       <c r="N189" s="5"/>
       <c r="O189" s="5"/>
     </row>
-    <row r="190" spans="1:15">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -4381,7 +4322,7 @@
       <c r="N190" s="5"/>
       <c r="O190" s="5"/>
     </row>
-    <row r="191" spans="1:15">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -4398,7 +4339,7 @@
       <c r="N191" s="5"/>
       <c r="O191" s="5"/>
     </row>
-    <row r="192" spans="1:15">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -4415,7 +4356,7 @@
       <c r="N192" s="5"/>
       <c r="O192" s="5"/>
     </row>
-    <row r="193" spans="1:15">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -4432,7 +4373,7 @@
       <c r="N193" s="5"/>
       <c r="O193" s="5"/>
     </row>
-    <row r="194" spans="1:15">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -4449,7 +4390,7 @@
       <c r="N194" s="5"/>
       <c r="O194" s="5"/>
     </row>
-    <row r="195" spans="1:15">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -4466,7 +4407,7 @@
       <c r="N195" s="5"/>
       <c r="O195" s="5"/>
     </row>
-    <row r="196" spans="1:15">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -4483,7 +4424,7 @@
       <c r="N196" s="5"/>
       <c r="O196" s="5"/>
     </row>
-    <row r="197" spans="1:15">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -4500,7 +4441,7 @@
       <c r="N197" s="5"/>
       <c r="O197" s="5"/>
     </row>
-    <row r="198" spans="1:15">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -4517,7 +4458,7 @@
       <c r="N198" s="5"/>
       <c r="O198" s="5"/>
     </row>
-    <row r="199" spans="1:15">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -4534,7 +4475,7 @@
       <c r="N199" s="5"/>
       <c r="O199" s="5"/>
     </row>
-    <row r="200" spans="1:15">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -4551,7 +4492,7 @@
       <c r="N200" s="5"/>
       <c r="O200" s="5"/>
     </row>
-    <row r="201" spans="1:15">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -4568,7 +4509,7 @@
       <c r="N201" s="5"/>
       <c r="O201" s="5"/>
     </row>
-    <row r="202" spans="1:15">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -4585,7 +4526,7 @@
       <c r="N202" s="5"/>
       <c r="O202" s="5"/>
     </row>
-    <row r="203" spans="1:15">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -4602,7 +4543,7 @@
       <c r="N203" s="5"/>
       <c r="O203" s="5"/>
     </row>
-    <row r="204" spans="1:15">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -4619,7 +4560,7 @@
       <c r="N204" s="5"/>
       <c r="O204" s="5"/>
     </row>
-    <row r="205" spans="1:15">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -4636,7 +4577,7 @@
       <c r="N205" s="5"/>
       <c r="O205" s="5"/>
     </row>
-    <row r="206" spans="1:15">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -4653,7 +4594,7 @@
       <c r="N206" s="5"/>
       <c r="O206" s="5"/>
     </row>
-    <row r="207" spans="1:15">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -4670,7 +4611,7 @@
       <c r="N207" s="5"/>
       <c r="O207" s="5"/>
     </row>
-    <row r="208" spans="1:15">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -4687,7 +4628,7 @@
       <c r="N208" s="5"/>
       <c r="O208" s="5"/>
     </row>
-    <row r="209" spans="1:15">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -4704,7 +4645,7 @@
       <c r="N209" s="5"/>
       <c r="O209" s="5"/>
     </row>
-    <row r="210" spans="1:15">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="4"/>
       <c r="C210" s="10"/>
@@ -4721,7 +4662,7 @@
       <c r="N210" s="5"/>
       <c r="O210" s="5"/>
     </row>
-    <row r="211" spans="1:15">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -4738,7 +4679,7 @@
       <c r="N211" s="5"/>
       <c r="O211" s="5"/>
     </row>
-    <row r="212" spans="1:15">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -4755,7 +4696,7 @@
       <c r="N212" s="5"/>
       <c r="O212" s="5"/>
     </row>
-    <row r="213" spans="1:15">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -4772,7 +4713,7 @@
       <c r="N213" s="5"/>
       <c r="O213" s="5"/>
     </row>
-    <row r="214" spans="1:15">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -4789,7 +4730,7 @@
       <c r="N214" s="5"/>
       <c r="O214" s="5"/>
     </row>
-    <row r="215" spans="1:15">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -4806,7 +4747,7 @@
       <c r="N215" s="5"/>
       <c r="O215" s="5"/>
     </row>
-    <row r="216" spans="1:15">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
       <c r="B216" s="4"/>
       <c r="C216" s="10"/>
@@ -4823,7 +4764,7 @@
       <c r="N216" s="5"/>
       <c r="O216" s="5"/>
     </row>
-    <row r="217" spans="1:15">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -4840,7 +4781,7 @@
       <c r="N217" s="5"/>
       <c r="O217" s="5"/>
     </row>
-    <row r="218" spans="1:15">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -4857,7 +4798,7 @@
       <c r="N218" s="5"/>
       <c r="O218" s="5"/>
     </row>
-    <row r="219" spans="1:15">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -4874,7 +4815,7 @@
       <c r="N219" s="5"/>
       <c r="O219" s="5"/>
     </row>
-    <row r="220" spans="1:15">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -4891,7 +4832,7 @@
       <c r="N220" s="5"/>
       <c r="O220" s="5"/>
     </row>
-    <row r="221" spans="1:15">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -4908,7 +4849,7 @@
       <c r="N221" s="5"/>
       <c r="O221" s="5"/>
     </row>
-    <row r="222" spans="1:15">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -4925,7 +4866,7 @@
       <c r="N222" s="5"/>
       <c r="O222" s="5"/>
     </row>
-    <row r="223" spans="1:15">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -4942,7 +4883,7 @@
       <c r="N223" s="5"/>
       <c r="O223" s="5"/>
     </row>
-    <row r="224" spans="1:15">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -4959,7 +4900,7 @@
       <c r="N224" s="5"/>
       <c r="O224" s="5"/>
     </row>
-    <row r="225" spans="1:15">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -4976,7 +4917,7 @@
       <c r="N225" s="5"/>
       <c r="O225" s="5"/>
     </row>
-    <row r="226" spans="1:15">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -4993,7 +4934,7 @@
       <c r="N226" s="5"/>
       <c r="O226" s="5"/>
     </row>
-    <row r="227" spans="1:15">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -5010,7 +4951,7 @@
       <c r="N227" s="5"/>
       <c r="O227" s="5"/>
     </row>
-    <row r="228" spans="1:15">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -5027,7 +4968,7 @@
       <c r="N228" s="5"/>
       <c r="O228" s="5"/>
     </row>
-    <row r="229" spans="1:15">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -5044,7 +4985,7 @@
       <c r="N229" s="5"/>
       <c r="O229" s="5"/>
     </row>
-    <row r="230" spans="1:15">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -5061,7 +5002,7 @@
       <c r="N230" s="5"/>
       <c r="O230" s="5"/>
     </row>
-    <row r="231" spans="1:15">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -5078,7 +5019,7 @@
       <c r="N231" s="5"/>
       <c r="O231" s="5"/>
     </row>
-    <row r="232" spans="1:15">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="3"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -5095,7 +5036,7 @@
       <c r="N232" s="5"/>
       <c r="O232" s="5"/>
     </row>
-    <row r="233" spans="1:15">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="3"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -5112,7 +5053,7 @@
       <c r="N233" s="5"/>
       <c r="O233" s="5"/>
     </row>
-    <row r="234" spans="1:15">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -5129,7 +5070,7 @@
       <c r="N234" s="5"/>
       <c r="O234" s="5"/>
     </row>
-    <row r="235" spans="1:15">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="3"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -5146,7 +5087,7 @@
       <c r="N235" s="5"/>
       <c r="O235" s="5"/>
     </row>
-    <row r="236" spans="1:15">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -5163,7 +5104,7 @@
       <c r="N236" s="5"/>
       <c r="O236" s="5"/>
     </row>
-    <row r="237" spans="1:15">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -5180,7 +5121,7 @@
       <c r="N237" s="5"/>
       <c r="O237" s="5"/>
     </row>
-    <row r="238" spans="1:15">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -5197,7 +5138,7 @@
       <c r="N238" s="5"/>
       <c r="O238" s="5"/>
     </row>
-    <row r="239" spans="1:15">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -5214,7 +5155,7 @@
       <c r="N239" s="5"/>
       <c r="O239" s="5"/>
     </row>
-    <row r="240" spans="1:15">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -5231,7 +5172,7 @@
       <c r="N240" s="5"/>
       <c r="O240" s="5"/>
     </row>
-    <row r="241" spans="1:15">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -5248,7 +5189,7 @@
       <c r="N241" s="5"/>
       <c r="O241" s="5"/>
     </row>
-    <row r="242" spans="1:15">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -5265,7 +5206,7 @@
       <c r="N242" s="5"/>
       <c r="O242" s="5"/>
     </row>
-    <row r="243" spans="1:15">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -5282,7 +5223,7 @@
       <c r="N243" s="5"/>
       <c r="O243" s="5"/>
     </row>
-    <row r="244" spans="1:15">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -5299,7 +5240,7 @@
       <c r="N244" s="5"/>
       <c r="O244" s="5"/>
     </row>
-    <row r="245" spans="1:15">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -5316,7 +5257,7 @@
       <c r="N245" s="5"/>
       <c r="O245" s="5"/>
     </row>
-    <row r="246" spans="1:15">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -5333,7 +5274,7 @@
       <c r="N246" s="5"/>
       <c r="O246" s="5"/>
     </row>
-    <row r="247" spans="1:15">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -5350,7 +5291,7 @@
       <c r="N247" s="5"/>
       <c r="O247" s="5"/>
     </row>
-    <row r="248" spans="1:15">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -5367,7 +5308,7 @@
       <c r="N248" s="5"/>
       <c r="O248" s="5"/>
     </row>
-    <row r="249" spans="1:15">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
       <c r="B249" s="4"/>
       <c r="C249" s="10"/>
@@ -5384,7 +5325,7 @@
       <c r="N249" s="5"/>
       <c r="O249" s="5"/>
     </row>
-    <row r="250" spans="1:15">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -5401,7 +5342,7 @@
       <c r="N250" s="5"/>
       <c r="O250" s="5"/>
     </row>
-    <row r="251" spans="1:15">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -5418,7 +5359,7 @@
       <c r="N251" s="5"/>
       <c r="O251" s="5"/>
     </row>
-    <row r="252" spans="1:15">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="3"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -5435,7 +5376,7 @@
       <c r="N252" s="5"/>
       <c r="O252" s="5"/>
     </row>
-    <row r="253" spans="1:15">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -5452,7 +5393,7 @@
       <c r="N253" s="5"/>
       <c r="O253" s="5"/>
     </row>
-    <row r="254" spans="1:15">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -5469,7 +5410,7 @@
       <c r="N254" s="5"/>
       <c r="O254" s="5"/>
     </row>
-    <row r="255" spans="1:15">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -5486,7 +5427,7 @@
       <c r="N255" s="5"/>
       <c r="O255" s="5"/>
     </row>
-    <row r="256" spans="1:15">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -5503,7 +5444,7 @@
       <c r="N256" s="5"/>
       <c r="O256" s="5"/>
     </row>
-    <row r="257" spans="1:15">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -5520,7 +5461,7 @@
       <c r="N257" s="5"/>
       <c r="O257" s="5"/>
     </row>
-    <row r="258" spans="1:15">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -5537,7 +5478,7 @@
       <c r="N258" s="5"/>
       <c r="O258" s="5"/>
     </row>
-    <row r="259" spans="1:15">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" s="3"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -5554,7 +5495,7 @@
       <c r="N259" s="5"/>
       <c r="O259" s="5"/>
     </row>
-    <row r="260" spans="1:15">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -5571,7 +5512,7 @@
       <c r="N260" s="5"/>
       <c r="O260" s="5"/>
     </row>
-    <row r="261" spans="1:15">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" s="3"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -5588,7 +5529,7 @@
       <c r="N261" s="5"/>
       <c r="O261" s="5"/>
     </row>
-    <row r="262" spans="1:15">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="3"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -5605,7 +5546,7 @@
       <c r="N262" s="5"/>
       <c r="O262" s="5"/>
     </row>
-    <row r="263" spans="1:15">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="3"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -5622,7 +5563,7 @@
       <c r="N263" s="5"/>
       <c r="O263" s="5"/>
     </row>
-    <row r="264" spans="1:15">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="3"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -5639,7 +5580,7 @@
       <c r="N264" s="5"/>
       <c r="O264" s="5"/>
     </row>
-    <row r="265" spans="1:15">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="3"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -5656,7 +5597,7 @@
       <c r="N265" s="5"/>
       <c r="O265" s="5"/>
     </row>
-    <row r="266" spans="1:15">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="3"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -5673,7 +5614,7 @@
       <c r="N266" s="5"/>
       <c r="O266" s="5"/>
     </row>
-    <row r="267" spans="1:15">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="3"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -5690,7 +5631,7 @@
       <c r="N267" s="5"/>
       <c r="O267" s="5"/>
     </row>
-    <row r="268" spans="1:15">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="3"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -5707,7 +5648,7 @@
       <c r="N268" s="5"/>
       <c r="O268" s="5"/>
     </row>
-    <row r="269" spans="1:15">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" s="3"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -5724,7 +5665,7 @@
       <c r="N269" s="5"/>
       <c r="O269" s="5"/>
     </row>
-    <row r="270" spans="1:15">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="3"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -5741,7 +5682,7 @@
       <c r="N270" s="5"/>
       <c r="O270" s="5"/>
     </row>
-    <row r="271" spans="1:15">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="3"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
@@ -5758,7 +5699,7 @@
       <c r="N271" s="5"/>
       <c r="O271" s="5"/>
     </row>
-    <row r="272" spans="1:15">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" s="3"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
@@ -5775,7 +5716,7 @@
       <c r="N272" s="5"/>
       <c r="O272" s="5"/>
     </row>
-    <row r="273" spans="1:15">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="3"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -5792,7 +5733,7 @@
       <c r="N273" s="5"/>
       <c r="O273" s="5"/>
     </row>
-    <row r="274" spans="1:15">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="3"/>
       <c r="B274" s="4"/>
       <c r="C274" s="10"/>
@@ -5809,7 +5750,7 @@
       <c r="N274" s="5"/>
       <c r="O274" s="5"/>
     </row>
-    <row r="275" spans="1:15">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" s="3"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -5826,7 +5767,7 @@
       <c r="N275" s="5"/>
       <c r="O275" s="5"/>
     </row>
-    <row r="276" spans="1:15">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="3"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
@@ -5843,7 +5784,7 @@
       <c r="N276" s="5"/>
       <c r="O276" s="5"/>
     </row>
-    <row r="277" spans="1:15">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" s="3"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -5860,7 +5801,7 @@
       <c r="N277" s="5"/>
       <c r="O277" s="5"/>
     </row>
-    <row r="278" spans="1:15">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" s="3"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
@@ -5877,7 +5818,7 @@
       <c r="N278" s="5"/>
       <c r="O278" s="5"/>
     </row>
-    <row r="279" spans="1:15">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" s="3"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
@@ -5894,7 +5835,7 @@
       <c r="N279" s="5"/>
       <c r="O279" s="5"/>
     </row>
-    <row r="280" spans="1:15">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" s="3"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -5911,7 +5852,7 @@
       <c r="N280" s="5"/>
       <c r="O280" s="5"/>
     </row>
-    <row r="281" spans="1:15">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="3"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
@@ -5928,7 +5869,7 @@
       <c r="N281" s="5"/>
       <c r="O281" s="5"/>
     </row>
-    <row r="282" spans="1:15">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" s="3"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
@@ -5945,7 +5886,7 @@
       <c r="N282" s="5"/>
       <c r="O282" s="5"/>
     </row>
-    <row r="283" spans="1:15">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="3"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -5962,7 +5903,7 @@
       <c r="N283" s="5"/>
       <c r="O283" s="5"/>
     </row>
-    <row r="284" spans="1:15">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="3"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -5979,7 +5920,7 @@
       <c r="N284" s="5"/>
       <c r="O284" s="5"/>
     </row>
-    <row r="285" spans="1:15">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="3"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
@@ -5996,7 +5937,7 @@
       <c r="N285" s="5"/>
       <c r="O285" s="5"/>
     </row>
-    <row r="286" spans="1:15">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" s="3"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
@@ -6013,7 +5954,7 @@
       <c r="N286" s="5"/>
       <c r="O286" s="5"/>
     </row>
-    <row r="287" spans="1:15">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" s="15"/>
       <c r="B287" s="16"/>
       <c r="C287" s="16"/>
@@ -6030,7 +5971,7 @@
       <c r="N287" s="5"/>
       <c r="O287" s="5"/>
     </row>
-    <row r="288" spans="1:15">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" s="3"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
@@ -6047,7 +5988,7 @@
       <c r="N288" s="5"/>
       <c r="O288" s="5"/>
     </row>
-    <row r="289" spans="1:15">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" s="3"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
@@ -6064,7 +6005,7 @@
       <c r="N289" s="5"/>
       <c r="O289" s="5"/>
     </row>
-    <row r="290" spans="1:15">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" s="3"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
@@ -6081,7 +6022,7 @@
       <c r="N290" s="5"/>
       <c r="O290" s="5"/>
     </row>
-    <row r="291" spans="1:15">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" s="3"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
@@ -6098,7 +6039,7 @@
       <c r="N291" s="5"/>
       <c r="O291" s="5"/>
     </row>
-    <row r="292" spans="1:15">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" s="3"/>
       <c r="B292" s="4"/>
       <c r="C292" s="10"/>
@@ -6115,7 +6056,7 @@
       <c r="N292" s="5"/>
       <c r="O292" s="5"/>
     </row>
-    <row r="293" spans="1:15">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" s="3"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -6132,7 +6073,7 @@
       <c r="N293" s="5"/>
       <c r="O293" s="5"/>
     </row>
-    <row r="294" spans="1:15">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" s="3"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -6149,7 +6090,7 @@
       <c r="N294" s="5"/>
       <c r="O294" s="5"/>
     </row>
-    <row r="295" spans="1:15">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" s="3"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -6166,7 +6107,7 @@
       <c r="N295" s="5"/>
       <c r="O295" s="5"/>
     </row>
-    <row r="296" spans="1:15">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" s="3"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
@@ -6183,7 +6124,7 @@
       <c r="N296" s="5"/>
       <c r="O296" s="5"/>
     </row>
-    <row r="297" spans="1:15">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" s="3"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -6200,7 +6141,7 @@
       <c r="N297" s="5"/>
       <c r="O297" s="5"/>
     </row>
-    <row r="298" spans="1:15">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" s="3"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
@@ -6217,7 +6158,7 @@
       <c r="N298" s="5"/>
       <c r="O298" s="5"/>
     </row>
-    <row r="299" spans="1:15">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" s="3"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -6234,7 +6175,7 @@
       <c r="N299" s="5"/>
       <c r="O299" s="5"/>
     </row>
-    <row r="300" spans="1:15">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" s="3"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -6251,7 +6192,7 @@
       <c r="N300" s="5"/>
       <c r="O300" s="5"/>
     </row>
-    <row r="301" spans="1:15">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" s="3"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -6268,7 +6209,7 @@
       <c r="N301" s="5"/>
       <c r="O301" s="5"/>
     </row>
-    <row r="302" spans="1:15">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302" s="3"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -6285,7 +6226,7 @@
       <c r="N302" s="5"/>
       <c r="O302" s="5"/>
     </row>
-    <row r="303" spans="1:15">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303" s="3"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -6302,7 +6243,7 @@
       <c r="N303" s="5"/>
       <c r="O303" s="5"/>
     </row>
-    <row r="304" spans="1:15">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304" s="3"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
@@ -6319,7 +6260,7 @@
       <c r="N304" s="5"/>
       <c r="O304" s="5"/>
     </row>
-    <row r="305" spans="1:15">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305" s="3"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
@@ -6336,7 +6277,7 @@
       <c r="N305" s="5"/>
       <c r="O305" s="5"/>
     </row>
-    <row r="306" spans="1:15">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306" s="3"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
@@ -6353,7 +6294,7 @@
       <c r="N306" s="5"/>
       <c r="O306" s="5"/>
     </row>
-    <row r="307" spans="1:15">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307" s="3"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
@@ -6370,7 +6311,7 @@
       <c r="N307" s="5"/>
       <c r="O307" s="5"/>
     </row>
-    <row r="308" spans="1:15">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308" s="3"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
@@ -6387,7 +6328,7 @@
       <c r="N308" s="5"/>
       <c r="O308" s="5"/>
     </row>
-    <row r="309" spans="1:15">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309" s="3"/>
       <c r="B309" s="4"/>
       <c r="C309" s="10"/>
@@ -6404,7 +6345,7 @@
       <c r="N309" s="5"/>
       <c r="O309" s="5"/>
     </row>
-    <row r="310" spans="1:15">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310" s="3"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
@@ -6421,7 +6362,7 @@
       <c r="N310" s="5"/>
       <c r="O310" s="5"/>
     </row>
-    <row r="311" spans="1:15">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A311" s="3"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -6438,7 +6379,7 @@
       <c r="N311" s="5"/>
       <c r="O311" s="5"/>
     </row>
-    <row r="312" spans="1:15">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312" s="3"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
@@ -6455,7 +6396,7 @@
       <c r="N312" s="5"/>
       <c r="O312" s="5"/>
     </row>
-    <row r="313" spans="1:15">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313" s="3"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -6472,7 +6413,7 @@
       <c r="N313" s="5"/>
       <c r="O313" s="5"/>
     </row>
-    <row r="314" spans="1:15">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A314" s="3"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
@@ -6489,7 +6430,7 @@
       <c r="N314" s="5"/>
       <c r="O314" s="5"/>
     </row>
-    <row r="315" spans="1:15">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A315" s="3"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
@@ -6506,7 +6447,7 @@
       <c r="N315" s="5"/>
       <c r="O315" s="5"/>
     </row>
-    <row r="316" spans="1:15">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316" s="3"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
@@ -6523,7 +6464,7 @@
       <c r="N316" s="5"/>
       <c r="O316" s="5"/>
     </row>
-    <row r="317" spans="1:15">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317" s="3"/>
       <c r="B317" s="4"/>
       <c r="C317" s="10"/>
@@ -6540,7 +6481,7 @@
       <c r="N317" s="5"/>
       <c r="O317" s="5"/>
     </row>
-    <row r="318" spans="1:15">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A318" s="3"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
@@ -6557,7 +6498,7 @@
       <c r="N318" s="5"/>
       <c r="O318" s="5"/>
     </row>
-    <row r="319" spans="1:15">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319" s="3"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -6574,7 +6515,7 @@
       <c r="N319" s="5"/>
       <c r="O319" s="5"/>
     </row>
-    <row r="320" spans="1:15">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320" s="3"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
@@ -6591,7 +6532,7 @@
       <c r="N320" s="5"/>
       <c r="O320" s="5"/>
     </row>
-    <row r="321" spans="1:15">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321" s="3"/>
       <c r="B321" s="4"/>
       <c r="C321" s="10"/>
@@ -6608,7 +6549,7 @@
       <c r="N321" s="5"/>
       <c r="O321" s="5"/>
     </row>
-    <row r="322" spans="1:15">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322" s="3"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
@@ -6625,7 +6566,7 @@
       <c r="N322" s="5"/>
       <c r="O322" s="5"/>
     </row>
-    <row r="323" spans="1:15">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323" s="3"/>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
@@ -6642,7 +6583,7 @@
       <c r="N323" s="5"/>
       <c r="O323" s="5"/>
     </row>
-    <row r="324" spans="1:15">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324" s="3"/>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -6659,7 +6600,7 @@
       <c r="N324" s="5"/>
       <c r="O324" s="5"/>
     </row>
-    <row r="325" spans="1:15">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325" s="3"/>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
@@ -6676,7 +6617,7 @@
       <c r="N325" s="5"/>
       <c r="O325" s="5"/>
     </row>
-    <row r="326" spans="1:15">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326" s="3"/>
       <c r="B326" s="4"/>
       <c r="C326" s="10"/>
@@ -6693,7 +6634,7 @@
       <c r="N326" s="5"/>
       <c r="O326" s="5"/>
     </row>
-    <row r="327" spans="1:15">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327" s="3"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
@@ -6710,7 +6651,7 @@
       <c r="N327" s="5"/>
       <c r="O327" s="5"/>
     </row>
-    <row r="328" spans="1:15">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328" s="3"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -6727,7 +6668,7 @@
       <c r="N328" s="5"/>
       <c r="O328" s="5"/>
     </row>
-    <row r="329" spans="1:15">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329" s="3"/>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
@@ -6744,7 +6685,7 @@
       <c r="N329" s="5"/>
       <c r="O329" s="5"/>
     </row>
-    <row r="330" spans="1:15">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330" s="3"/>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
@@ -6761,7 +6702,7 @@
       <c r="N330" s="5"/>
       <c r="O330" s="5"/>
     </row>
-    <row r="331" spans="1:15">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331" s="3"/>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
@@ -6778,7 +6719,7 @@
       <c r="N331" s="5"/>
       <c r="O331" s="5"/>
     </row>
-    <row r="332" spans="1:15">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332" s="3"/>
       <c r="B332" s="4"/>
       <c r="C332" s="10"/>
@@ -6795,7 +6736,7 @@
       <c r="N332" s="5"/>
       <c r="O332" s="5"/>
     </row>
-    <row r="333" spans="1:15">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A333" s="15"/>
       <c r="B333" s="17"/>
       <c r="C333" s="17"/>
@@ -6812,7 +6753,7 @@
       <c r="N333" s="5"/>
       <c r="O333" s="5"/>
     </row>
-    <row r="334" spans="1:15">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334" s="3"/>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
@@ -6829,7 +6770,7 @@
       <c r="N334" s="5"/>
       <c r="O334" s="5"/>
     </row>
-    <row r="335" spans="1:15">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A335" s="3"/>
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
@@ -6846,7 +6787,7 @@
       <c r="N335" s="5"/>
       <c r="O335" s="5"/>
     </row>
-    <row r="336" spans="1:15">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A336" s="3"/>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
@@ -6863,7 +6804,7 @@
       <c r="N336" s="5"/>
       <c r="O336" s="5"/>
     </row>
-    <row r="337" spans="1:15">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337" s="3"/>
       <c r="B337" s="4"/>
       <c r="C337" s="10"/>
@@ -6880,7 +6821,7 @@
       <c r="N337" s="5"/>
       <c r="O337" s="5"/>
     </row>
-    <row r="338" spans="1:15">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A338" s="3"/>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
@@ -6897,7 +6838,7 @@
       <c r="N338" s="5"/>
       <c r="O338" s="5"/>
     </row>
-    <row r="339" spans="1:15">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339" s="3"/>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
@@ -6914,7 +6855,7 @@
       <c r="N339" s="5"/>
       <c r="O339" s="5"/>
     </row>
-    <row r="340" spans="1:15">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340" s="3"/>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
@@ -6931,7 +6872,7 @@
       <c r="N340" s="14"/>
       <c r="O340" s="5"/>
     </row>
-    <row r="341" spans="1:15">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A341" s="3"/>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
@@ -6948,7 +6889,7 @@
       <c r="N341" s="5"/>
       <c r="O341" s="5"/>
     </row>
-    <row r="342" spans="1:15">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342" s="3"/>
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
@@ -6965,7 +6906,7 @@
       <c r="N342" s="5"/>
       <c r="O342" s="5"/>
     </row>
-    <row r="343" spans="1:15">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A343" s="3"/>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
@@ -6982,7 +6923,7 @@
       <c r="N343" s="5"/>
       <c r="O343" s="5"/>
     </row>
-    <row r="344" spans="1:15">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344" s="3"/>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
@@ -6999,7 +6940,7 @@
       <c r="N344" s="5"/>
       <c r="O344" s="5"/>
     </row>
-    <row r="345" spans="1:15">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345" s="3"/>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
@@ -7016,7 +6957,7 @@
       <c r="N345" s="5"/>
       <c r="O345" s="5"/>
     </row>
-    <row r="346" spans="1:15">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A346" s="3"/>
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
@@ -7033,7 +6974,7 @@
       <c r="N346" s="5"/>
       <c r="O346" s="5"/>
     </row>
-    <row r="347" spans="1:15">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A347" s="3"/>
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
@@ -7050,7 +6991,7 @@
       <c r="N347" s="5"/>
       <c r="O347" s="5"/>
     </row>
-    <row r="348" spans="1:15">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A348" s="3"/>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
@@ -7067,7 +7008,7 @@
       <c r="N348" s="5"/>
       <c r="O348" s="5"/>
     </row>
-    <row r="349" spans="1:15">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A349" s="3"/>
       <c r="B349" s="4"/>
       <c r="C349" s="10"/>
@@ -7084,7 +7025,7 @@
       <c r="N349" s="5"/>
       <c r="O349" s="5"/>
     </row>
-    <row r="350" spans="1:15">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A350" s="3"/>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
@@ -7101,7 +7042,7 @@
       <c r="N350" s="5"/>
       <c r="O350" s="5"/>
     </row>
-    <row r="351" spans="1:15">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351" s="3"/>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
@@ -7118,7 +7059,7 @@
       <c r="N351" s="5"/>
       <c r="O351" s="5"/>
     </row>
-    <row r="352" spans="1:15">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A352" s="3"/>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
@@ -7135,7 +7076,7 @@
       <c r="N352" s="5"/>
       <c r="O352" s="5"/>
     </row>
-    <row r="353" spans="1:15">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A353" s="3"/>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
@@ -7152,7 +7093,7 @@
       <c r="N353" s="5"/>
       <c r="O353" s="5"/>
     </row>
-    <row r="354" spans="1:15">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A354" s="3"/>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
@@ -7169,7 +7110,7 @@
       <c r="N354" s="5"/>
       <c r="O354" s="5"/>
     </row>
-    <row r="355" spans="1:15">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A355" s="3"/>
       <c r="B355" s="4"/>
       <c r="C355" s="10"/>
@@ -7186,7 +7127,7 @@
       <c r="N355" s="5"/>
       <c r="O355" s="5"/>
     </row>
-    <row r="356" spans="1:15">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A356" s="3"/>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
@@ -7203,7 +7144,7 @@
       <c r="N356" s="5"/>
       <c r="O356" s="5"/>
     </row>
-    <row r="357" spans="1:15">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A357" s="3"/>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
@@ -7220,7 +7161,7 @@
       <c r="N357" s="5"/>
       <c r="O357" s="5"/>
     </row>
-    <row r="358" spans="1:15">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A358" s="3"/>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
@@ -7237,7 +7178,7 @@
       <c r="N358" s="5"/>
       <c r="O358" s="5"/>
     </row>
-    <row r="359" spans="1:15">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A359" s="3"/>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
@@ -7254,7 +7195,7 @@
       <c r="N359" s="5"/>
       <c r="O359" s="5"/>
     </row>
-    <row r="360" spans="1:15">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A360" s="3"/>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
@@ -7271,7 +7212,7 @@
       <c r="N360" s="5"/>
       <c r="O360" s="5"/>
     </row>
-    <row r="361" spans="1:15">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A361" s="3"/>
       <c r="B361" s="4"/>
       <c r="C361" s="10"/>
@@ -7288,7 +7229,7 @@
       <c r="N361" s="5"/>
       <c r="O361" s="5"/>
     </row>
-    <row r="362" spans="1:15">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A362" s="3"/>
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
@@ -7305,7 +7246,7 @@
       <c r="N362" s="5"/>
       <c r="O362" s="5"/>
     </row>
-    <row r="363" spans="1:15">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A363" s="3"/>
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
@@ -7322,7 +7263,7 @@
       <c r="N363" s="5"/>
       <c r="O363" s="5"/>
     </row>
-    <row r="364" spans="1:15">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A364" s="3"/>
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
@@ -7339,7 +7280,7 @@
       <c r="N364" s="5"/>
       <c r="O364" s="5"/>
     </row>
-    <row r="365" spans="1:15">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A365" s="3"/>
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
@@ -7356,7 +7297,7 @@
       <c r="N365" s="5"/>
       <c r="O365" s="5"/>
     </row>
-    <row r="366" spans="1:15">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A366" s="3"/>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
@@ -7373,7 +7314,7 @@
       <c r="N366" s="5"/>
       <c r="O366" s="5"/>
     </row>
-    <row r="367" spans="1:15">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A367" s="3"/>
       <c r="B367" s="4"/>
       <c r="C367" s="10"/>
@@ -7390,7 +7331,7 @@
       <c r="N367" s="5"/>
       <c r="O367" s="5"/>
     </row>
-    <row r="368" spans="1:15">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A368" s="3"/>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
@@ -7407,7 +7348,7 @@
       <c r="N368" s="5"/>
       <c r="O368" s="5"/>
     </row>
-    <row r="369" spans="1:15">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A369" s="3"/>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
@@ -7424,7 +7365,7 @@
       <c r="N369" s="5"/>
       <c r="O369" s="5"/>
     </row>
-    <row r="370" spans="1:15">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A370" s="3"/>
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
@@ -7441,7 +7382,7 @@
       <c r="N370" s="5"/>
       <c r="O370" s="5"/>
     </row>
-    <row r="371" spans="1:15">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A371" s="3"/>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
@@ -7458,7 +7399,7 @@
       <c r="N371" s="5"/>
       <c r="O371" s="5"/>
     </row>
-    <row r="372" spans="1:15">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A372" s="3"/>
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
@@ -7475,7 +7416,7 @@
       <c r="N372" s="5"/>
       <c r="O372" s="5"/>
     </row>
-    <row r="373" spans="1:15">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A373" s="3"/>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
@@ -7492,7 +7433,7 @@
       <c r="N373" s="5"/>
       <c r="O373" s="5"/>
     </row>
-    <row r="374" spans="1:15">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A374" s="3"/>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
@@ -7509,7 +7450,7 @@
       <c r="N374" s="5"/>
       <c r="O374" s="5"/>
     </row>
-    <row r="375" spans="1:15">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A375" s="3"/>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
@@ -7526,7 +7467,7 @@
       <c r="N375" s="5"/>
       <c r="O375" s="5"/>
     </row>
-    <row r="376" spans="1:15">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A376" s="3"/>
       <c r="B376" s="4"/>
       <c r="C376" s="10"/>
@@ -7543,7 +7484,7 @@
       <c r="N376" s="5"/>
       <c r="O376" s="5"/>
     </row>
-    <row r="377" spans="1:15">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A377" s="3"/>
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
@@ -7560,7 +7501,7 @@
       <c r="N377" s="5"/>
       <c r="O377" s="5"/>
     </row>
-    <row r="378" spans="1:15">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A378" s="3"/>
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
@@ -7577,7 +7518,7 @@
       <c r="N378" s="5"/>
       <c r="O378" s="5"/>
     </row>
-    <row r="379" spans="1:15">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A379" s="3"/>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
@@ -7594,7 +7535,7 @@
       <c r="N379" s="5"/>
       <c r="O379" s="5"/>
     </row>
-    <row r="380" spans="1:15">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A380" s="3"/>
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
@@ -7611,7 +7552,7 @@
       <c r="N380" s="5"/>
       <c r="O380" s="5"/>
     </row>
-    <row r="381" spans="1:15">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A381" s="3"/>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
@@ -7628,7 +7569,7 @@
       <c r="N381" s="5"/>
       <c r="O381" s="5"/>
     </row>
-    <row r="382" spans="1:15">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A382" s="3"/>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
@@ -7645,7 +7586,7 @@
       <c r="N382" s="5"/>
       <c r="O382" s="5"/>
     </row>
-    <row r="383" spans="1:15">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A383" s="3"/>
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
@@ -7662,7 +7603,7 @@
       <c r="N383" s="5"/>
       <c r="O383" s="5"/>
     </row>
-    <row r="384" spans="1:15">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A384" s="3"/>
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
@@ -7679,7 +7620,7 @@
       <c r="N384" s="5"/>
       <c r="O384" s="5"/>
     </row>
-    <row r="385" spans="1:15">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A385" s="3"/>
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
@@ -7696,7 +7637,7 @@
       <c r="N385" s="5"/>
       <c r="O385" s="5"/>
     </row>
-    <row r="386" spans="1:15">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A386" s="3"/>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
@@ -7713,7 +7654,7 @@
       <c r="N386" s="5"/>
       <c r="O386" s="5"/>
     </row>
-    <row r="387" spans="1:15">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A387" s="3"/>
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
@@ -7730,7 +7671,7 @@
       <c r="N387" s="5"/>
       <c r="O387" s="5"/>
     </row>
-    <row r="388" spans="1:15">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A388" s="3"/>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
@@ -7747,7 +7688,7 @@
       <c r="N388" s="5"/>
       <c r="O388" s="5"/>
     </row>
-    <row r="389" spans="1:15">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A389" s="3"/>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
@@ -7764,7 +7705,7 @@
       <c r="N389" s="5"/>
       <c r="O389" s="5"/>
     </row>
-    <row r="390" spans="1:15">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A390" s="3"/>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
@@ -7781,7 +7722,7 @@
       <c r="N390" s="5"/>
       <c r="O390" s="5"/>
     </row>
-    <row r="391" spans="1:15">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A391" s="3"/>
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
@@ -7798,7 +7739,7 @@
       <c r="N391" s="5"/>
       <c r="O391" s="5"/>
     </row>
-    <row r="392" spans="1:15">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A392" s="3"/>
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
@@ -7815,7 +7756,7 @@
       <c r="N392" s="5"/>
       <c r="O392" s="5"/>
     </row>
-    <row r="393" spans="1:15">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A393" s="3"/>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
@@ -7832,7 +7773,7 @@
       <c r="N393" s="5"/>
       <c r="O393" s="5"/>
     </row>
-    <row r="394" spans="1:15">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A394" s="3"/>
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
@@ -7849,7 +7790,7 @@
       <c r="N394" s="5"/>
       <c r="O394" s="5"/>
     </row>
-    <row r="395" spans="1:15">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A395" s="3"/>
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
@@ -7866,7 +7807,7 @@
       <c r="N395" s="5"/>
       <c r="O395" s="5"/>
     </row>
-    <row r="396" spans="1:15">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A396" s="3"/>
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
@@ -7883,7 +7824,7 @@
       <c r="N396" s="5"/>
       <c r="O396" s="5"/>
     </row>
-    <row r="397" spans="1:15">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A397" s="3"/>
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
@@ -7900,7 +7841,7 @@
       <c r="N397" s="5"/>
       <c r="O397" s="5"/>
     </row>
-    <row r="398" spans="1:15">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A398" s="3"/>
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
@@ -7917,7 +7858,7 @@
       <c r="N398" s="5"/>
       <c r="O398" s="5"/>
     </row>
-    <row r="399" spans="1:15">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A399" s="3"/>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
@@ -7934,7 +7875,7 @@
       <c r="N399" s="5"/>
       <c r="O399" s="5"/>
     </row>
-    <row r="400" spans="1:15">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A400" s="3"/>
       <c r="B400" s="5"/>
       <c r="C400" s="5"/>
@@ -7951,7 +7892,7 @@
       <c r="N400" s="5"/>
       <c r="O400" s="5"/>
     </row>
-    <row r="401" spans="1:15">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A401" s="3"/>
       <c r="B401" s="5"/>
       <c r="C401" s="5"/>
@@ -7968,7 +7909,7 @@
       <c r="N401" s="5"/>
       <c r="O401" s="5"/>
     </row>
-    <row r="402" spans="1:15">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A402" s="3"/>
       <c r="B402" s="5"/>
       <c r="C402" s="5"/>
@@ -7985,7 +7926,7 @@
       <c r="N402" s="5"/>
       <c r="O402" s="5"/>
     </row>
-    <row r="403" spans="1:15">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A403" s="3"/>
       <c r="B403" s="5"/>
       <c r="C403" s="5"/>
@@ -8002,7 +7943,7 @@
       <c r="N403" s="5"/>
       <c r="O403" s="5"/>
     </row>
-    <row r="404" spans="1:15">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A404" s="3"/>
       <c r="B404" s="5"/>
       <c r="C404" s="5"/>
@@ -8019,7 +7960,7 @@
       <c r="N404" s="5"/>
       <c r="O404" s="5"/>
     </row>
-    <row r="405" spans="1:15">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A405" s="3"/>
       <c r="B405" s="5"/>
       <c r="C405" s="5"/>
@@ -8036,7 +7977,7 @@
       <c r="N405" s="5"/>
       <c r="O405" s="5"/>
     </row>
-    <row r="406" spans="1:15">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A406" s="3"/>
       <c r="B406" s="5"/>
       <c r="C406" s="5"/>
@@ -8053,7 +7994,7 @@
       <c r="N406" s="5"/>
       <c r="O406" s="5"/>
     </row>
-    <row r="407" spans="1:15">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A407" s="3"/>
       <c r="B407" s="5"/>
       <c r="C407" s="5"/>
@@ -8070,7 +8011,7 @@
       <c r="N407" s="5"/>
       <c r="O407" s="5"/>
     </row>
-    <row r="408" spans="1:15">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A408" s="3"/>
       <c r="B408" s="5"/>
       <c r="C408" s="5"/>
@@ -8087,7 +8028,7 @@
       <c r="N408" s="5"/>
       <c r="O408" s="5"/>
     </row>
-    <row r="409" spans="1:15">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A409" s="3"/>
       <c r="B409" s="5"/>
       <c r="C409" s="5"/>
@@ -8104,7 +8045,7 @@
       <c r="N409" s="5"/>
       <c r="O409" s="5"/>
     </row>
-    <row r="410" spans="1:15">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A410" s="15"/>
       <c r="B410" s="16"/>
       <c r="C410" s="16"/>
@@ -8121,7 +8062,7 @@
       <c r="N410" s="5"/>
       <c r="O410" s="5"/>
     </row>
-    <row r="411" spans="1:15">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A411" s="3"/>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
@@ -8138,7 +8079,7 @@
       <c r="N411" s="5"/>
       <c r="O411" s="5"/>
     </row>
-    <row r="412" spans="1:15">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A412" s="3"/>
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
@@ -8155,7 +8096,7 @@
       <c r="N412" s="5"/>
       <c r="O412" s="5"/>
     </row>
-    <row r="413" spans="1:15">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A413" s="3"/>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
@@ -8172,7 +8113,7 @@
       <c r="N413" s="5"/>
       <c r="O413" s="5"/>
     </row>
-    <row r="414" spans="1:15">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A414" s="3"/>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
@@ -8189,7 +8130,7 @@
       <c r="N414" s="5"/>
       <c r="O414" s="5"/>
     </row>
-    <row r="415" spans="1:15">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A415" s="3"/>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
@@ -8206,7 +8147,7 @@
       <c r="N415" s="5"/>
       <c r="O415" s="5"/>
     </row>
-    <row r="416" spans="1:15">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A416" s="3"/>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
@@ -8223,7 +8164,7 @@
       <c r="N416" s="5"/>
       <c r="O416" s="5"/>
     </row>
-    <row r="417" spans="1:15">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A417" s="3"/>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
@@ -8240,7 +8181,7 @@
       <c r="N417" s="5"/>
       <c r="O417" s="5"/>
     </row>
-    <row r="418" spans="1:15">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A418" s="3"/>
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
@@ -8257,7 +8198,7 @@
       <c r="N418" s="5"/>
       <c r="O418" s="5"/>
     </row>
-    <row r="419" spans="1:15">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A419" s="3"/>
       <c r="B419" s="4"/>
       <c r="C419" s="10"/>
@@ -8274,7 +8215,7 @@
       <c r="N419" s="5"/>
       <c r="O419" s="5"/>
     </row>
-    <row r="420" spans="1:15">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A420" s="3"/>
       <c r="B420" s="4"/>
       <c r="C420" s="4"/>
@@ -8291,7 +8232,7 @@
       <c r="N420" s="5"/>
       <c r="O420" s="5"/>
     </row>
-    <row r="421" spans="1:15">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A421" s="3"/>
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
@@ -8308,7 +8249,7 @@
       <c r="N421" s="5"/>
       <c r="O421" s="5"/>
     </row>
-    <row r="422" spans="1:15">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A422" s="3"/>
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
@@ -8325,7 +8266,7 @@
       <c r="N422" s="5"/>
       <c r="O422" s="5"/>
     </row>
-    <row r="423" spans="1:15">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A423" s="3"/>
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
@@ -8342,7 +8283,7 @@
       <c r="N423" s="5"/>
       <c r="O423" s="5"/>
     </row>
-    <row r="424" spans="1:15">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A424" s="3"/>
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
@@ -8359,7 +8300,7 @@
       <c r="N424" s="5"/>
       <c r="O424" s="5"/>
     </row>
-    <row r="425" spans="1:15">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A425" s="3"/>
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
@@ -8376,7 +8317,7 @@
       <c r="N425" s="5"/>
       <c r="O425" s="5"/>
     </row>
-    <row r="426" spans="1:15">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A426" s="3"/>
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
@@ -8393,7 +8334,7 @@
       <c r="N426" s="5"/>
       <c r="O426" s="5"/>
     </row>
-    <row r="427" spans="1:15">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A427" s="3"/>
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
@@ -8410,7 +8351,7 @@
       <c r="N427" s="5"/>
       <c r="O427" s="5"/>
     </row>
-    <row r="428" spans="1:15">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A428" s="3"/>
       <c r="B428" s="4"/>
       <c r="C428" s="10"/>
@@ -8427,7 +8368,7 @@
       <c r="N428" s="5"/>
       <c r="O428" s="5"/>
     </row>
-    <row r="429" spans="1:15">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A429" s="3"/>
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
@@ -8444,7 +8385,7 @@
       <c r="N429" s="5"/>
       <c r="O429" s="5"/>
     </row>
-    <row r="430" spans="1:15">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A430" s="3"/>
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
@@ -8461,7 +8402,7 @@
       <c r="N430" s="5"/>
       <c r="O430" s="5"/>
     </row>
-    <row r="431" spans="1:15">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A431" s="3"/>
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
@@ -8478,7 +8419,7 @@
       <c r="N431" s="5"/>
       <c r="O431" s="5"/>
     </row>
-    <row r="432" spans="1:15">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A432" s="3"/>
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
@@ -8495,7 +8436,7 @@
       <c r="N432" s="5"/>
       <c r="O432" s="5"/>
     </row>
-    <row r="433" spans="1:15">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A433" s="3"/>
       <c r="B433" s="4"/>
       <c r="C433" s="10"/>
@@ -8512,7 +8453,7 @@
       <c r="N433" s="5"/>
       <c r="O433" s="5"/>
     </row>
-    <row r="434" spans="1:15">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A434" s="3"/>
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
@@ -8529,7 +8470,7 @@
       <c r="N434" s="5"/>
       <c r="O434" s="5"/>
     </row>
-    <row r="435" spans="1:15">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A435" s="3"/>
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
@@ -8546,7 +8487,7 @@
       <c r="N435" s="5"/>
       <c r="O435" s="5"/>
     </row>
-    <row r="436" spans="1:15">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A436" s="3"/>
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
@@ -8563,7 +8504,7 @@
       <c r="N436" s="5"/>
       <c r="O436" s="5"/>
     </row>
-    <row r="437" spans="1:15">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A437" s="3"/>
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
@@ -8580,7 +8521,7 @@
       <c r="N437" s="5"/>
       <c r="O437" s="5"/>
     </row>
-    <row r="438" spans="1:15">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A438" s="3"/>
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
@@ -8597,7 +8538,7 @@
       <c r="N438" s="5"/>
       <c r="O438" s="5"/>
     </row>
-    <row r="439" spans="1:15">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A439" s="3"/>
       <c r="B439" s="4"/>
       <c r="C439" s="10"/>
@@ -8614,7 +8555,7 @@
       <c r="N439" s="5"/>
       <c r="O439" s="5"/>
     </row>
-    <row r="440" spans="1:15">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A440" s="3"/>
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
@@ -8631,7 +8572,7 @@
       <c r="N440" s="5"/>
       <c r="O440" s="5"/>
     </row>
-    <row r="441" spans="1:15">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A441" s="3"/>
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
@@ -8648,7 +8589,7 @@
       <c r="N441" s="5"/>
       <c r="O441" s="5"/>
     </row>
-    <row r="442" spans="1:15">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A442" s="3"/>
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
@@ -8665,7 +8606,7 @@
       <c r="N442" s="5"/>
       <c r="O442" s="5"/>
     </row>
-    <row r="443" spans="1:15">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A443" s="3"/>
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
@@ -8682,7 +8623,7 @@
       <c r="N443" s="5"/>
       <c r="O443" s="5"/>
     </row>
-    <row r="444" spans="1:15">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A444" s="3"/>
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
@@ -8699,7 +8640,7 @@
       <c r="N444" s="5"/>
       <c r="O444" s="5"/>
     </row>
-    <row r="445" spans="1:15">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A445" s="3"/>
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
@@ -8716,7 +8657,7 @@
       <c r="N445" s="5"/>
       <c r="O445" s="5"/>
     </row>
-    <row r="446" spans="1:15">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A446" s="3"/>
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
@@ -8733,7 +8674,7 @@
       <c r="N446" s="5"/>
       <c r="O446" s="5"/>
     </row>
-    <row r="447" spans="1:15">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A447" s="3"/>
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
@@ -8750,7 +8691,7 @@
       <c r="N447" s="5"/>
       <c r="O447" s="5"/>
     </row>
-    <row r="448" spans="1:15">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A448" s="3"/>
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
@@ -8767,7 +8708,7 @@
       <c r="N448" s="5"/>
       <c r="O448" s="5"/>
     </row>
-    <row r="449" spans="1:15">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A449" s="3"/>
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
@@ -8784,7 +8725,7 @@
       <c r="N449" s="5"/>
       <c r="O449" s="5"/>
     </row>
-    <row r="450" spans="1:15">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A450" s="3"/>
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
@@ -8801,7 +8742,7 @@
       <c r="N450" s="5"/>
       <c r="O450" s="5"/>
     </row>
-    <row r="451" spans="1:15">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A451" s="3"/>
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
@@ -8818,7 +8759,7 @@
       <c r="N451" s="5"/>
       <c r="O451" s="5"/>
     </row>
-    <row r="452" spans="1:15">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A452" s="3"/>
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
@@ -8835,7 +8776,7 @@
       <c r="N452" s="5"/>
       <c r="O452" s="5"/>
     </row>
-    <row r="453" spans="1:15">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A453" s="3"/>
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
@@ -8852,7 +8793,7 @@
       <c r="N453" s="5"/>
       <c r="O453" s="5"/>
     </row>
-    <row r="454" spans="1:15">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A454" s="3"/>
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
@@ -8869,7 +8810,7 @@
       <c r="N454" s="5"/>
       <c r="O454" s="5"/>
     </row>
-    <row r="455" spans="1:15">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A455" s="3"/>
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
@@ -8886,7 +8827,7 @@
       <c r="N455" s="5"/>
       <c r="O455" s="5"/>
     </row>
-    <row r="456" spans="1:15">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A456" s="3"/>
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
@@ -8903,7 +8844,7 @@
       <c r="N456" s="5"/>
       <c r="O456" s="5"/>
     </row>
-    <row r="457" spans="1:15">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A457" s="3"/>
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
@@ -8920,7 +8861,7 @@
       <c r="N457" s="5"/>
       <c r="O457" s="5"/>
     </row>
-    <row r="458" spans="1:15">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A458" s="3"/>
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
@@ -8937,7 +8878,7 @@
       <c r="N458" s="5"/>
       <c r="O458" s="5"/>
     </row>
-    <row r="459" spans="1:15">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A459" s="3"/>
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
@@ -8954,7 +8895,7 @@
       <c r="N459" s="5"/>
       <c r="O459" s="5"/>
     </row>
-    <row r="460" spans="1:15">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A460" s="3"/>
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
@@ -8971,7 +8912,7 @@
       <c r="N460" s="5"/>
       <c r="O460" s="5"/>
     </row>
-    <row r="461" spans="1:15">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A461" s="3"/>
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
@@ -8988,7 +8929,7 @@
       <c r="N461" s="5"/>
       <c r="O461" s="5"/>
     </row>
-    <row r="462" spans="1:15">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A462" s="3"/>
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
@@ -9005,7 +8946,7 @@
       <c r="N462" s="5"/>
       <c r="O462" s="5"/>
     </row>
-    <row r="463" spans="1:15">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A463" s="3"/>
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
@@ -9022,7 +8963,7 @@
       <c r="N463" s="5"/>
       <c r="O463" s="5"/>
     </row>
-    <row r="464" spans="1:15">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A464" s="3"/>
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
@@ -9039,7 +8980,7 @@
       <c r="N464" s="5"/>
       <c r="O464" s="5"/>
     </row>
-    <row r="465" spans="1:15">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A465" s="3"/>
       <c r="B465" s="4"/>
       <c r="C465" s="10"/>
@@ -9056,7 +8997,7 @@
       <c r="N465" s="5"/>
       <c r="O465" s="5"/>
     </row>
-    <row r="466" spans="1:15">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A466" s="3"/>
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
@@ -9073,7 +9014,7 @@
       <c r="N466" s="5"/>
       <c r="O466" s="5"/>
     </row>
-    <row r="467" spans="1:15">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A467" s="3"/>
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
@@ -9090,7 +9031,7 @@
       <c r="N467" s="5"/>
       <c r="O467" s="5"/>
     </row>
-    <row r="468" spans="1:15">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A468" s="3"/>
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
@@ -9107,7 +9048,7 @@
       <c r="N468" s="5"/>
       <c r="O468" s="5"/>
     </row>
-    <row r="469" spans="1:15">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A469" s="3"/>
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
@@ -9124,7 +9065,7 @@
       <c r="N469" s="5"/>
       <c r="O469" s="5"/>
     </row>
-    <row r="470" spans="1:15">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A470" s="3"/>
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
@@ -9141,7 +9082,7 @@
       <c r="N470" s="5"/>
       <c r="O470" s="5"/>
     </row>
-    <row r="471" spans="1:15">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A471" s="3"/>
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
@@ -9158,7 +9099,7 @@
       <c r="N471" s="5"/>
       <c r="O471" s="5"/>
     </row>
-    <row r="472" spans="1:15">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A472" s="3"/>
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
@@ -9175,7 +9116,7 @@
       <c r="N472" s="5"/>
       <c r="O472" s="5"/>
     </row>
-    <row r="473" spans="1:15">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A473" s="3"/>
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
@@ -9192,7 +9133,7 @@
       <c r="N473" s="5"/>
       <c r="O473" s="5"/>
     </row>
-    <row r="474" spans="1:15">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A474" s="3"/>
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
@@ -9209,7 +9150,7 @@
       <c r="N474" s="5"/>
       <c r="O474" s="5"/>
     </row>
-    <row r="475" spans="1:15">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A475" s="3"/>
       <c r="B475" s="21"/>
       <c r="C475" s="4"/>
@@ -9226,7 +9167,7 @@
       <c r="N475" s="5"/>
       <c r="O475" s="5"/>
     </row>
-    <row r="476" spans="1:15">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A476" s="3"/>
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
@@ -9243,7 +9184,7 @@
       <c r="N476" s="5"/>
       <c r="O476" s="5"/>
     </row>
-    <row r="477" spans="1:15">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A477" s="3"/>
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
@@ -9260,7 +9201,7 @@
       <c r="N477" s="5"/>
       <c r="O477" s="5"/>
     </row>
-    <row r="478" spans="1:15">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A478" s="3"/>
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
@@ -9277,7 +9218,7 @@
       <c r="N478" s="5"/>
       <c r="O478" s="5"/>
     </row>
-    <row r="479" spans="1:15">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A479" s="3"/>
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
@@ -9294,7 +9235,7 @@
       <c r="N479" s="5"/>
       <c r="O479" s="5"/>
     </row>
-    <row r="480" spans="1:15">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A480" s="3"/>
       <c r="B480" s="4"/>
       <c r="C480" s="4"/>
@@ -9311,7 +9252,7 @@
       <c r="N480" s="5"/>
       <c r="O480" s="5"/>
     </row>
-    <row r="481" spans="1:15">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A481" s="3"/>
       <c r="B481" s="4"/>
       <c r="C481" s="4"/>
@@ -9328,7 +9269,7 @@
       <c r="N481" s="5"/>
       <c r="O481" s="5"/>
     </row>
-    <row r="482" spans="1:15">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A482" s="3"/>
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
@@ -9345,7 +9286,7 @@
       <c r="N482" s="5"/>
       <c r="O482" s="5"/>
     </row>
-    <row r="483" spans="1:15">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A483" s="3"/>
       <c r="B483" s="4"/>
       <c r="C483" s="4"/>
@@ -9362,7 +9303,7 @@
       <c r="N483" s="5"/>
       <c r="O483" s="5"/>
     </row>
-    <row r="484" spans="1:15">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A484" s="3"/>
       <c r="B484" s="4"/>
       <c r="C484" s="4"/>
@@ -9379,7 +9320,7 @@
       <c r="N484" s="5"/>
       <c r="O484" s="5"/>
     </row>
-    <row r="485" spans="1:15">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A485" s="3"/>
       <c r="B485" s="4"/>
       <c r="C485" s="10"/>
@@ -9396,7 +9337,7 @@
       <c r="N485" s="5"/>
       <c r="O485" s="5"/>
     </row>
-    <row r="486" spans="1:15">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A486" s="3"/>
       <c r="B486" s="4"/>
       <c r="C486" s="4"/>
@@ -9413,7 +9354,7 @@
       <c r="N486" s="5"/>
       <c r="O486" s="5"/>
     </row>
-    <row r="487" spans="1:15">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A487" s="3"/>
       <c r="B487" s="4"/>
       <c r="C487" s="4"/>
@@ -9430,7 +9371,7 @@
       <c r="N487" s="5"/>
       <c r="O487" s="5"/>
     </row>
-    <row r="488" spans="1:15">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A488" s="3"/>
       <c r="B488" s="4"/>
       <c r="C488" s="4"/>
@@ -9447,7 +9388,7 @@
       <c r="N488" s="5"/>
       <c r="O488" s="5"/>
     </row>
-    <row r="489" spans="1:15">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A489" s="3"/>
       <c r="B489" s="4"/>
       <c r="C489" s="4"/>
@@ -9464,7 +9405,7 @@
       <c r="N489" s="5"/>
       <c r="O489" s="5"/>
     </row>
-    <row r="490" spans="1:15">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A490" s="3"/>
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
@@ -9481,7 +9422,7 @@
       <c r="N490" s="5"/>
       <c r="O490" s="5"/>
     </row>
-    <row r="491" spans="1:15">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A491" s="3"/>
       <c r="B491" s="4"/>
       <c r="C491" s="4"/>
@@ -9498,7 +9439,7 @@
       <c r="N491" s="5"/>
       <c r="O491" s="5"/>
     </row>
-    <row r="492" spans="1:15">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A492" s="3"/>
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
@@ -9515,7 +9456,7 @@
       <c r="N492" s="5"/>
       <c r="O492" s="5"/>
     </row>
-    <row r="493" spans="1:15">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A493" s="3"/>
       <c r="B493" s="4"/>
       <c r="C493" s="4"/>
@@ -9532,7 +9473,7 @@
       <c r="N493" s="5"/>
       <c r="O493" s="5"/>
     </row>
-    <row r="494" spans="1:15">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A494" s="3"/>
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
@@ -9549,7 +9490,7 @@
       <c r="N494" s="5"/>
       <c r="O494" s="5"/>
     </row>
-    <row r="495" spans="1:15">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A495" s="3"/>
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
@@ -9566,7 +9507,7 @@
       <c r="N495" s="5"/>
       <c r="O495" s="5"/>
     </row>
-    <row r="496" spans="1:15">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A496" s="3"/>
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
@@ -9583,7 +9524,7 @@
       <c r="N496" s="5"/>
       <c r="O496" s="5"/>
     </row>
-    <row r="497" spans="1:15">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A497" s="3"/>
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
@@ -9600,7 +9541,7 @@
       <c r="N497" s="5"/>
       <c r="O497" s="5"/>
     </row>
-    <row r="498" spans="1:15">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A498" s="3"/>
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
@@ -9617,7 +9558,7 @@
       <c r="N498" s="5"/>
       <c r="O498" s="5"/>
     </row>
-    <row r="499" spans="1:15">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A499" s="3"/>
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
@@ -9634,7 +9575,7 @@
       <c r="N499" s="5"/>
       <c r="O499" s="5"/>
     </row>
-    <row r="500" spans="1:15">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A500" s="3"/>
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
@@ -9651,7 +9592,7 @@
       <c r="N500" s="5"/>
       <c r="O500" s="5"/>
     </row>
-    <row r="501" spans="1:15">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A501" s="3"/>
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
@@ -9668,7 +9609,7 @@
       <c r="N501" s="5"/>
       <c r="O501" s="5"/>
     </row>
-    <row r="502" spans="1:15">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A502" s="3"/>
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
@@ -9685,7 +9626,7 @@
       <c r="N502" s="5"/>
       <c r="O502" s="5"/>
     </row>
-    <row r="503" spans="1:15">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A503" s="3"/>
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
@@ -9702,7 +9643,7 @@
       <c r="N503" s="5"/>
       <c r="O503" s="5"/>
     </row>
-    <row r="504" spans="1:15">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A504" s="3"/>
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
@@ -9719,7 +9660,7 @@
       <c r="N504" s="5"/>
       <c r="O504" s="5"/>
     </row>
-    <row r="505" spans="1:15">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A505" s="3"/>
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
@@ -9736,7 +9677,7 @@
       <c r="N505" s="5"/>
       <c r="O505" s="5"/>
     </row>
-    <row r="506" spans="1:15">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A506" s="3"/>
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
@@ -9753,7 +9694,7 @@
       <c r="N506" s="5"/>
       <c r="O506" s="5"/>
     </row>
-    <row r="507" spans="1:15">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A507" s="3"/>
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
@@ -9770,7 +9711,7 @@
       <c r="N507" s="5"/>
       <c r="O507" s="5"/>
     </row>
-    <row r="508" spans="1:15">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A508" s="15"/>
       <c r="B508" s="17"/>
       <c r="C508" s="22"/>
@@ -9787,7 +9728,7 @@
       <c r="N508" s="5"/>
       <c r="O508" s="5"/>
     </row>
-    <row r="509" spans="1:15">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A509" s="3"/>
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
@@ -9804,7 +9745,7 @@
       <c r="N509" s="5"/>
       <c r="O509" s="5"/>
     </row>
-    <row r="510" spans="1:15">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A510" s="3"/>
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
@@ -9821,7 +9762,7 @@
       <c r="N510" s="5"/>
       <c r="O510" s="5"/>
     </row>
-    <row r="511" spans="1:15">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A511" s="3"/>
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
@@ -9838,7 +9779,7 @@
       <c r="N511" s="5"/>
       <c r="O511" s="5"/>
     </row>
-    <row r="512" spans="1:15">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A512" s="3"/>
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
@@ -9855,7 +9796,7 @@
       <c r="N512" s="5"/>
       <c r="O512" s="5"/>
     </row>
-    <row r="513" spans="1:15">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A513" s="3"/>
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
@@ -9872,7 +9813,7 @@
       <c r="N513" s="5"/>
       <c r="O513" s="5"/>
     </row>
-    <row r="514" spans="1:15">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A514" s="3"/>
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
@@ -9889,7 +9830,7 @@
       <c r="N514" s="5"/>
       <c r="O514" s="5"/>
     </row>
-    <row r="515" spans="1:15">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A515" s="3"/>
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
@@ -9906,7 +9847,7 @@
       <c r="N515" s="5"/>
       <c r="O515" s="5"/>
     </row>
-    <row r="516" spans="1:15">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A516" s="3"/>
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
@@ -9923,7 +9864,7 @@
       <c r="N516" s="5"/>
       <c r="O516" s="5"/>
     </row>
-    <row r="517" spans="1:15">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A517" s="3"/>
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
@@ -9940,7 +9881,7 @@
       <c r="N517" s="5"/>
       <c r="O517" s="5"/>
     </row>
-    <row r="518" spans="1:15">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A518" s="3"/>
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
@@ -9957,7 +9898,7 @@
       <c r="N518" s="5"/>
       <c r="O518" s="5"/>
     </row>
-    <row r="519" spans="1:15">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A519" s="3"/>
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
@@ -9974,7 +9915,7 @@
       <c r="N519" s="5"/>
       <c r="O519" s="5"/>
     </row>
-    <row r="520" spans="1:15">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A520" s="3"/>
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
@@ -9991,7 +9932,7 @@
       <c r="N520" s="5"/>
       <c r="O520" s="5"/>
     </row>
-    <row r="521" spans="1:15">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A521" s="3"/>
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
@@ -10008,7 +9949,7 @@
       <c r="N521" s="5"/>
       <c r="O521" s="5"/>
     </row>
-    <row r="522" spans="1:15">
+    <row r="522" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A522" s="3"/>
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
@@ -10025,7 +9966,7 @@
       <c r="N522" s="5"/>
       <c r="O522" s="5"/>
     </row>
-    <row r="523" spans="1:15">
+    <row r="523" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A523" s="3"/>
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
@@ -10042,7 +9983,7 @@
       <c r="N523" s="5"/>
       <c r="O523" s="5"/>
     </row>
-    <row r="524" spans="1:15">
+    <row r="524" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A524" s="3"/>
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
@@ -10059,7 +10000,7 @@
       <c r="N524" s="5"/>
       <c r="O524" s="5"/>
     </row>
-    <row r="525" spans="1:15">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A525" s="3"/>
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
@@ -10076,7 +10017,7 @@
       <c r="N525" s="5"/>
       <c r="O525" s="5"/>
     </row>
-    <row r="526" spans="1:15">
+    <row r="526" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A526" s="3"/>
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
@@ -10093,7 +10034,7 @@
       <c r="N526" s="5"/>
       <c r="O526" s="5"/>
     </row>
-    <row r="527" spans="1:15">
+    <row r="527" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A527" s="3"/>
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
@@ -10110,7 +10051,7 @@
       <c r="N527" s="5"/>
       <c r="O527" s="5"/>
     </row>
-    <row r="528" spans="1:15">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A528" s="3"/>
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
@@ -10127,7 +10068,7 @@
       <c r="N528" s="5"/>
       <c r="O528" s="5"/>
     </row>
-    <row r="529" spans="1:15">
+    <row r="529" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A529" s="3"/>
       <c r="B529" s="4"/>
       <c r="C529" s="4"/>
@@ -10144,7 +10085,7 @@
       <c r="N529" s="5"/>
       <c r="O529" s="5"/>
     </row>
-    <row r="530" spans="1:15">
+    <row r="530" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A530" s="3"/>
       <c r="B530" s="4"/>
       <c r="C530" s="4"/>
@@ -10161,7 +10102,7 @@
       <c r="N530" s="5"/>
       <c r="O530" s="5"/>
     </row>
-    <row r="531" spans="1:15">
+    <row r="531" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A531" s="3"/>
       <c r="B531" s="4"/>
       <c r="C531" s="4"/>
@@ -10178,7 +10119,7 @@
       <c r="N531" s="5"/>
       <c r="O531" s="5"/>
     </row>
-    <row r="532" spans="1:15">
+    <row r="532" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A532" s="3"/>
       <c r="B532" s="4"/>
       <c r="C532" s="4"/>
@@ -10195,7 +10136,7 @@
       <c r="N532" s="5"/>
       <c r="O532" s="5"/>
     </row>
-    <row r="533" spans="1:15">
+    <row r="533" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A533" s="3"/>
       <c r="B533" s="4"/>
       <c r="C533" s="4"/>
@@ -10212,7 +10153,7 @@
       <c r="N533" s="5"/>
       <c r="O533" s="5"/>
     </row>
-    <row r="534" spans="1:15">
+    <row r="534" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A534" s="3"/>
       <c r="B534" s="4"/>
       <c r="C534" s="4"/>
@@ -10229,7 +10170,7 @@
       <c r="N534" s="5"/>
       <c r="O534" s="5"/>
     </row>
-    <row r="535" spans="1:15">
+    <row r="535" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A535" s="3"/>
       <c r="B535" s="4"/>
       <c r="C535" s="4"/>
@@ -10246,7 +10187,7 @@
       <c r="N535" s="5"/>
       <c r="O535" s="5"/>
     </row>
-    <row r="536" spans="1:15">
+    <row r="536" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A536" s="3"/>
       <c r="B536" s="4"/>
       <c r="C536" s="4"/>
@@ -10263,7 +10204,7 @@
       <c r="N536" s="5"/>
       <c r="O536" s="5"/>
     </row>
-    <row r="537" spans="1:15">
+    <row r="537" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A537" s="3"/>
       <c r="B537" s="4"/>
       <c r="C537" s="4"/>
@@ -10280,7 +10221,7 @@
       <c r="N537" s="5"/>
       <c r="O537" s="5"/>
     </row>
-    <row r="538" spans="1:15">
+    <row r="538" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A538" s="3"/>
       <c r="B538" s="4"/>
       <c r="C538" s="4"/>
@@ -10297,7 +10238,7 @@
       <c r="N538" s="5"/>
       <c r="O538" s="5"/>
     </row>
-    <row r="539" spans="1:15">
+    <row r="539" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A539" s="3"/>
       <c r="B539" s="4"/>
       <c r="C539" s="4"/>
@@ -10314,7 +10255,7 @@
       <c r="N539" s="5"/>
       <c r="O539" s="5"/>
     </row>
-    <row r="540" spans="1:15">
+    <row r="540" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A540" s="3"/>
       <c r="B540" s="4"/>
       <c r="C540" s="4"/>
@@ -10331,7 +10272,7 @@
       <c r="N540" s="5"/>
       <c r="O540" s="5"/>
     </row>
-    <row r="541" spans="1:15">
+    <row r="541" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A541" s="3"/>
       <c r="B541" s="4"/>
       <c r="C541" s="4"/>
@@ -10348,7 +10289,7 @@
       <c r="N541" s="5"/>
       <c r="O541" s="5"/>
     </row>
-    <row r="542" spans="1:15">
+    <row r="542" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A542" s="3"/>
       <c r="B542" s="4"/>
       <c r="C542" s="4"/>
@@ -10365,7 +10306,7 @@
       <c r="N542" s="5"/>
       <c r="O542" s="5"/>
     </row>
-    <row r="543" spans="1:15">
+    <row r="543" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A543" s="3"/>
       <c r="B543" s="4"/>
       <c r="C543" s="4"/>
@@ -10382,7 +10323,7 @@
       <c r="N543" s="5"/>
       <c r="O543" s="5"/>
     </row>
-    <row r="544" spans="1:15">
+    <row r="544" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A544" s="3"/>
       <c r="B544" s="4"/>
       <c r="C544" s="4"/>
@@ -10399,7 +10340,7 @@
       <c r="N544" s="5"/>
       <c r="O544" s="5"/>
     </row>
-    <row r="545" spans="1:15">
+    <row r="545" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A545" s="3"/>
       <c r="B545" s="4"/>
       <c r="C545" s="4"/>
@@ -10416,7 +10357,7 @@
       <c r="N545" s="5"/>
       <c r="O545" s="5"/>
     </row>
-    <row r="546" spans="1:15">
+    <row r="546" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A546" s="3"/>
       <c r="B546" s="4"/>
       <c r="C546" s="4"/>
@@ -10433,7 +10374,7 @@
       <c r="N546" s="5"/>
       <c r="O546" s="5"/>
     </row>
-    <row r="547" spans="1:15">
+    <row r="547" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A547" s="3"/>
       <c r="B547" s="4"/>
       <c r="C547" s="4"/>
@@ -10450,7 +10391,7 @@
       <c r="N547" s="5"/>
       <c r="O547" s="5"/>
     </row>
-    <row r="548" spans="1:15">
+    <row r="548" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A548" s="3"/>
       <c r="B548" s="4"/>
       <c r="C548" s="4"/>
@@ -10467,7 +10408,7 @@
       <c r="N548" s="5"/>
       <c r="O548" s="5"/>
     </row>
-    <row r="549" spans="1:15">
+    <row r="549" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A549" s="3"/>
       <c r="B549" s="4"/>
       <c r="C549" s="4"/>
@@ -10484,7 +10425,7 @@
       <c r="N549" s="5"/>
       <c r="O549" s="5"/>
     </row>
-    <row r="550" spans="1:15">
+    <row r="550" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A550" s="3"/>
       <c r="B550" s="4"/>
       <c r="C550" s="4"/>
@@ -10501,7 +10442,7 @@
       <c r="N550" s="5"/>
       <c r="O550" s="5"/>
     </row>
-    <row r="551" spans="1:15">
+    <row r="551" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A551" s="3"/>
       <c r="B551" s="4"/>
       <c r="C551" s="4"/>
@@ -10518,7 +10459,7 @@
       <c r="N551" s="5"/>
       <c r="O551" s="5"/>
     </row>
-    <row r="552" spans="1:15">
+    <row r="552" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A552" s="3"/>
       <c r="B552" s="4"/>
       <c r="C552" s="4"/>
@@ -10535,7 +10476,7 @@
       <c r="N552" s="5"/>
       <c r="O552" s="5"/>
     </row>
-    <row r="553" spans="1:15">
+    <row r="553" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A553" s="3"/>
       <c r="B553" s="4"/>
       <c r="C553" s="4"/>
@@ -10552,7 +10493,7 @@
       <c r="N553" s="5"/>
       <c r="O553" s="5"/>
     </row>
-    <row r="554" spans="1:15">
+    <row r="554" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A554" s="3"/>
       <c r="B554" s="4"/>
       <c r="C554" s="4"/>
@@ -10569,7 +10510,7 @@
       <c r="N554" s="5"/>
       <c r="O554" s="5"/>
     </row>
-    <row r="555" spans="1:15">
+    <row r="555" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A555" s="3"/>
       <c r="B555" s="4"/>
       <c r="C555" s="4"/>
@@ -10586,7 +10527,7 @@
       <c r="N555" s="5"/>
       <c r="O555" s="5"/>
     </row>
-    <row r="556" spans="1:15">
+    <row r="556" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A556" s="3"/>
       <c r="B556" s="4"/>
       <c r="C556" s="4"/>
@@ -10603,7 +10544,7 @@
       <c r="N556" s="5"/>
       <c r="O556" s="5"/>
     </row>
-    <row r="557" spans="1:15">
+    <row r="557" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A557" s="3"/>
       <c r="B557" s="4"/>
       <c r="C557" s="4"/>
@@ -10620,7 +10561,7 @@
       <c r="N557" s="5"/>
       <c r="O557" s="5"/>
     </row>
-    <row r="558" spans="1:15">
+    <row r="558" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A558" s="3"/>
       <c r="B558" s="4"/>
       <c r="C558" s="4"/>
@@ -10637,7 +10578,7 @@
       <c r="N558" s="5"/>
       <c r="O558" s="5"/>
     </row>
-    <row r="559" spans="1:15">
+    <row r="559" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A559" s="3"/>
       <c r="B559" s="4"/>
       <c r="C559" s="4"/>
@@ -10654,7 +10595,7 @@
       <c r="N559" s="5"/>
       <c r="O559" s="5"/>
     </row>
-    <row r="560" spans="1:15">
+    <row r="560" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A560" s="3"/>
       <c r="B560" s="4"/>
       <c r="C560" s="4"/>
@@ -10671,7 +10612,7 @@
       <c r="N560" s="5"/>
       <c r="O560" s="5"/>
     </row>
-    <row r="561" spans="1:15">
+    <row r="561" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A561" s="3"/>
       <c r="B561" s="4"/>
       <c r="C561" s="4"/>
@@ -10688,7 +10629,7 @@
       <c r="N561" s="5"/>
       <c r="O561" s="5"/>
     </row>
-    <row r="562" spans="1:15">
+    <row r="562" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A562" s="3"/>
       <c r="B562" s="4"/>
       <c r="C562" s="4"/>
@@ -10705,7 +10646,7 @@
       <c r="N562" s="5"/>
       <c r="O562" s="5"/>
     </row>
-    <row r="563" spans="1:15">
+    <row r="563" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A563" s="3"/>
       <c r="B563" s="4"/>
       <c r="C563" s="4"/>
@@ -10722,7 +10663,7 @@
       <c r="N563" s="5"/>
       <c r="O563" s="5"/>
     </row>
-    <row r="564" spans="1:15">
+    <row r="564" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A564" s="3"/>
       <c r="B564" s="4"/>
       <c r="C564" s="4"/>
@@ -10739,7 +10680,7 @@
       <c r="N564" s="5"/>
       <c r="O564" s="5"/>
     </row>
-    <row r="565" spans="1:15">
+    <row r="565" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A565" s="3"/>
       <c r="B565" s="4"/>
       <c r="C565" s="4"/>
@@ -10756,7 +10697,7 @@
       <c r="N565" s="5"/>
       <c r="O565" s="5"/>
     </row>
-    <row r="566" spans="1:15">
+    <row r="566" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A566" s="3"/>
       <c r="B566" s="4"/>
       <c r="C566" s="4"/>
@@ -10773,7 +10714,7 @@
       <c r="N566" s="5"/>
       <c r="O566" s="5"/>
     </row>
-    <row r="567" spans="1:15">
+    <row r="567" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A567" s="3"/>
       <c r="B567" s="4"/>
       <c r="C567" s="4"/>
@@ -10790,7 +10731,7 @@
       <c r="N567" s="5"/>
       <c r="O567" s="5"/>
     </row>
-    <row r="568" spans="1:15">
+    <row r="568" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A568" s="3"/>
       <c r="B568" s="4"/>
       <c r="C568" s="4"/>
@@ -10807,7 +10748,7 @@
       <c r="N568" s="5"/>
       <c r="O568" s="5"/>
     </row>
-    <row r="569" spans="1:15">
+    <row r="569" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A569" s="3"/>
       <c r="B569" s="4"/>
       <c r="C569" s="4"/>
@@ -10824,7 +10765,7 @@
       <c r="N569" s="5"/>
       <c r="O569" s="5"/>
     </row>
-    <row r="570" spans="1:15">
+    <row r="570" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A570" s="3"/>
       <c r="B570" s="4"/>
       <c r="C570" s="4"/>
@@ -10841,7 +10782,7 @@
       <c r="N570" s="5"/>
       <c r="O570" s="5"/>
     </row>
-    <row r="571" spans="1:15">
+    <row r="571" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A571" s="3"/>
       <c r="B571" s="4"/>
       <c r="C571" s="4"/>
@@ -10858,7 +10799,7 @@
       <c r="N571" s="5"/>
       <c r="O571" s="5"/>
     </row>
-    <row r="572" spans="1:15">
+    <row r="572" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A572" s="3"/>
       <c r="B572" s="4"/>
       <c r="C572" s="4"/>
@@ -10875,7 +10816,7 @@
       <c r="N572" s="5"/>
       <c r="O572" s="5"/>
     </row>
-    <row r="573" spans="1:15">
+    <row r="573" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A573" s="3"/>
       <c r="B573" s="4"/>
       <c r="C573" s="4"/>
@@ -10892,7 +10833,7 @@
       <c r="N573" s="5"/>
       <c r="O573" s="5"/>
     </row>
-    <row r="574" spans="1:15">
+    <row r="574" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A574" s="3"/>
       <c r="B574" s="4"/>
       <c r="C574" s="4"/>
@@ -10909,7 +10850,7 @@
       <c r="N574" s="5"/>
       <c r="O574" s="5"/>
     </row>
-    <row r="575" spans="1:15">
+    <row r="575" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A575" s="3"/>
       <c r="B575" s="4"/>
       <c r="C575" s="4"/>
@@ -10926,7 +10867,7 @@
       <c r="N575" s="5"/>
       <c r="O575" s="5"/>
     </row>
-    <row r="576" spans="1:15">
+    <row r="576" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A576" s="3"/>
       <c r="B576" s="4"/>
       <c r="C576" s="4"/>
@@ -10943,7 +10884,7 @@
       <c r="N576" s="5"/>
       <c r="O576" s="5"/>
     </row>
-    <row r="577" spans="1:15">
+    <row r="577" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A577" s="3"/>
       <c r="B577" s="4"/>
       <c r="C577" s="4"/>
@@ -10960,7 +10901,7 @@
       <c r="N577" s="5"/>
       <c r="O577" s="5"/>
     </row>
-    <row r="578" spans="1:15">
+    <row r="578" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A578" s="3"/>
       <c r="B578" s="4"/>
       <c r="C578" s="4"/>
@@ -10977,7 +10918,7 @@
       <c r="N578" s="5"/>
       <c r="O578" s="5"/>
     </row>
-    <row r="579" spans="1:15">
+    <row r="579" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A579" s="3"/>
       <c r="B579" s="4"/>
       <c r="C579" s="4"/>
@@ -10994,7 +10935,7 @@
       <c r="N579" s="5"/>
       <c r="O579" s="5"/>
     </row>
-    <row r="580" spans="1:15">
+    <row r="580" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A580" s="3"/>
       <c r="B580" s="4"/>
       <c r="C580" s="4"/>
@@ -11011,7 +10952,7 @@
       <c r="N580" s="5"/>
       <c r="O580" s="5"/>
     </row>
-    <row r="581" spans="1:15">
+    <row r="581" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A581" s="3"/>
       <c r="B581" s="4"/>
       <c r="C581" s="4"/>
@@ -11028,7 +10969,7 @@
       <c r="N581" s="5"/>
       <c r="O581" s="5"/>
     </row>
-    <row r="582" spans="1:15">
+    <row r="582" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A582" s="3"/>
       <c r="B582" s="4"/>
       <c r="C582" s="4"/>
@@ -11045,7 +10986,7 @@
       <c r="N582" s="5"/>
       <c r="O582" s="5"/>
     </row>
-    <row r="583" spans="1:15">
+    <row r="583" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A583" s="3"/>
       <c r="B583" s="4"/>
       <c r="C583" s="4"/>
@@ -11062,7 +11003,7 @@
       <c r="N583" s="5"/>
       <c r="O583" s="5"/>
     </row>
-    <row r="584" spans="1:15">
+    <row r="584" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A584" s="3"/>
       <c r="B584" s="4"/>
       <c r="C584" s="4"/>
@@ -11079,7 +11020,7 @@
       <c r="N584" s="5"/>
       <c r="O584" s="5"/>
     </row>
-    <row r="585" spans="1:15">
+    <row r="585" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A585" s="3"/>
       <c r="B585" s="4"/>
       <c r="C585" s="4"/>
@@ -11096,7 +11037,7 @@
       <c r="N585" s="5"/>
       <c r="O585" s="5"/>
     </row>
-    <row r="586" spans="1:15">
+    <row r="586" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A586" s="3"/>
       <c r="B586" s="4"/>
       <c r="C586" s="4"/>
@@ -11113,7 +11054,7 @@
       <c r="N586" s="5"/>
       <c r="O586" s="5"/>
     </row>
-    <row r="587" spans="1:15">
+    <row r="587" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A587" s="3"/>
       <c r="B587" s="4"/>
       <c r="C587" s="4"/>
@@ -11130,7 +11071,7 @@
       <c r="N587" s="5"/>
       <c r="O587" s="5"/>
     </row>
-    <row r="588" spans="1:15">
+    <row r="588" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A588" s="3"/>
       <c r="B588" s="4"/>
       <c r="C588" s="4"/>
@@ -11147,7 +11088,7 @@
       <c r="N588" s="5"/>
       <c r="O588" s="5"/>
     </row>
-    <row r="589" spans="1:15">
+    <row r="589" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A589" s="3"/>
       <c r="B589" s="4"/>
       <c r="C589" s="4"/>
@@ -11164,7 +11105,7 @@
       <c r="N589" s="5"/>
       <c r="O589" s="5"/>
     </row>
-    <row r="590" spans="1:15">
+    <row r="590" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A590" s="3"/>
       <c r="B590" s="4"/>
       <c r="C590" s="4"/>
@@ -11181,7 +11122,7 @@
       <c r="N590" s="5"/>
       <c r="O590" s="5"/>
     </row>
-    <row r="591" spans="1:15">
+    <row r="591" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A591" s="3"/>
       <c r="B591" s="5"/>
       <c r="C591" s="25"/>
@@ -11198,7 +11139,7 @@
       <c r="N591" s="5"/>
       <c r="O591" s="5"/>
     </row>
-    <row r="592" spans="1:15">
+    <row r="592" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A592" s="3"/>
       <c r="B592" s="5"/>
       <c r="C592" s="5"/>
@@ -11215,7 +11156,7 @@
       <c r="N592" s="5"/>
       <c r="O592" s="5"/>
     </row>
-    <row r="593" spans="1:15">
+    <row r="593" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A593" s="15"/>
       <c r="B593" s="16"/>
       <c r="C593" s="16"/>
@@ -11232,7 +11173,7 @@
       <c r="N593" s="5"/>
       <c r="O593" s="5"/>
     </row>
-    <row r="594" spans="1:15">
+    <row r="594" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A594" s="3"/>
       <c r="B594" s="4"/>
       <c r="C594" s="4"/>
@@ -11249,7 +11190,7 @@
       <c r="N594" s="5"/>
       <c r="O594" s="5"/>
     </row>
-    <row r="595" spans="1:15">
+    <row r="595" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A595" s="3"/>
       <c r="B595" s="4"/>
       <c r="C595" s="4"/>
@@ -11266,7 +11207,7 @@
       <c r="N595" s="5"/>
       <c r="O595" s="5"/>
     </row>
-    <row r="596" spans="1:15">
+    <row r="596" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A596" s="3"/>
       <c r="B596" s="4"/>
       <c r="C596" s="4"/>
@@ -11283,7 +11224,7 @@
       <c r="N596" s="5"/>
       <c r="O596" s="5"/>
     </row>
-    <row r="597" spans="1:15">
+    <row r="597" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A597" s="3"/>
       <c r="B597" s="4"/>
       <c r="C597" s="10"/>
@@ -11300,7 +11241,7 @@
       <c r="N597" s="5"/>
       <c r="O597" s="5"/>
     </row>
-    <row r="598" spans="1:15">
+    <row r="598" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A598" s="3"/>
       <c r="B598" s="4"/>
       <c r="C598" s="4"/>
@@ -11317,7 +11258,7 @@
       <c r="N598" s="5"/>
       <c r="O598" s="5"/>
     </row>
-    <row r="599" spans="1:15">
+    <row r="599" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A599" s="3"/>
       <c r="B599" s="4"/>
       <c r="C599" s="4"/>
@@ -11334,7 +11275,7 @@
       <c r="N599" s="5"/>
       <c r="O599" s="5"/>
     </row>
-    <row r="600" spans="1:15">
+    <row r="600" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A600" s="3"/>
       <c r="B600" s="4"/>
       <c r="C600" s="4"/>
@@ -11351,7 +11292,7 @@
       <c r="N600" s="5"/>
       <c r="O600" s="5"/>
     </row>
-    <row r="601" spans="1:15">
+    <row r="601" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A601" s="3"/>
       <c r="B601" s="4"/>
       <c r="C601" s="4"/>
@@ -11368,7 +11309,7 @@
       <c r="N601" s="5"/>
       <c r="O601" s="5"/>
     </row>
-    <row r="602" spans="1:15">
+    <row r="602" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A602" s="3"/>
       <c r="B602" s="4"/>
       <c r="C602" s="4"/>
@@ -11385,7 +11326,7 @@
       <c r="N602" s="5"/>
       <c r="O602" s="5"/>
     </row>
-    <row r="603" spans="1:15">
+    <row r="603" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A603" s="3"/>
       <c r="B603" s="4"/>
       <c r="C603" s="4"/>
@@ -11402,7 +11343,7 @@
       <c r="N603" s="5"/>
       <c r="O603" s="5"/>
     </row>
-    <row r="604" spans="1:15">
+    <row r="604" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A604" s="3"/>
       <c r="B604" s="4"/>
       <c r="C604" s="4"/>
@@ -11419,7 +11360,7 @@
       <c r="N604" s="5"/>
       <c r="O604" s="5"/>
     </row>
-    <row r="605" spans="1:15">
+    <row r="605" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A605" s="3"/>
       <c r="B605" s="4"/>
       <c r="C605" s="4"/>
@@ -11436,7 +11377,7 @@
       <c r="N605" s="5"/>
       <c r="O605" s="5"/>
     </row>
-    <row r="606" spans="1:15">
+    <row r="606" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A606" s="3"/>
       <c r="B606" s="4"/>
       <c r="C606" s="4"/>
@@ -11453,7 +11394,7 @@
       <c r="N606" s="5"/>
       <c r="O606" s="5"/>
     </row>
-    <row r="607" spans="1:15">
+    <row r="607" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A607" s="3"/>
       <c r="B607" s="4"/>
       <c r="C607" s="4"/>
@@ -11470,7 +11411,7 @@
       <c r="N607" s="5"/>
       <c r="O607" s="5"/>
     </row>
-    <row r="608" spans="1:15">
+    <row r="608" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A608" s="3"/>
       <c r="B608" s="4"/>
       <c r="C608" s="4"/>
@@ -11487,7 +11428,7 @@
       <c r="N608" s="5"/>
       <c r="O608" s="5"/>
     </row>
-    <row r="609" spans="1:15">
+    <row r="609" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A609" s="3"/>
       <c r="B609" s="4"/>
       <c r="C609" s="4"/>
@@ -11504,7 +11445,7 @@
       <c r="N609" s="5"/>
       <c r="O609" s="5"/>
     </row>
-    <row r="610" spans="1:15">
+    <row r="610" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A610" s="3"/>
       <c r="B610" s="4"/>
       <c r="C610" s="4"/>
@@ -11521,7 +11462,7 @@
       <c r="N610" s="5"/>
       <c r="O610" s="5"/>
     </row>
-    <row r="611" spans="1:15">
+    <row r="611" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A611" s="3"/>
       <c r="B611" s="4"/>
       <c r="C611" s="4"/>
@@ -11538,7 +11479,7 @@
       <c r="N611" s="5"/>
       <c r="O611" s="5"/>
     </row>
-    <row r="612" spans="1:15">
+    <row r="612" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A612" s="3"/>
       <c r="B612" s="4"/>
       <c r="C612" s="10"/>
@@ -11555,7 +11496,7 @@
       <c r="N612" s="5"/>
       <c r="O612" s="5"/>
     </row>
-    <row r="613" spans="1:15">
+    <row r="613" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A613" s="3"/>
       <c r="B613" s="4"/>
       <c r="C613" s="4"/>
@@ -11572,7 +11513,7 @@
       <c r="N613" s="5"/>
       <c r="O613" s="5"/>
     </row>
-    <row r="614" spans="1:15">
+    <row r="614" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A614" s="3"/>
       <c r="B614" s="4"/>
       <c r="C614" s="4"/>
@@ -11589,7 +11530,7 @@
       <c r="N614" s="5"/>
       <c r="O614" s="5"/>
     </row>
-    <row r="615" spans="1:15">
+    <row r="615" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A615" s="3"/>
       <c r="B615" s="4"/>
       <c r="C615" s="4"/>
@@ -11606,7 +11547,7 @@
       <c r="N615" s="5"/>
       <c r="O615" s="5"/>
     </row>
-    <row r="616" spans="1:15">
+    <row r="616" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A616" s="3"/>
       <c r="B616" s="4"/>
       <c r="C616" s="4"/>
@@ -11623,7 +11564,7 @@
       <c r="N616" s="5"/>
       <c r="O616" s="5"/>
     </row>
-    <row r="617" spans="1:15">
+    <row r="617" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A617" s="3"/>
       <c r="B617" s="4"/>
       <c r="C617" s="4"/>
@@ -11640,7 +11581,7 @@
       <c r="N617" s="5"/>
       <c r="O617" s="5"/>
     </row>
-    <row r="618" spans="1:15">
+    <row r="618" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A618" s="3"/>
       <c r="B618" s="4"/>
       <c r="C618" s="4"/>
@@ -11657,7 +11598,7 @@
       <c r="N618" s="5"/>
       <c r="O618" s="5"/>
     </row>
-    <row r="619" spans="1:15">
+    <row r="619" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A619" s="3"/>
       <c r="B619" s="4"/>
       <c r="C619" s="4"/>
@@ -11674,7 +11615,7 @@
       <c r="N619" s="5"/>
       <c r="O619" s="5"/>
     </row>
-    <row r="620" spans="1:15">
+    <row r="620" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A620" s="3"/>
       <c r="B620" s="4"/>
       <c r="C620" s="10"/>
@@ -11691,7 +11632,7 @@
       <c r="N620" s="5"/>
       <c r="O620" s="5"/>
     </row>
-    <row r="621" spans="1:15">
+    <row r="621" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A621" s="3"/>
       <c r="B621" s="4"/>
       <c r="C621" s="4"/>
@@ -11708,7 +11649,7 @@
       <c r="N621" s="5"/>
       <c r="O621" s="5"/>
     </row>
-    <row r="622" spans="1:15">
+    <row r="622" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A622" s="3"/>
       <c r="B622" s="4"/>
       <c r="C622" s="4"/>
@@ -11725,7 +11666,7 @@
       <c r="N622" s="5"/>
       <c r="O622" s="5"/>
     </row>
-    <row r="623" spans="1:15">
+    <row r="623" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A623" s="3"/>
       <c r="B623" s="4"/>
       <c r="C623" s="4"/>
@@ -11742,7 +11683,7 @@
       <c r="N623" s="5"/>
       <c r="O623" s="5"/>
     </row>
-    <row r="624" spans="1:15">
+    <row r="624" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A624" s="3"/>
       <c r="B624" s="4"/>
       <c r="C624" s="4"/>
@@ -11759,7 +11700,7 @@
       <c r="N624" s="5"/>
       <c r="O624" s="5"/>
     </row>
-    <row r="625" spans="1:15">
+    <row r="625" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A625" s="3"/>
       <c r="B625" s="4"/>
       <c r="C625" s="10"/>
@@ -11776,7 +11717,7 @@
       <c r="N625" s="5"/>
       <c r="O625" s="5"/>
     </row>
-    <row r="626" spans="1:15">
+    <row r="626" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A626" s="3"/>
       <c r="B626" s="4"/>
       <c r="C626" s="4"/>
@@ -11793,7 +11734,7 @@
       <c r="N626" s="5"/>
       <c r="O626" s="5"/>
     </row>
-    <row r="627" spans="1:15">
+    <row r="627" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A627" s="3"/>
       <c r="B627" s="4"/>
       <c r="C627" s="4"/>
@@ -11810,7 +11751,7 @@
       <c r="N627" s="5"/>
       <c r="O627" s="5"/>
     </row>
-    <row r="628" spans="1:15">
+    <row r="628" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A628" s="3"/>
       <c r="B628" s="4"/>
       <c r="C628" s="4"/>
@@ -11827,7 +11768,7 @@
       <c r="N628" s="5"/>
       <c r="O628" s="5"/>
     </row>
-    <row r="629" spans="1:15">
+    <row r="629" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A629" s="3"/>
       <c r="B629" s="4"/>
       <c r="C629" s="10"/>
@@ -11844,7 +11785,7 @@
       <c r="N629" s="5"/>
       <c r="O629" s="5"/>
     </row>
-    <row r="630" spans="1:15">
+    <row r="630" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A630" s="3"/>
       <c r="B630" s="4"/>
       <c r="C630" s="4"/>
@@ -11861,7 +11802,7 @@
       <c r="N630" s="5"/>
       <c r="O630" s="5"/>
     </row>
-    <row r="631" spans="1:15">
+    <row r="631" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A631" s="3"/>
       <c r="B631" s="4"/>
       <c r="C631" s="4"/>
@@ -11878,7 +11819,7 @@
       <c r="N631" s="5"/>
       <c r="O631" s="5"/>
     </row>
-    <row r="632" spans="1:15">
+    <row r="632" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A632" s="3"/>
       <c r="B632" s="4"/>
       <c r="C632" s="4"/>
@@ -11895,7 +11836,7 @@
       <c r="N632" s="5"/>
       <c r="O632" s="5"/>
     </row>
-    <row r="633" spans="1:15">
+    <row r="633" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A633" s="3"/>
       <c r="B633" s="4"/>
       <c r="C633" s="4"/>
@@ -11912,7 +11853,7 @@
       <c r="N633" s="5"/>
       <c r="O633" s="5"/>
     </row>
-    <row r="634" spans="1:15">
+    <row r="634" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A634" s="3"/>
       <c r="B634" s="4"/>
       <c r="C634" s="10"/>
@@ -11929,7 +11870,7 @@
       <c r="N634" s="5"/>
       <c r="O634" s="5"/>
     </row>
-    <row r="635" spans="1:15">
+    <row r="635" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A635" s="3"/>
       <c r="B635" s="4"/>
       <c r="C635" s="4"/>
@@ -11946,7 +11887,7 @@
       <c r="N635" s="5"/>
       <c r="O635" s="5"/>
     </row>
-    <row r="636" spans="1:15">
+    <row r="636" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A636" s="3"/>
       <c r="B636" s="4"/>
       <c r="C636" s="4"/>
@@ -11963,7 +11904,7 @@
       <c r="N636" s="5"/>
       <c r="O636" s="5"/>
     </row>
-    <row r="637" spans="1:15">
+    <row r="637" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A637" s="3"/>
       <c r="B637" s="4"/>
       <c r="C637" s="4"/>
@@ -11980,7 +11921,7 @@
       <c r="N637" s="5"/>
       <c r="O637" s="5"/>
     </row>
-    <row r="638" spans="1:15">
+    <row r="638" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A638" s="3"/>
       <c r="B638" s="4"/>
       <c r="C638" s="10"/>
@@ -11997,7 +11938,7 @@
       <c r="N638" s="5"/>
       <c r="O638" s="5"/>
     </row>
-    <row r="639" spans="1:15">
+    <row r="639" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A639" s="3"/>
       <c r="B639" s="4"/>
       <c r="C639" s="4"/>
@@ -12014,7 +11955,7 @@
       <c r="N639" s="5"/>
       <c r="O639" s="5"/>
     </row>
-    <row r="640" spans="1:15">
+    <row r="640" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A640" s="3"/>
       <c r="B640" s="4"/>
       <c r="C640" s="4"/>
@@ -12031,7 +11972,7 @@
       <c r="N640" s="5"/>
       <c r="O640" s="5"/>
     </row>
-    <row r="641" spans="1:15">
+    <row r="641" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A641" s="3"/>
       <c r="B641" s="4"/>
       <c r="C641" s="4"/>
@@ -12048,7 +11989,7 @@
       <c r="N641" s="5"/>
       <c r="O641" s="5"/>
     </row>
-    <row r="642" spans="1:15">
+    <row r="642" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A642" s="3"/>
       <c r="B642" s="4"/>
       <c r="C642" s="4"/>
@@ -12065,7 +12006,7 @@
       <c r="N642" s="5"/>
       <c r="O642" s="5"/>
     </row>
-    <row r="643" spans="1:15">
+    <row r="643" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A643" s="3"/>
       <c r="B643" s="4"/>
       <c r="C643" s="4"/>
@@ -12082,7 +12023,7 @@
       <c r="N643" s="5"/>
       <c r="O643" s="5"/>
     </row>
-    <row r="644" spans="1:15">
+    <row r="644" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A644" s="3"/>
       <c r="B644" s="4"/>
       <c r="C644" s="4"/>
@@ -12099,7 +12040,7 @@
       <c r="N644" s="5"/>
       <c r="O644" s="5"/>
     </row>
-    <row r="645" spans="1:15">
+    <row r="645" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A645" s="3"/>
       <c r="B645" s="4"/>
       <c r="C645" s="10"/>
@@ -12116,7 +12057,7 @@
       <c r="N645" s="5"/>
       <c r="O645" s="5"/>
     </row>
-    <row r="646" spans="1:15">
+    <row r="646" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A646" s="3"/>
       <c r="B646" s="4"/>
       <c r="C646" s="4"/>
@@ -12133,7 +12074,7 @@
       <c r="N646" s="5"/>
       <c r="O646" s="5"/>
     </row>
-    <row r="647" spans="1:15">
+    <row r="647" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A647" s="3"/>
       <c r="B647" s="4"/>
       <c r="C647" s="4"/>
@@ -12150,7 +12091,7 @@
       <c r="N647" s="5"/>
       <c r="O647" s="5"/>
     </row>
-    <row r="648" spans="1:15">
+    <row r="648" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A648" s="3"/>
       <c r="B648" s="4"/>
       <c r="C648" s="4"/>
@@ -12167,7 +12108,7 @@
       <c r="N648" s="5"/>
       <c r="O648" s="5"/>
     </row>
-    <row r="649" spans="1:15">
+    <row r="649" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A649" s="3"/>
       <c r="B649" s="4"/>
       <c r="C649" s="4"/>
@@ -12184,7 +12125,7 @@
       <c r="N649" s="5"/>
       <c r="O649" s="5"/>
     </row>
-    <row r="650" spans="1:15">
+    <row r="650" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A650" s="3"/>
       <c r="B650" s="4"/>
       <c r="C650" s="4"/>
@@ -12201,7 +12142,7 @@
       <c r="N650" s="5"/>
       <c r="O650" s="5"/>
     </row>
-    <row r="651" spans="1:15">
+    <row r="651" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A651" s="3"/>
       <c r="B651" s="4"/>
       <c r="C651" s="4"/>
@@ -12218,7 +12159,7 @@
       <c r="N651" s="5"/>
       <c r="O651" s="5"/>
     </row>
-    <row r="652" spans="1:15">
+    <row r="652" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A652" s="3"/>
       <c r="B652" s="4"/>
       <c r="C652" s="10"/>
@@ -12235,7 +12176,7 @@
       <c r="N652" s="5"/>
       <c r="O652" s="5"/>
     </row>
-    <row r="653" spans="1:15">
+    <row r="653" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A653" s="3"/>
       <c r="B653" s="4"/>
       <c r="C653" s="4"/>
@@ -12252,7 +12193,7 @@
       <c r="N653" s="5"/>
       <c r="O653" s="5"/>
     </row>
-    <row r="654" spans="1:15">
+    <row r="654" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A654" s="3"/>
       <c r="B654" s="4"/>
       <c r="C654" s="4"/>
@@ -12269,7 +12210,7 @@
       <c r="N654" s="5"/>
       <c r="O654" s="5"/>
     </row>
-    <row r="655" spans="1:15">
+    <row r="655" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A655" s="3"/>
       <c r="B655" s="4"/>
       <c r="C655" s="4"/>
@@ -12286,7 +12227,7 @@
       <c r="N655" s="5"/>
       <c r="O655" s="5"/>
     </row>
-    <row r="656" spans="1:15">
+    <row r="656" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A656" s="3"/>
       <c r="B656" s="4"/>
       <c r="C656" s="4"/>
@@ -12303,7 +12244,7 @@
       <c r="N656" s="5"/>
       <c r="O656" s="5"/>
     </row>
-    <row r="657" spans="1:15">
+    <row r="657" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A657" s="3"/>
       <c r="B657" s="4"/>
       <c r="C657" s="4"/>
@@ -12320,7 +12261,7 @@
       <c r="N657" s="5"/>
       <c r="O657" s="5"/>
     </row>
-    <row r="658" spans="1:15">
+    <row r="658" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A658" s="3"/>
       <c r="B658" s="4"/>
       <c r="C658" s="4"/>
@@ -12337,7 +12278,7 @@
       <c r="N658" s="5"/>
       <c r="O658" s="5"/>
     </row>
-    <row r="659" spans="1:15">
+    <row r="659" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A659" s="3"/>
       <c r="B659" s="4"/>
       <c r="C659" s="10"/>
@@ -12354,7 +12295,7 @@
       <c r="N659" s="5"/>
       <c r="O659" s="5"/>
     </row>
-    <row r="660" spans="1:15">
+    <row r="660" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A660" s="3"/>
       <c r="B660" s="4"/>
       <c r="C660" s="4"/>
@@ -12371,7 +12312,7 @@
       <c r="N660" s="5"/>
       <c r="O660" s="5"/>
     </row>
-    <row r="661" spans="1:15">
+    <row r="661" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A661" s="3"/>
       <c r="B661" s="4"/>
       <c r="C661" s="4"/>
@@ -12388,7 +12329,7 @@
       <c r="N661" s="5"/>
       <c r="O661" s="5"/>
     </row>
-    <row r="662" spans="1:15">
+    <row r="662" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A662" s="3"/>
       <c r="B662" s="4"/>
       <c r="C662" s="4"/>
@@ -12405,7 +12346,7 @@
       <c r="N662" s="5"/>
       <c r="O662" s="5"/>
     </row>
-    <row r="663" spans="1:15">
+    <row r="663" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A663" s="3"/>
       <c r="B663" s="4"/>
       <c r="C663" s="4"/>
@@ -12422,7 +12363,7 @@
       <c r="N663" s="5"/>
       <c r="O663" s="5"/>
     </row>
-    <row r="664" spans="1:15">
+    <row r="664" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A664" s="3"/>
       <c r="B664" s="4"/>
       <c r="C664" s="4"/>
@@ -12439,7 +12380,7 @@
       <c r="N664" s="5"/>
       <c r="O664" s="5"/>
     </row>
-    <row r="665" spans="1:15">
+    <row r="665" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A665" s="3"/>
       <c r="B665" s="4"/>
       <c r="C665" s="4"/>
@@ -12456,7 +12397,7 @@
       <c r="N665" s="5"/>
       <c r="O665" s="5"/>
     </row>
-    <row r="666" spans="1:15">
+    <row r="666" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A666" s="3"/>
       <c r="B666" s="4"/>
       <c r="C666" s="4"/>
@@ -12473,7 +12414,7 @@
       <c r="N666" s="5"/>
       <c r="O666" s="5"/>
     </row>
-    <row r="667" spans="1:15">
+    <row r="667" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A667" s="3"/>
       <c r="B667" s="4"/>
       <c r="C667" s="4"/>
@@ -12490,7 +12431,7 @@
       <c r="N667" s="5"/>
       <c r="O667" s="5"/>
     </row>
-    <row r="668" spans="1:15">
+    <row r="668" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A668" s="3"/>
       <c r="B668" s="4"/>
       <c r="C668" s="10"/>
@@ -12507,7 +12448,7 @@
       <c r="N668" s="5"/>
       <c r="O668" s="5"/>
     </row>
-    <row r="669" spans="1:15">
+    <row r="669" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A669" s="3"/>
       <c r="B669" s="4"/>
       <c r="C669" s="4"/>
@@ -12524,7 +12465,7 @@
       <c r="N669" s="5"/>
       <c r="O669" s="5"/>
     </row>
-    <row r="670" spans="1:15">
+    <row r="670" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A670" s="3"/>
       <c r="B670" s="4"/>
       <c r="C670" s="4"/>
@@ -12541,7 +12482,7 @@
       <c r="N670" s="5"/>
       <c r="O670" s="5"/>
     </row>
-    <row r="671" spans="1:15">
+    <row r="671" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A671" s="3"/>
       <c r="B671" s="4"/>
       <c r="C671" s="4"/>
@@ -12558,7 +12499,7 @@
       <c r="N671" s="5"/>
       <c r="O671" s="5"/>
     </row>
-    <row r="672" spans="1:15">
+    <row r="672" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A672" s="3"/>
       <c r="B672" s="4"/>
       <c r="C672" s="4"/>
@@ -12575,7 +12516,7 @@
       <c r="N672" s="5"/>
       <c r="O672" s="5"/>
     </row>
-    <row r="673" spans="1:15">
+    <row r="673" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A673" s="3"/>
       <c r="B673" s="4"/>
       <c r="C673" s="4"/>
@@ -12592,7 +12533,7 @@
       <c r="N673" s="5"/>
       <c r="O673" s="5"/>
     </row>
-    <row r="674" spans="1:15">
+    <row r="674" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A674" s="3"/>
       <c r="B674" s="4"/>
       <c r="C674" s="4"/>
@@ -12609,7 +12550,7 @@
       <c r="N674" s="5"/>
       <c r="O674" s="5"/>
     </row>
-    <row r="675" spans="1:15">
+    <row r="675" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A675" s="3"/>
       <c r="B675" s="4"/>
       <c r="C675" s="4"/>
@@ -12626,7 +12567,7 @@
       <c r="N675" s="5"/>
       <c r="O675" s="5"/>
     </row>
-    <row r="676" spans="1:15">
+    <row r="676" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A676" s="3"/>
       <c r="B676" s="4"/>
       <c r="C676" s="4"/>
@@ -12643,7 +12584,7 @@
       <c r="N676" s="5"/>
       <c r="O676" s="5"/>
     </row>
-    <row r="677" spans="1:15">
+    <row r="677" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A677" s="3"/>
       <c r="B677" s="4"/>
       <c r="C677" s="4"/>
@@ -12660,7 +12601,7 @@
       <c r="N677" s="5"/>
       <c r="O677" s="5"/>
     </row>
-    <row r="678" spans="1:15">
+    <row r="678" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A678" s="3"/>
       <c r="B678" s="4"/>
       <c r="C678" s="4"/>
@@ -12677,7 +12618,7 @@
       <c r="N678" s="5"/>
       <c r="O678" s="5"/>
     </row>
-    <row r="679" spans="1:15">
+    <row r="679" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A679" s="3"/>
       <c r="B679" s="4"/>
       <c r="C679" s="4"/>
@@ -12694,7 +12635,7 @@
       <c r="N679" s="5"/>
       <c r="O679" s="5"/>
     </row>
-    <row r="680" spans="1:15">
+    <row r="680" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A680" s="3"/>
       <c r="B680" s="4"/>
       <c r="C680" s="4"/>
@@ -12711,7 +12652,7 @@
       <c r="N680" s="5"/>
       <c r="O680" s="5"/>
     </row>
-    <row r="681" spans="1:15">
+    <row r="681" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A681" s="3"/>
       <c r="B681" s="4"/>
       <c r="C681" s="4"/>
@@ -12728,7 +12669,7 @@
       <c r="N681" s="5"/>
       <c r="O681" s="5"/>
     </row>
-    <row r="682" spans="1:15">
+    <row r="682" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A682" s="3"/>
       <c r="B682" s="4"/>
       <c r="C682" s="4"/>
@@ -12745,7 +12686,7 @@
       <c r="N682" s="5"/>
       <c r="O682" s="5"/>
     </row>
-    <row r="683" spans="1:15">
+    <row r="683" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A683" s="3"/>
       <c r="B683" s="4"/>
       <c r="C683" s="4"/>
@@ -12762,7 +12703,7 @@
       <c r="N683" s="5"/>
       <c r="O683" s="5"/>
     </row>
-    <row r="684" spans="1:15">
+    <row r="684" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A684" s="3"/>
       <c r="B684" s="4"/>
       <c r="C684" s="4"/>
@@ -12779,7 +12720,7 @@
       <c r="N684" s="5"/>
       <c r="O684" s="5"/>
     </row>
-    <row r="685" spans="1:15">
+    <row r="685" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A685" s="3"/>
       <c r="B685" s="4"/>
       <c r="C685" s="4"/>
@@ -12796,7 +12737,7 @@
       <c r="N685" s="5"/>
       <c r="O685" s="5"/>
     </row>
-    <row r="686" spans="1:15">
+    <row r="686" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A686" s="3"/>
       <c r="B686" s="4"/>
       <c r="C686" s="4"/>
@@ -12813,7 +12754,7 @@
       <c r="N686" s="5"/>
       <c r="O686" s="5"/>
     </row>
-    <row r="687" spans="1:15">
+    <row r="687" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A687" s="3"/>
       <c r="B687" s="4"/>
       <c r="C687" s="4"/>
@@ -12830,7 +12771,7 @@
       <c r="N687" s="5"/>
       <c r="O687" s="5"/>
     </row>
-    <row r="688" spans="1:15">
+    <row r="688" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A688" s="3"/>
       <c r="B688" s="4"/>
       <c r="C688" s="4"/>
@@ -12847,7 +12788,7 @@
       <c r="N688" s="5"/>
       <c r="O688" s="5"/>
     </row>
-    <row r="689" spans="1:15">
+    <row r="689" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A689" s="3"/>
       <c r="B689" s="4"/>
       <c r="C689" s="4"/>
@@ -12864,7 +12805,7 @@
       <c r="N689" s="5"/>
       <c r="O689" s="5"/>
     </row>
-    <row r="690" spans="1:15">
+    <row r="690" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A690" s="3"/>
       <c r="B690" s="4"/>
       <c r="C690" s="4"/>
@@ -12881,7 +12822,7 @@
       <c r="N690" s="5"/>
       <c r="O690" s="5"/>
     </row>
-    <row r="691" spans="1:15">
+    <row r="691" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A691" s="3"/>
       <c r="B691" s="4"/>
       <c r="C691" s="4"/>
@@ -12898,7 +12839,7 @@
       <c r="N691" s="5"/>
       <c r="O691" s="5"/>
     </row>
-    <row r="692" spans="1:15">
+    <row r="692" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A692" s="3"/>
       <c r="B692" s="4"/>
       <c r="C692" s="4"/>
@@ -12915,7 +12856,7 @@
       <c r="N692" s="5"/>
       <c r="O692" s="5"/>
     </row>
-    <row r="693" spans="1:15">
+    <row r="693" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A693" s="3"/>
       <c r="B693" s="4"/>
       <c r="C693" s="4"/>
@@ -12932,7 +12873,7 @@
       <c r="N693" s="5"/>
       <c r="O693" s="5"/>
     </row>
-    <row r="694" spans="1:15">
+    <row r="694" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A694" s="3"/>
       <c r="B694" s="4"/>
       <c r="C694" s="4"/>
@@ -12949,7 +12890,7 @@
       <c r="N694" s="5"/>
       <c r="O694" s="5"/>
     </row>
-    <row r="695" spans="1:15">
+    <row r="695" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A695" s="3"/>
       <c r="B695" s="4"/>
       <c r="C695" s="4"/>
@@ -12966,7 +12907,7 @@
       <c r="N695" s="5"/>
       <c r="O695" s="5"/>
     </row>
-    <row r="696" spans="1:15">
+    <row r="696" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A696" s="3"/>
       <c r="B696" s="4"/>
       <c r="C696" s="4"/>
@@ -12983,7 +12924,7 @@
       <c r="N696" s="5"/>
       <c r="O696" s="5"/>
     </row>
-    <row r="697" spans="1:15">
+    <row r="697" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A697" s="3"/>
       <c r="B697" s="4"/>
       <c r="C697" s="4"/>
@@ -13000,7 +12941,7 @@
       <c r="N697" s="5"/>
       <c r="O697" s="5"/>
     </row>
-    <row r="698" spans="1:15">
+    <row r="698" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A698" s="3"/>
       <c r="B698" s="4"/>
       <c r="C698" s="4"/>
@@ -13017,7 +12958,7 @@
       <c r="N698" s="5"/>
       <c r="O698" s="5"/>
     </row>
-    <row r="699" spans="1:15">
+    <row r="699" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A699" s="3"/>
       <c r="B699" s="4"/>
       <c r="C699" s="4"/>
@@ -13034,7 +12975,7 @@
       <c r="N699" s="5"/>
       <c r="O699" s="5"/>
     </row>
-    <row r="700" spans="1:15">
+    <row r="700" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A700" s="3"/>
       <c r="B700" s="4"/>
       <c r="C700" s="4"/>
@@ -13051,7 +12992,7 @@
       <c r="N700" s="5"/>
       <c r="O700" s="5"/>
     </row>
-    <row r="701" spans="1:15">
+    <row r="701" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A701" s="3"/>
       <c r="B701" s="4"/>
       <c r="C701" s="4"/>
@@ -13068,7 +13009,7 @@
       <c r="N701" s="5"/>
       <c r="O701" s="5"/>
     </row>
-    <row r="702" spans="1:15">
+    <row r="702" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A702" s="3"/>
       <c r="B702" s="4"/>
       <c r="C702" s="4"/>
@@ -13085,7 +13026,7 @@
       <c r="N702" s="5"/>
       <c r="O702" s="5"/>
     </row>
-    <row r="703" spans="1:15">
+    <row r="703" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A703" s="3"/>
       <c r="B703" s="4"/>
       <c r="C703" s="4"/>
@@ -13102,7 +13043,7 @@
       <c r="N703" s="5"/>
       <c r="O703" s="5"/>
     </row>
-    <row r="704" spans="1:15">
+    <row r="704" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A704" s="3"/>
       <c r="B704" s="4"/>
       <c r="C704" s="4"/>
@@ -13119,7 +13060,7 @@
       <c r="N704" s="5"/>
       <c r="O704" s="5"/>
     </row>
-    <row r="705" spans="1:15">
+    <row r="705" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A705" s="3"/>
       <c r="B705" s="4"/>
       <c r="C705" s="4"/>
@@ -13136,7 +13077,7 @@
       <c r="N705" s="5"/>
       <c r="O705" s="5"/>
     </row>
-    <row r="706" spans="1:15">
+    <row r="706" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A706" s="3"/>
       <c r="B706" s="4"/>
       <c r="C706" s="4"/>
@@ -13153,7 +13094,7 @@
       <c r="N706" s="5"/>
       <c r="O706" s="5"/>
     </row>
-    <row r="707" spans="1:15">
+    <row r="707" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A707" s="3"/>
       <c r="B707" s="4"/>
       <c r="C707" s="4"/>
@@ -13170,7 +13111,7 @@
       <c r="N707" s="5"/>
       <c r="O707" s="5"/>
     </row>
-    <row r="708" spans="1:15">
+    <row r="708" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A708" s="3"/>
       <c r="B708" s="4"/>
       <c r="C708" s="4"/>
@@ -13187,7 +13128,7 @@
       <c r="N708" s="5"/>
       <c r="O708" s="5"/>
     </row>
-    <row r="709" spans="1:15">
+    <row r="709" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A709" s="3">
         <v>45456</v>
       </c>
@@ -13213,39 +13154,20 @@
       <c r="O709" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="O1">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
-      <formula>"Ok-Adm"</formula>
+  <conditionalFormatting sqref="M1:M709">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Devolução total"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1 M12:M709">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Reentrega"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Entregue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1 M12:M709">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
-      <formula>"Reentrega"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1 M12:M709">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
-      <formula>"Devolução total"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M11">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
-      <formula>"Entregue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M11">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
-      <formula>"Reentrega"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M11">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"Devolução total"</formula>
+  <conditionalFormatting sqref="O1">
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
+      <formula>"Ok-Adm"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/planilhaderotascc15.xlsx
+++ b/planilhaderotascc15.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Lucas\Desktop\Robo-Baixa-Entregas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{CE85909E-1B65-4376-9AC7-C4F344913187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{088669F2-926A-4558-B0FD-B6543C916D66}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{CE85909E-1B65-4376-9AC7-C4F344913187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{391252FB-1C81-4CC0-90DE-8A98542016C0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="CC15" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -2978,24 +2978,24 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="3" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="3" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3379,8 +3379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1084"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A640" workbookViewId="0">
-      <selection activeCell="A372" sqref="A372:O1084"/>
+    <sheetView tabSelected="1" topLeftCell="A1063" workbookViewId="0">
+      <selection activeCell="D915" sqref="D915"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/planilhaderotascc15.xlsx
+++ b/planilhaderotascc15.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27813"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Lucas\Desktop\Robo-Baixa-Entregas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Robo-Baixa-Entregas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{CE85909E-1B65-4376-9AC7-C4F344913187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{391252FB-1C81-4CC0-90DE-8A98542016C0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="CC15" sheetId="1" r:id="rId1"/>
@@ -2729,7 +2728,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -2776,7 +2775,7 @@
       <name val="Aptos Narrow"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2891,6 +2890,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2904,7 +2909,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2996,11 +3001,65 @@
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="3" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="1"/>
@@ -3376,16 +3435,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1084"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O1145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1063" workbookViewId="0">
-      <selection activeCell="D915" sqref="D915"/>
+    <sheetView tabSelected="1" topLeftCell="A1067" workbookViewId="0">
+      <selection activeCell="A1145" sqref="A1085:O1145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="38.25">
+    <row r="1" spans="1:15" ht="39.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -44763,24 +44822,1072 @@
       <c r="N1084" s="25"/>
       <c r="O1084" s="25"/>
     </row>
+    <row r="1085" spans="1:15">
+      <c r="A1085" s="3"/>
+      <c r="B1085" s="43"/>
+      <c r="C1085" s="44"/>
+      <c r="D1085" s="44"/>
+      <c r="E1085" s="44"/>
+      <c r="F1085" s="4"/>
+      <c r="G1085" s="4"/>
+      <c r="H1085" s="4"/>
+      <c r="I1085" s="4"/>
+      <c r="J1085" s="4"/>
+      <c r="K1085" s="4"/>
+      <c r="L1085" s="4"/>
+      <c r="M1085" s="5"/>
+      <c r="N1085" s="5"/>
+      <c r="O1085" s="5"/>
+    </row>
+    <row r="1086" spans="1:15">
+      <c r="A1086" s="3"/>
+      <c r="B1086" s="4"/>
+      <c r="C1086" s="44"/>
+      <c r="D1086" s="44"/>
+      <c r="E1086" s="44"/>
+      <c r="F1086" s="8"/>
+      <c r="G1086" s="4"/>
+      <c r="H1086" s="4"/>
+      <c r="I1086" s="6"/>
+      <c r="J1086" s="4"/>
+      <c r="K1086" s="9"/>
+      <c r="L1086" s="9"/>
+      <c r="M1086" s="5"/>
+      <c r="N1086" s="5"/>
+      <c r="O1086" s="5"/>
+    </row>
+    <row r="1087" spans="1:15">
+      <c r="A1087" s="3"/>
+      <c r="B1087" s="4"/>
+      <c r="C1087" s="44"/>
+      <c r="D1087" s="44"/>
+      <c r="E1087" s="44"/>
+      <c r="F1087" s="8"/>
+      <c r="G1087" s="4"/>
+      <c r="H1087" s="4"/>
+      <c r="I1087" s="6"/>
+      <c r="J1087" s="4"/>
+      <c r="K1087" s="4"/>
+      <c r="L1087" s="9"/>
+      <c r="M1087" s="5"/>
+      <c r="N1087" s="5"/>
+      <c r="O1087" s="5"/>
+    </row>
+    <row r="1088" spans="1:15">
+      <c r="A1088" s="3"/>
+      <c r="B1088" s="4"/>
+      <c r="C1088" s="44"/>
+      <c r="D1088" s="44"/>
+      <c r="E1088" s="44"/>
+      <c r="F1088" s="4"/>
+      <c r="G1088" s="4"/>
+      <c r="H1088" s="4"/>
+      <c r="I1088" s="4"/>
+      <c r="J1088" s="4"/>
+      <c r="K1088" s="4"/>
+      <c r="L1088" s="4"/>
+      <c r="M1088" s="5"/>
+      <c r="N1088" s="5"/>
+      <c r="O1088" s="5"/>
+    </row>
+    <row r="1089" spans="1:15">
+      <c r="A1089" s="3"/>
+      <c r="B1089" s="4"/>
+      <c r="C1089" s="45"/>
+      <c r="D1089" s="45"/>
+      <c r="E1089" s="44"/>
+      <c r="F1089" s="4"/>
+      <c r="G1089" s="4"/>
+      <c r="H1089" s="4"/>
+      <c r="I1089" s="4"/>
+      <c r="J1089" s="4"/>
+      <c r="K1089" s="4"/>
+      <c r="L1089" s="4"/>
+      <c r="M1089" s="5"/>
+      <c r="N1089" s="5"/>
+      <c r="O1089" s="5"/>
+    </row>
+    <row r="1090" spans="1:15">
+      <c r="A1090" s="3"/>
+      <c r="B1090" s="4"/>
+      <c r="C1090" s="44"/>
+      <c r="D1090" s="44"/>
+      <c r="E1090" s="44"/>
+      <c r="F1090" s="4"/>
+      <c r="G1090" s="4"/>
+      <c r="H1090" s="4"/>
+      <c r="I1090" s="4"/>
+      <c r="J1090" s="4"/>
+      <c r="K1090" s="4"/>
+      <c r="L1090" s="4"/>
+      <c r="M1090" s="5"/>
+      <c r="N1090" s="5"/>
+      <c r="O1090" s="5"/>
+    </row>
+    <row r="1091" spans="1:15">
+      <c r="A1091" s="3"/>
+      <c r="B1091" s="4"/>
+      <c r="C1091" s="44"/>
+      <c r="D1091" s="44"/>
+      <c r="E1091" s="44"/>
+      <c r="F1091" s="8"/>
+      <c r="G1091" s="4"/>
+      <c r="H1091" s="4"/>
+      <c r="I1091" s="6"/>
+      <c r="J1091" s="4"/>
+      <c r="K1091" s="4"/>
+      <c r="L1091" s="9"/>
+      <c r="M1091" s="5"/>
+      <c r="N1091" s="5"/>
+      <c r="O1091" s="5"/>
+    </row>
+    <row r="1092" spans="1:15">
+      <c r="A1092" s="3"/>
+      <c r="B1092" s="4"/>
+      <c r="C1092" s="44"/>
+      <c r="D1092" s="44"/>
+      <c r="E1092" s="44"/>
+      <c r="F1092" s="7"/>
+      <c r="G1092" s="4"/>
+      <c r="H1092" s="4"/>
+      <c r="I1092" s="6"/>
+      <c r="J1092" s="4"/>
+      <c r="K1092" s="4"/>
+      <c r="L1092" s="4"/>
+      <c r="M1092" s="5"/>
+      <c r="N1092" s="5"/>
+      <c r="O1092" s="5"/>
+    </row>
+    <row r="1093" spans="1:15">
+      <c r="A1093" s="3"/>
+      <c r="B1093" s="4"/>
+      <c r="C1093" s="44"/>
+      <c r="D1093" s="44"/>
+      <c r="E1093" s="44"/>
+      <c r="F1093" s="7"/>
+      <c r="G1093" s="4"/>
+      <c r="H1093" s="4"/>
+      <c r="I1093" s="6"/>
+      <c r="J1093" s="4"/>
+      <c r="K1093" s="4"/>
+      <c r="L1093" s="4"/>
+      <c r="M1093" s="5"/>
+      <c r="N1093" s="5"/>
+      <c r="O1093" s="5"/>
+    </row>
+    <row r="1094" spans="1:15">
+      <c r="A1094" s="3"/>
+      <c r="B1094" s="4"/>
+      <c r="C1094" s="44"/>
+      <c r="D1094" s="44"/>
+      <c r="E1094" s="44"/>
+      <c r="F1094" s="7"/>
+      <c r="G1094" s="4"/>
+      <c r="H1094" s="4"/>
+      <c r="I1094" s="6"/>
+      <c r="J1094" s="4"/>
+      <c r="K1094" s="4"/>
+      <c r="L1094" s="4"/>
+      <c r="M1094" s="5"/>
+      <c r="N1094" s="5"/>
+      <c r="O1094" s="5"/>
+    </row>
+    <row r="1095" spans="1:15">
+      <c r="A1095" s="3"/>
+      <c r="B1095" s="4"/>
+      <c r="C1095" s="44"/>
+      <c r="D1095" s="44"/>
+      <c r="E1095" s="44"/>
+      <c r="F1095" s="4"/>
+      <c r="G1095" s="4"/>
+      <c r="H1095" s="4"/>
+      <c r="I1095" s="4"/>
+      <c r="J1095" s="4"/>
+      <c r="K1095" s="4"/>
+      <c r="L1095" s="4"/>
+      <c r="M1095" s="5"/>
+      <c r="N1095" s="5"/>
+      <c r="O1095" s="5"/>
+    </row>
+    <row r="1096" spans="1:15">
+      <c r="A1096" s="3"/>
+      <c r="B1096" s="4"/>
+      <c r="C1096" s="44"/>
+      <c r="D1096" s="45"/>
+      <c r="E1096" s="44"/>
+      <c r="F1096" s="4"/>
+      <c r="G1096" s="4"/>
+      <c r="H1096" s="4"/>
+      <c r="I1096" s="4"/>
+      <c r="J1096" s="4"/>
+      <c r="K1096" s="4"/>
+      <c r="L1096" s="4"/>
+      <c r="M1096" s="5"/>
+      <c r="N1096" s="5"/>
+      <c r="O1096" s="5"/>
+    </row>
+    <row r="1097" spans="1:15">
+      <c r="A1097" s="3"/>
+      <c r="B1097" s="4"/>
+      <c r="C1097" s="44"/>
+      <c r="D1097" s="44"/>
+      <c r="E1097" s="44"/>
+      <c r="F1097" s="4"/>
+      <c r="G1097" s="4"/>
+      <c r="H1097" s="4"/>
+      <c r="I1097" s="4"/>
+      <c r="J1097" s="4"/>
+      <c r="K1097" s="4"/>
+      <c r="L1097" s="4"/>
+      <c r="M1097" s="5"/>
+      <c r="N1097" s="5"/>
+      <c r="O1097" s="5"/>
+    </row>
+    <row r="1098" spans="1:15">
+      <c r="A1098" s="3"/>
+      <c r="B1098" s="4"/>
+      <c r="C1098" s="44"/>
+      <c r="D1098" s="44"/>
+      <c r="E1098" s="44"/>
+      <c r="F1098" s="8"/>
+      <c r="G1098" s="4"/>
+      <c r="H1098" s="4"/>
+      <c r="I1098" s="6"/>
+      <c r="J1098" s="4"/>
+      <c r="K1098" s="9"/>
+      <c r="L1098" s="9"/>
+      <c r="M1098" s="5"/>
+      <c r="N1098" s="5"/>
+      <c r="O1098" s="5"/>
+    </row>
+    <row r="1099" spans="1:15">
+      <c r="A1099" s="3"/>
+      <c r="B1099" s="4"/>
+      <c r="C1099" s="44"/>
+      <c r="D1099" s="44"/>
+      <c r="E1099" s="44"/>
+      <c r="F1099" s="4"/>
+      <c r="G1099" s="4"/>
+      <c r="H1099" s="4"/>
+      <c r="I1099" s="4"/>
+      <c r="J1099" s="4"/>
+      <c r="K1099" s="4"/>
+      <c r="L1099" s="4"/>
+      <c r="M1099" s="5"/>
+      <c r="N1099" s="5"/>
+      <c r="O1099" s="5"/>
+    </row>
+    <row r="1100" spans="1:15">
+      <c r="A1100" s="3"/>
+      <c r="B1100" s="4"/>
+      <c r="C1100" s="45"/>
+      <c r="D1100" s="45"/>
+      <c r="E1100" s="44"/>
+      <c r="F1100" s="4"/>
+      <c r="G1100" s="4"/>
+      <c r="H1100" s="4"/>
+      <c r="I1100" s="4"/>
+      <c r="J1100" s="4"/>
+      <c r="K1100" s="4"/>
+      <c r="L1100" s="4"/>
+      <c r="M1100" s="5"/>
+      <c r="N1100" s="5"/>
+      <c r="O1100" s="5"/>
+    </row>
+    <row r="1101" spans="1:15">
+      <c r="A1101" s="3"/>
+      <c r="B1101" s="4"/>
+      <c r="C1101" s="44"/>
+      <c r="D1101" s="44"/>
+      <c r="E1101" s="44"/>
+      <c r="F1101" s="4"/>
+      <c r="G1101" s="4"/>
+      <c r="H1101" s="4"/>
+      <c r="I1101" s="4"/>
+      <c r="J1101" s="4"/>
+      <c r="K1101" s="4"/>
+      <c r="L1101" s="4"/>
+      <c r="M1101" s="5"/>
+      <c r="N1101" s="5"/>
+      <c r="O1101" s="5"/>
+    </row>
+    <row r="1102" spans="1:15">
+      <c r="A1102" s="3"/>
+      <c r="B1102" s="4"/>
+      <c r="C1102" s="44"/>
+      <c r="D1102" s="44"/>
+      <c r="E1102" s="44"/>
+      <c r="F1102" s="8"/>
+      <c r="G1102" s="4"/>
+      <c r="H1102" s="4"/>
+      <c r="I1102" s="6"/>
+      <c r="J1102" s="4"/>
+      <c r="K1102" s="4"/>
+      <c r="L1102" s="9"/>
+      <c r="M1102" s="5"/>
+      <c r="N1102" s="5"/>
+      <c r="O1102" s="5"/>
+    </row>
+    <row r="1103" spans="1:15">
+      <c r="A1103" s="3"/>
+      <c r="B1103" s="4"/>
+      <c r="C1103" s="44"/>
+      <c r="D1103" s="44"/>
+      <c r="E1103" s="44"/>
+      <c r="F1103" s="8"/>
+      <c r="G1103" s="4"/>
+      <c r="H1103" s="4"/>
+      <c r="I1103" s="6"/>
+      <c r="J1103" s="4"/>
+      <c r="K1103" s="4"/>
+      <c r="L1103" s="4"/>
+      <c r="M1103" s="5"/>
+      <c r="N1103" s="5"/>
+      <c r="O1103" s="5"/>
+    </row>
+    <row r="1104" spans="1:15">
+      <c r="A1104" s="3"/>
+      <c r="B1104" s="4"/>
+      <c r="C1104" s="44"/>
+      <c r="D1104" s="44"/>
+      <c r="E1104" s="44"/>
+      <c r="F1104" s="8"/>
+      <c r="G1104" s="4"/>
+      <c r="H1104" s="4"/>
+      <c r="I1104" s="6"/>
+      <c r="J1104" s="4"/>
+      <c r="K1104" s="4"/>
+      <c r="L1104" s="4"/>
+      <c r="M1104" s="5"/>
+      <c r="N1104" s="5"/>
+      <c r="O1104" s="5"/>
+    </row>
+    <row r="1105" spans="1:15">
+      <c r="A1105" s="3"/>
+      <c r="B1105" s="4"/>
+      <c r="C1105" s="44"/>
+      <c r="D1105" s="44"/>
+      <c r="E1105" s="44"/>
+      <c r="F1105" s="8"/>
+      <c r="G1105" s="4"/>
+      <c r="H1105" s="4"/>
+      <c r="I1105" s="6"/>
+      <c r="J1105" s="4"/>
+      <c r="K1105" s="4"/>
+      <c r="L1105" s="4"/>
+      <c r="M1105" s="5"/>
+      <c r="N1105" s="5"/>
+      <c r="O1105" s="5"/>
+    </row>
+    <row r="1106" spans="1:15">
+      <c r="A1106" s="3"/>
+      <c r="B1106" s="4"/>
+      <c r="C1106" s="44"/>
+      <c r="D1106" s="44"/>
+      <c r="E1106" s="44"/>
+      <c r="F1106" s="8"/>
+      <c r="G1106" s="4"/>
+      <c r="H1106" s="4"/>
+      <c r="I1106" s="6"/>
+      <c r="J1106" s="4"/>
+      <c r="K1106" s="4"/>
+      <c r="L1106" s="4"/>
+      <c r="M1106" s="5"/>
+      <c r="N1106" s="5"/>
+      <c r="O1106" s="5"/>
+    </row>
+    <row r="1107" spans="1:15">
+      <c r="A1107" s="3"/>
+      <c r="B1107" s="4"/>
+      <c r="C1107" s="44"/>
+      <c r="D1107" s="44"/>
+      <c r="E1107" s="44"/>
+      <c r="F1107" s="4"/>
+      <c r="G1107" s="4"/>
+      <c r="H1107" s="4"/>
+      <c r="I1107" s="4"/>
+      <c r="J1107" s="4"/>
+      <c r="K1107" s="4"/>
+      <c r="L1107" s="4"/>
+      <c r="M1107" s="5"/>
+      <c r="N1107" s="5"/>
+      <c r="O1107" s="5"/>
+    </row>
+    <row r="1108" spans="1:15">
+      <c r="A1108" s="3"/>
+      <c r="B1108" s="4"/>
+      <c r="C1108" s="44"/>
+      <c r="D1108" s="45"/>
+      <c r="E1108" s="44"/>
+      <c r="F1108" s="4"/>
+      <c r="G1108" s="4"/>
+      <c r="H1108" s="4"/>
+      <c r="I1108" s="4"/>
+      <c r="J1108" s="4"/>
+      <c r="K1108" s="4"/>
+      <c r="L1108" s="4"/>
+      <c r="M1108" s="5"/>
+      <c r="N1108" s="5"/>
+      <c r="O1108" s="5"/>
+    </row>
+    <row r="1109" spans="1:15">
+      <c r="A1109" s="3"/>
+      <c r="B1109" s="43"/>
+      <c r="C1109" s="44"/>
+      <c r="D1109" s="44"/>
+      <c r="E1109" s="44"/>
+      <c r="F1109" s="4"/>
+      <c r="G1109" s="4"/>
+      <c r="H1109" s="4"/>
+      <c r="I1109" s="4"/>
+      <c r="J1109" s="4"/>
+      <c r="K1109" s="4"/>
+      <c r="L1109" s="4"/>
+      <c r="M1109" s="5"/>
+      <c r="N1109" s="5"/>
+      <c r="O1109" s="5"/>
+    </row>
+    <row r="1110" spans="1:15">
+      <c r="A1110" s="3"/>
+      <c r="B1110" s="4"/>
+      <c r="C1110" s="44"/>
+      <c r="D1110" s="44"/>
+      <c r="E1110" s="44"/>
+      <c r="F1110" s="8"/>
+      <c r="G1110" s="4"/>
+      <c r="H1110" s="4"/>
+      <c r="I1110" s="6"/>
+      <c r="J1110" s="4"/>
+      <c r="K1110" s="4"/>
+      <c r="L1110" s="9"/>
+      <c r="M1110" s="5"/>
+      <c r="N1110" s="5"/>
+      <c r="O1110" s="5"/>
+    </row>
+    <row r="1111" spans="1:15">
+      <c r="A1111" s="3"/>
+      <c r="B1111" s="4"/>
+      <c r="C1111" s="44"/>
+      <c r="D1111" s="44"/>
+      <c r="E1111" s="44"/>
+      <c r="F1111" s="8"/>
+      <c r="G1111" s="4"/>
+      <c r="H1111" s="4"/>
+      <c r="I1111" s="6"/>
+      <c r="J1111" s="4"/>
+      <c r="K1111" s="4"/>
+      <c r="L1111" s="4"/>
+      <c r="M1111" s="5"/>
+      <c r="N1111" s="5"/>
+      <c r="O1111" s="5"/>
+    </row>
+    <row r="1112" spans="1:15">
+      <c r="A1112" s="3"/>
+      <c r="B1112" s="4"/>
+      <c r="C1112" s="44"/>
+      <c r="D1112" s="44"/>
+      <c r="E1112" s="44"/>
+      <c r="F1112" s="8"/>
+      <c r="G1112" s="4"/>
+      <c r="H1112" s="4"/>
+      <c r="I1112" s="6"/>
+      <c r="J1112" s="4"/>
+      <c r="K1112" s="4"/>
+      <c r="L1112" s="4"/>
+      <c r="M1112" s="5"/>
+      <c r="N1112" s="5"/>
+      <c r="O1112" s="5"/>
+    </row>
+    <row r="1113" spans="1:15">
+      <c r="A1113" s="3"/>
+      <c r="B1113" s="4"/>
+      <c r="C1113" s="44"/>
+      <c r="D1113" s="44"/>
+      <c r="E1113" s="44"/>
+      <c r="F1113" s="4"/>
+      <c r="G1113" s="4"/>
+      <c r="H1113" s="4"/>
+      <c r="I1113" s="4"/>
+      <c r="J1113" s="4"/>
+      <c r="K1113" s="4"/>
+      <c r="L1113" s="4"/>
+      <c r="M1113" s="5"/>
+      <c r="N1113" s="5"/>
+      <c r="O1113" s="5"/>
+    </row>
+    <row r="1114" spans="1:15">
+      <c r="A1114" s="3"/>
+      <c r="B1114" s="4"/>
+      <c r="C1114" s="44"/>
+      <c r="D1114" s="45"/>
+      <c r="E1114" s="44"/>
+      <c r="F1114" s="4"/>
+      <c r="G1114" s="4"/>
+      <c r="H1114" s="4"/>
+      <c r="I1114" s="4"/>
+      <c r="J1114" s="4"/>
+      <c r="K1114" s="4"/>
+      <c r="L1114" s="4"/>
+      <c r="M1114" s="5"/>
+      <c r="N1114" s="5"/>
+      <c r="O1114" s="5"/>
+    </row>
+    <row r="1115" spans="1:15">
+      <c r="A1115" s="3"/>
+      <c r="B1115" s="43"/>
+      <c r="C1115" s="44"/>
+      <c r="D1115" s="44"/>
+      <c r="E1115" s="44"/>
+      <c r="F1115" s="4"/>
+      <c r="G1115" s="4"/>
+      <c r="H1115" s="4"/>
+      <c r="I1115" s="4"/>
+      <c r="J1115" s="4"/>
+      <c r="K1115" s="4"/>
+      <c r="L1115" s="4"/>
+      <c r="M1115" s="5"/>
+      <c r="N1115" s="5"/>
+      <c r="O1115" s="5"/>
+    </row>
+    <row r="1116" spans="1:15">
+      <c r="A1116" s="3"/>
+      <c r="B1116" s="4"/>
+      <c r="C1116" s="44"/>
+      <c r="D1116" s="44"/>
+      <c r="E1116" s="44"/>
+      <c r="F1116" s="8"/>
+      <c r="G1116" s="4"/>
+      <c r="H1116" s="4"/>
+      <c r="I1116" s="6"/>
+      <c r="J1116" s="4"/>
+      <c r="K1116" s="4"/>
+      <c r="L1116" s="9"/>
+      <c r="M1116" s="5"/>
+      <c r="N1116" s="5"/>
+      <c r="O1116" s="5"/>
+    </row>
+    <row r="1117" spans="1:15">
+      <c r="A1117" s="3"/>
+      <c r="B1117" s="4"/>
+      <c r="C1117" s="44"/>
+      <c r="D1117" s="44"/>
+      <c r="E1117" s="44"/>
+      <c r="F1117" s="4"/>
+      <c r="G1117" s="4"/>
+      <c r="H1117" s="4"/>
+      <c r="I1117" s="4"/>
+      <c r="J1117" s="4"/>
+      <c r="K1117" s="4"/>
+      <c r="L1117" s="4"/>
+      <c r="M1117" s="5"/>
+      <c r="N1117" s="5"/>
+      <c r="O1117" s="5"/>
+    </row>
+    <row r="1118" spans="1:15">
+      <c r="A1118" s="3"/>
+      <c r="B1118" s="4"/>
+      <c r="C1118" s="44"/>
+      <c r="D1118" s="45"/>
+      <c r="E1118" s="44"/>
+      <c r="F1118" s="4"/>
+      <c r="G1118" s="4"/>
+      <c r="H1118" s="4"/>
+      <c r="I1118" s="4"/>
+      <c r="J1118" s="4"/>
+      <c r="K1118" s="4"/>
+      <c r="L1118" s="4"/>
+      <c r="M1118" s="5"/>
+      <c r="N1118" s="5"/>
+      <c r="O1118" s="5"/>
+    </row>
+    <row r="1119" spans="1:15">
+      <c r="A1119" s="3"/>
+      <c r="B1119" s="43"/>
+      <c r="C1119" s="44"/>
+      <c r="D1119" s="44"/>
+      <c r="E1119" s="44"/>
+      <c r="F1119" s="4"/>
+      <c r="G1119" s="4"/>
+      <c r="H1119" s="4"/>
+      <c r="I1119" s="4"/>
+      <c r="J1119" s="4"/>
+      <c r="K1119" s="4"/>
+      <c r="L1119" s="4"/>
+      <c r="M1119" s="5"/>
+      <c r="N1119" s="5"/>
+      <c r="O1119" s="5"/>
+    </row>
+    <row r="1120" spans="1:15">
+      <c r="A1120" s="3"/>
+      <c r="B1120" s="4"/>
+      <c r="C1120" s="44"/>
+      <c r="D1120" s="44"/>
+      <c r="E1120" s="44"/>
+      <c r="F1120" s="8"/>
+      <c r="G1120" s="4"/>
+      <c r="H1120" s="4"/>
+      <c r="I1120" s="6"/>
+      <c r="J1120" s="4"/>
+      <c r="K1120" s="4"/>
+      <c r="L1120" s="9"/>
+      <c r="M1120" s="5"/>
+      <c r="N1120" s="5"/>
+      <c r="O1120" s="5"/>
+    </row>
+    <row r="1121" spans="1:15">
+      <c r="A1121" s="3"/>
+      <c r="B1121" s="4"/>
+      <c r="C1121" s="44"/>
+      <c r="D1121" s="44"/>
+      <c r="E1121" s="44"/>
+      <c r="F1121" s="4"/>
+      <c r="G1121" s="4"/>
+      <c r="H1121" s="4"/>
+      <c r="I1121" s="4"/>
+      <c r="J1121" s="4"/>
+      <c r="K1121" s="4"/>
+      <c r="L1121" s="4"/>
+      <c r="M1121" s="5"/>
+      <c r="N1121" s="5"/>
+      <c r="O1121" s="5"/>
+    </row>
+    <row r="1122" spans="1:15">
+      <c r="A1122" s="3"/>
+      <c r="B1122" s="4"/>
+      <c r="C1122" s="44"/>
+      <c r="D1122" s="45"/>
+      <c r="E1122" s="44"/>
+      <c r="F1122" s="4"/>
+      <c r="G1122" s="4"/>
+      <c r="H1122" s="4"/>
+      <c r="I1122" s="4"/>
+      <c r="J1122" s="4"/>
+      <c r="K1122" s="4"/>
+      <c r="L1122" s="4"/>
+      <c r="M1122" s="5"/>
+      <c r="N1122" s="5"/>
+      <c r="O1122" s="5"/>
+    </row>
+    <row r="1123" spans="1:15">
+      <c r="A1123" s="3"/>
+      <c r="B1123" s="4"/>
+      <c r="C1123" s="44"/>
+      <c r="D1123" s="44"/>
+      <c r="E1123" s="44"/>
+      <c r="F1123" s="4"/>
+      <c r="G1123" s="4"/>
+      <c r="H1123" s="4"/>
+      <c r="I1123" s="4"/>
+      <c r="J1123" s="4"/>
+      <c r="K1123" s="4"/>
+      <c r="L1123" s="4"/>
+      <c r="M1123" s="5"/>
+      <c r="N1123" s="5"/>
+      <c r="O1123" s="5"/>
+    </row>
+    <row r="1124" spans="1:15">
+      <c r="A1124" s="3"/>
+      <c r="B1124" s="4"/>
+      <c r="C1124" s="44"/>
+      <c r="D1124" s="44"/>
+      <c r="E1124" s="44"/>
+      <c r="F1124" s="8"/>
+      <c r="G1124" s="4"/>
+      <c r="H1124" s="4"/>
+      <c r="I1124" s="6"/>
+      <c r="J1124" s="4"/>
+      <c r="K1124" s="4"/>
+      <c r="L1124" s="9"/>
+      <c r="M1124" s="5"/>
+      <c r="N1124" s="5"/>
+      <c r="O1124" s="5"/>
+    </row>
+    <row r="1125" spans="1:15">
+      <c r="A1125" s="3"/>
+      <c r="B1125" s="4"/>
+      <c r="C1125" s="44"/>
+      <c r="D1125" s="44"/>
+      <c r="E1125" s="44"/>
+      <c r="F1125" s="8"/>
+      <c r="G1125" s="4"/>
+      <c r="H1125" s="4"/>
+      <c r="I1125" s="6"/>
+      <c r="J1125" s="4"/>
+      <c r="K1125" s="4"/>
+      <c r="L1125" s="9"/>
+      <c r="M1125" s="5"/>
+      <c r="N1125" s="5"/>
+      <c r="O1125" s="5"/>
+    </row>
+    <row r="1126" spans="1:15">
+      <c r="A1126" s="3"/>
+      <c r="B1126" s="4"/>
+      <c r="C1126" s="44"/>
+      <c r="D1126" s="44"/>
+      <c r="E1126" s="44"/>
+      <c r="F1126" s="8"/>
+      <c r="G1126" s="4"/>
+      <c r="H1126" s="4"/>
+      <c r="I1126" s="6"/>
+      <c r="J1126" s="4"/>
+      <c r="K1126" s="4"/>
+      <c r="L1126" s="4"/>
+      <c r="M1126" s="5"/>
+      <c r="N1126" s="5"/>
+      <c r="O1126" s="5"/>
+    </row>
+    <row r="1127" spans="1:15">
+      <c r="A1127" s="3"/>
+      <c r="B1127" s="4"/>
+      <c r="C1127" s="44"/>
+      <c r="D1127" s="44"/>
+      <c r="E1127" s="44"/>
+      <c r="F1127" s="8"/>
+      <c r="G1127" s="4"/>
+      <c r="H1127" s="4"/>
+      <c r="I1127" s="6"/>
+      <c r="J1127" s="4"/>
+      <c r="K1127" s="4"/>
+      <c r="L1127" s="9"/>
+      <c r="M1127" s="5"/>
+      <c r="N1127" s="5"/>
+      <c r="O1127" s="5"/>
+    </row>
+    <row r="1128" spans="1:15">
+      <c r="A1128" s="3"/>
+      <c r="B1128" s="4"/>
+      <c r="C1128" s="44"/>
+      <c r="D1128" s="44"/>
+      <c r="E1128" s="44"/>
+      <c r="F1128" s="8"/>
+      <c r="G1128" s="4"/>
+      <c r="H1128" s="4"/>
+      <c r="I1128" s="6"/>
+      <c r="J1128" s="4"/>
+      <c r="K1128" s="4"/>
+      <c r="L1128" s="9"/>
+      <c r="M1128" s="5"/>
+      <c r="N1128" s="5"/>
+      <c r="O1128" s="5"/>
+    </row>
+    <row r="1129" spans="1:15">
+      <c r="A1129" s="3"/>
+      <c r="B1129" s="4"/>
+      <c r="C1129" s="44"/>
+      <c r="D1129" s="44"/>
+      <c r="E1129" s="44"/>
+      <c r="F1129" s="8"/>
+      <c r="G1129" s="4"/>
+      <c r="H1129" s="4"/>
+      <c r="I1129" s="6"/>
+      <c r="J1129" s="4"/>
+      <c r="K1129" s="4"/>
+      <c r="L1129" s="4"/>
+      <c r="M1129" s="5"/>
+      <c r="N1129" s="5"/>
+      <c r="O1129" s="5"/>
+    </row>
+    <row r="1130" spans="1:15">
+      <c r="A1130" s="3"/>
+      <c r="B1130" s="4"/>
+      <c r="C1130" s="44"/>
+      <c r="D1130" s="44"/>
+      <c r="E1130" s="44"/>
+      <c r="F1130" s="8"/>
+      <c r="G1130" s="4"/>
+      <c r="H1130" s="4"/>
+      <c r="I1130" s="6"/>
+      <c r="J1130" s="4"/>
+      <c r="K1130" s="4"/>
+      <c r="L1130" s="4"/>
+      <c r="M1130" s="5"/>
+      <c r="N1130" s="5"/>
+      <c r="O1130" s="5"/>
+    </row>
+    <row r="1131" spans="1:15">
+      <c r="A1131" s="3"/>
+      <c r="B1131" s="4"/>
+      <c r="C1131" s="44"/>
+      <c r="D1131" s="44"/>
+      <c r="E1131" s="44"/>
+      <c r="F1131" s="4"/>
+      <c r="G1131" s="4"/>
+      <c r="H1131" s="4"/>
+      <c r="I1131" s="4"/>
+      <c r="J1131" s="4"/>
+      <c r="K1131" s="4"/>
+      <c r="L1131" s="4"/>
+      <c r="M1131" s="5"/>
+      <c r="N1131" s="5"/>
+      <c r="O1131" s="5"/>
+    </row>
+    <row r="1132" spans="1:15">
+      <c r="A1132" s="3"/>
+      <c r="B1132" s="4"/>
+      <c r="C1132" s="44"/>
+      <c r="D1132" s="45"/>
+      <c r="E1132" s="44"/>
+      <c r="F1132" s="4"/>
+      <c r="G1132" s="4"/>
+      <c r="H1132" s="4"/>
+      <c r="I1132" s="4"/>
+      <c r="J1132" s="4"/>
+      <c r="K1132" s="4"/>
+      <c r="L1132" s="4"/>
+      <c r="M1132" s="5"/>
+      <c r="N1132" s="5"/>
+      <c r="O1132" s="5"/>
+    </row>
+    <row r="1133" spans="1:15">
+      <c r="A1133" s="3"/>
+      <c r="B1133" s="4"/>
+      <c r="C1133" s="44"/>
+      <c r="D1133" s="44"/>
+      <c r="E1133" s="44"/>
+      <c r="F1133" s="4"/>
+      <c r="G1133" s="4"/>
+      <c r="H1133" s="4"/>
+      <c r="I1133" s="4"/>
+      <c r="J1133" s="4"/>
+      <c r="K1133" s="4"/>
+      <c r="L1133" s="4"/>
+      <c r="M1133" s="5"/>
+      <c r="N1133" s="5"/>
+      <c r="O1133" s="5"/>
+    </row>
+    <row r="1134" spans="1:15">
+      <c r="A1134" s="3"/>
+      <c r="B1134" s="4"/>
+      <c r="C1134" s="44"/>
+      <c r="D1134" s="44"/>
+      <c r="E1134" s="44"/>
+      <c r="F1134" s="8"/>
+      <c r="G1134" s="4"/>
+      <c r="H1134" s="4"/>
+      <c r="I1134" s="6"/>
+      <c r="J1134" s="4"/>
+      <c r="K1134" s="4"/>
+      <c r="L1134" s="4"/>
+      <c r="M1134" s="5"/>
+      <c r="N1134" s="5"/>
+      <c r="O1134" s="5"/>
+    </row>
+    <row r="1135" spans="1:15">
+      <c r="A1135" s="3"/>
+      <c r="B1135" s="4"/>
+      <c r="C1135" s="44"/>
+      <c r="D1135" s="44"/>
+      <c r="E1135" s="44"/>
+      <c r="F1135" s="8"/>
+      <c r="G1135" s="4"/>
+      <c r="H1135" s="4"/>
+      <c r="I1135" s="6"/>
+      <c r="J1135" s="4"/>
+      <c r="K1135" s="4"/>
+      <c r="L1135" s="4"/>
+      <c r="M1135" s="5"/>
+      <c r="N1135" s="5"/>
+      <c r="O1135" s="5"/>
+    </row>
+    <row r="1136" spans="1:15">
+      <c r="A1136" s="3"/>
+      <c r="B1136" s="4"/>
+      <c r="C1136" s="44"/>
+      <c r="D1136" s="44"/>
+      <c r="E1136" s="44"/>
+      <c r="F1136" s="8"/>
+      <c r="G1136" s="4"/>
+      <c r="H1136" s="4"/>
+      <c r="I1136" s="6"/>
+      <c r="J1136" s="4"/>
+      <c r="K1136" s="4"/>
+      <c r="L1136" s="9"/>
+      <c r="M1136" s="5"/>
+      <c r="N1136" s="5"/>
+      <c r="O1136" s="5"/>
+    </row>
+    <row r="1137" spans="1:15">
+      <c r="A1137" s="3"/>
+      <c r="B1137" s="4"/>
+      <c r="C1137" s="44"/>
+      <c r="D1137" s="44"/>
+      <c r="E1137" s="44"/>
+      <c r="F1137" s="8"/>
+      <c r="G1137" s="4"/>
+      <c r="H1137" s="4"/>
+      <c r="I1137" s="6"/>
+      <c r="J1137" s="4"/>
+      <c r="K1137" s="4"/>
+      <c r="L1137" s="9"/>
+      <c r="M1137" s="5"/>
+      <c r="N1137" s="5"/>
+      <c r="O1137" s="5"/>
+    </row>
+    <row r="1138" spans="1:15">
+      <c r="A1138" s="3"/>
+      <c r="B1138" s="4"/>
+      <c r="C1138" s="44"/>
+      <c r="D1138" s="44"/>
+      <c r="E1138" s="44"/>
+      <c r="F1138" s="7"/>
+      <c r="G1138" s="4"/>
+      <c r="H1138" s="4"/>
+      <c r="I1138" s="6"/>
+      <c r="J1138" s="4"/>
+      <c r="K1138" s="4"/>
+      <c r="L1138" s="4"/>
+      <c r="M1138" s="5"/>
+      <c r="N1138" s="5"/>
+      <c r="O1138" s="5"/>
+    </row>
+    <row r="1139" spans="1:15">
+      <c r="A1139" s="3"/>
+      <c r="B1139" s="4"/>
+      <c r="C1139" s="44"/>
+      <c r="D1139" s="44"/>
+      <c r="E1139" s="44"/>
+      <c r="F1139" s="7"/>
+      <c r="G1139" s="4"/>
+      <c r="H1139" s="4"/>
+      <c r="I1139" s="6"/>
+      <c r="J1139" s="4"/>
+      <c r="K1139" s="4"/>
+      <c r="L1139" s="9"/>
+      <c r="M1139" s="5"/>
+      <c r="N1139" s="5"/>
+      <c r="O1139" s="5"/>
+    </row>
+    <row r="1140" spans="1:15">
+      <c r="A1140" s="3"/>
+      <c r="B1140" s="4"/>
+      <c r="C1140" s="44"/>
+      <c r="D1140" s="44"/>
+      <c r="E1140" s="44"/>
+      <c r="F1140" s="4"/>
+      <c r="G1140" s="4"/>
+      <c r="H1140" s="4"/>
+      <c r="I1140" s="4"/>
+      <c r="J1140" s="4"/>
+      <c r="K1140" s="4"/>
+      <c r="L1140" s="4"/>
+      <c r="M1140" s="5"/>
+      <c r="N1140" s="5"/>
+      <c r="O1140" s="5"/>
+    </row>
+    <row r="1141" spans="1:15">
+      <c r="A1141" s="3"/>
+      <c r="B1141" s="4"/>
+      <c r="C1141" s="44"/>
+      <c r="D1141" s="45"/>
+      <c r="E1141" s="44"/>
+      <c r="F1141" s="4"/>
+      <c r="G1141" s="4"/>
+      <c r="H1141" s="4"/>
+      <c r="I1141" s="4"/>
+      <c r="J1141" s="4"/>
+      <c r="K1141" s="4"/>
+      <c r="L1141" s="4"/>
+      <c r="M1141" s="5"/>
+      <c r="N1141" s="5"/>
+      <c r="O1141" s="5"/>
+    </row>
+    <row r="1142" spans="1:15">
+      <c r="A1142" s="3"/>
+      <c r="B1142" s="43"/>
+      <c r="C1142" s="44"/>
+      <c r="D1142" s="44"/>
+      <c r="E1142" s="44"/>
+      <c r="F1142" s="4"/>
+      <c r="G1142" s="4"/>
+      <c r="H1142" s="4"/>
+      <c r="I1142" s="4"/>
+      <c r="J1142" s="4"/>
+      <c r="K1142" s="4"/>
+      <c r="L1142" s="4"/>
+      <c r="M1142" s="5"/>
+      <c r="N1142" s="5"/>
+      <c r="O1142" s="5"/>
+    </row>
+    <row r="1143" spans="1:15">
+      <c r="A1143" s="3"/>
+      <c r="B1143" s="4"/>
+      <c r="C1143" s="44"/>
+      <c r="D1143" s="44"/>
+      <c r="E1143" s="44"/>
+      <c r="F1143" s="8"/>
+      <c r="G1143" s="4"/>
+      <c r="H1143" s="4"/>
+      <c r="I1143" s="6"/>
+      <c r="J1143" s="4"/>
+      <c r="K1143" s="4"/>
+      <c r="L1143" s="9"/>
+      <c r="M1143" s="5"/>
+      <c r="N1143" s="5"/>
+      <c r="O1143" s="5"/>
+    </row>
+    <row r="1144" spans="1:15">
+      <c r="A1144" s="3"/>
+      <c r="B1144" s="4"/>
+      <c r="C1144" s="44"/>
+      <c r="D1144" s="44"/>
+      <c r="E1144" s="44"/>
+      <c r="F1144" s="5"/>
+      <c r="G1144" s="5"/>
+      <c r="H1144" s="5"/>
+      <c r="I1144" s="5"/>
+      <c r="J1144" s="5"/>
+      <c r="K1144" s="5"/>
+      <c r="L1144" s="5"/>
+      <c r="M1144" s="5"/>
+      <c r="N1144" s="5"/>
+      <c r="O1144" s="5"/>
+    </row>
+    <row r="1145" spans="1:15">
+      <c r="A1145" s="46"/>
+      <c r="B1145" s="47"/>
+      <c r="C1145" s="48"/>
+      <c r="D1145" s="49"/>
+      <c r="E1145" s="48"/>
+      <c r="F1145" s="50"/>
+      <c r="G1145" s="50"/>
+      <c r="H1145" s="50"/>
+      <c r="I1145" s="50"/>
+      <c r="J1145" s="50"/>
+      <c r="K1145" s="50"/>
+      <c r="L1145" s="50"/>
+      <c r="M1145" s="50"/>
+      <c r="N1145" s="50"/>
+      <c r="O1145" s="50"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="M1:M65">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"Devolução total"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
       <formula>"Reentrega"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
       <formula>"Entregue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
-    <cfRule type="cellIs" dxfId="6" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="34" operator="equal">
       <formula>"Ok-Adm"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M66:M110">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>"Devolução total"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"Reentrega"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>"Entregue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M111:M371">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Devolução total"</formula>
     </cfRule>
@@ -44791,15 +45898,19 @@
       <formula>"Entregue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M111:M371">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"Devolução total"</formula>
+  <conditionalFormatting sqref="M1085:M1145">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"Entregue"</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1085:M1145">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Reentrega"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>"Entregue"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1085:M1145">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Devoluçao total"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/planilhaderotascc15.xlsx
+++ b/planilhaderotascc15.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27813"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Robo-Baixa-Entregas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Lucas\Desktop\Robo-Baixa-Entregas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{CE85909E-1B65-4376-9AC7-C4F344913187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8900E1E3-89E4-47E0-B0E5-A6FEBB6C607C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CC15" sheetId="1" r:id="rId1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6038" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6341" uniqueCount="920">
   <si>
     <t>Data</t>
   </si>
@@ -2723,12 +2724,84 @@
   </si>
   <si>
     <t>28.435.603/0001-35</t>
+  </si>
+  <si>
+    <t>Mot.: RAFAEL WANDERLLEY NASCIMENTO DOS SANTOS</t>
+  </si>
+  <si>
+    <t>Placa: DJB-7A66</t>
+  </si>
+  <si>
+    <t>MDF-e: 1/2/211.804</t>
+  </si>
+  <si>
+    <t>Data NF agendado</t>
+  </si>
+  <si>
+    <t>02.814.340/0005-05</t>
+  </si>
+  <si>
+    <t>DISTRI IMPORTADORA IRMÃOS  AVELINO</t>
+  </si>
+  <si>
+    <t>Baixado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19/06/24</t>
+  </si>
+  <si>
+    <t>MDF-e: 1/2/211.805</t>
+  </si>
+  <si>
+    <t>06.057.223/0537-04</t>
+  </si>
+  <si>
+    <t>MDF-e: 1/2/211.806</t>
+  </si>
+  <si>
+    <t>MDF-e: 1/2/211.807</t>
+  </si>
+  <si>
+    <t>45.543.915/0127-83</t>
+  </si>
+  <si>
+    <t>MDF-e: 1/2/211.808</t>
+  </si>
+  <si>
+    <t>45.543.915/0129-45</t>
+  </si>
+  <si>
+    <t>MDF-e: 1/2/211.809</t>
+  </si>
+  <si>
+    <t>MDF-e: 1/2/211.810</t>
+  </si>
+  <si>
+    <t>MDF-e: 1/2/211.812</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22/05/24</t>
+  </si>
+  <si>
+    <t>00.063.960/0088-51</t>
+  </si>
+  <si>
+    <t>MDF-e: 1/2/211.813</t>
+  </si>
+  <si>
+    <t>MDF-e: 1/2/211.814</t>
+  </si>
+  <si>
+    <t>01.891.150/0001-03</t>
+  </si>
+  <si>
+    <t>SUPERMERCADO SERV BEM LIMEIRA LTDA - ME</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -2909,7 +2982,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3021,9 +3094,6 @@
     </xf>
     <xf numFmtId="4" fontId="3" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3435,16 +3505,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1067" workbookViewId="0">
-      <selection activeCell="A1145" sqref="A1085:O1145"/>
+    <sheetView tabSelected="1" topLeftCell="D1075" workbookViewId="0">
+      <selection activeCell="F1086" sqref="F1086"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="68.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="39.6">
+    <row r="1" spans="1:15" ht="38.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -44823,78 +44909,162 @@
       <c r="O1084" s="25"/>
     </row>
     <row r="1085" spans="1:15">
-      <c r="A1085" s="3"/>
-      <c r="B1085" s="43"/>
-      <c r="C1085" s="44"/>
-      <c r="D1085" s="44"/>
+      <c r="A1085" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1085" s="43" t="s">
+        <v>896</v>
+      </c>
+      <c r="C1085" s="44" t="s">
+        <v>897</v>
+      </c>
+      <c r="D1085" s="44" t="s">
+        <v>898</v>
+      </c>
       <c r="E1085" s="44"/>
-      <c r="F1085" s="4"/>
-      <c r="G1085" s="4"/>
-      <c r="H1085" s="4"/>
-      <c r="I1085" s="4"/>
-      <c r="J1085" s="4"/>
-      <c r="K1085" s="4"/>
-      <c r="L1085" s="4"/>
-      <c r="M1085" s="5"/>
-      <c r="N1085" s="5"/>
-      <c r="O1085" s="5"/>
     </row>
     <row r="1086" spans="1:15">
-      <c r="A1086" s="3"/>
-      <c r="B1086" s="4"/>
-      <c r="C1086" s="44"/>
-      <c r="D1086" s="44"/>
-      <c r="E1086" s="44"/>
-      <c r="F1086" s="8"/>
-      <c r="G1086" s="4"/>
-      <c r="H1086" s="4"/>
-      <c r="I1086" s="6"/>
-      <c r="J1086" s="4"/>
-      <c r="K1086" s="9"/>
-      <c r="L1086" s="9"/>
+      <c r="A1086" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1086" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="C1086" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1086" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1086" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1086" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1086" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1086" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1086" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1086" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1086" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1086" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="M1086" s="5"/>
       <c r="N1086" s="5"/>
       <c r="O1086" s="5"/>
     </row>
     <row r="1087" spans="1:15">
-      <c r="A1087" s="3"/>
-      <c r="B1087" s="4"/>
-      <c r="C1087" s="44"/>
-      <c r="D1087" s="44"/>
-      <c r="E1087" s="44"/>
-      <c r="F1087" s="8"/>
-      <c r="G1087" s="4"/>
-      <c r="H1087" s="4"/>
-      <c r="I1087" s="6"/>
-      <c r="J1087" s="4"/>
-      <c r="K1087" s="4"/>
-      <c r="L1087" s="9"/>
-      <c r="M1087" s="5"/>
-      <c r="N1087" s="5"/>
-      <c r="O1087" s="5"/>
+      <c r="A1087" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1087" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="C1087" s="44" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1087" s="44">
+        <v>230040</v>
+      </c>
+      <c r="E1087" s="44">
+        <v>2</v>
+      </c>
+      <c r="F1087" s="8">
+        <v>1205206</v>
+      </c>
+      <c r="G1087" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="H1087" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="I1087" s="6">
+        <v>1619733</v>
+      </c>
+      <c r="J1087" s="4">
+        <v>215</v>
+      </c>
+      <c r="K1087" s="9">
+        <v>1453</v>
+      </c>
+      <c r="L1087" s="9">
+        <v>9717.33</v>
+      </c>
+      <c r="M1087" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1087" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1087" s="5" t="s">
+        <v>902</v>
+      </c>
     </row>
     <row r="1088" spans="1:15">
-      <c r="A1088" s="3"/>
-      <c r="B1088" s="4"/>
-      <c r="C1088" s="44"/>
-      <c r="D1088" s="44"/>
-      <c r="E1088" s="44"/>
-      <c r="F1088" s="4"/>
-      <c r="G1088" s="4"/>
-      <c r="H1088" s="4"/>
-      <c r="I1088" s="4"/>
-      <c r="J1088" s="4"/>
-      <c r="K1088" s="4"/>
-      <c r="L1088" s="4"/>
+      <c r="A1088" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1088" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="C1088" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="D1088" s="44">
+        <v>64253083</v>
+      </c>
+      <c r="E1088" s="44">
+        <v>2</v>
+      </c>
+      <c r="F1088" s="8">
+        <v>259099</v>
+      </c>
+      <c r="G1088" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="H1088" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="I1088" s="6">
+        <v>1619914</v>
+      </c>
+      <c r="J1088" s="4">
+        <v>110</v>
+      </c>
+      <c r="K1088" s="4">
+        <v>619.03</v>
+      </c>
+      <c r="L1088" s="9">
+        <v>9531.69</v>
+      </c>
       <c r="M1088" s="5"/>
       <c r="N1088" s="5"/>
       <c r="O1088" s="5"/>
     </row>
     <row r="1089" spans="1:15">
-      <c r="A1089" s="3"/>
-      <c r="B1089" s="4"/>
-      <c r="C1089" s="45"/>
-      <c r="D1089" s="45"/>
+      <c r="A1089" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1089" s="4">
+        <v>2</v>
+      </c>
+      <c r="C1089" s="45">
+        <v>2072.0300000000002</v>
+      </c>
+      <c r="D1089" s="45">
+        <v>19249.02</v>
+      </c>
       <c r="E1089" s="44"/>
       <c r="F1089" s="4"/>
       <c r="G1089" s="4"/>
@@ -44908,10 +45078,18 @@
       <c r="O1089" s="5"/>
     </row>
     <row r="1090" spans="1:15">
-      <c r="A1090" s="3"/>
-      <c r="B1090" s="4"/>
-      <c r="C1090" s="44"/>
-      <c r="D1090" s="44"/>
+      <c r="A1090" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1090" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C1090" s="44" t="s">
+        <v>311</v>
+      </c>
+      <c r="D1090" s="44" t="s">
+        <v>904</v>
+      </c>
       <c r="E1090" s="44"/>
       <c r="F1090" s="4"/>
       <c r="G1090" s="4"/>
@@ -44925,95 +45103,227 @@
       <c r="O1090" s="5"/>
     </row>
     <row r="1091" spans="1:15">
-      <c r="A1091" s="3"/>
-      <c r="B1091" s="4"/>
-      <c r="C1091" s="44"/>
-      <c r="D1091" s="44"/>
-      <c r="E1091" s="44"/>
-      <c r="F1091" s="8"/>
-      <c r="G1091" s="4"/>
-      <c r="H1091" s="4"/>
-      <c r="I1091" s="6"/>
-      <c r="J1091" s="4"/>
-      <c r="K1091" s="4"/>
-      <c r="L1091" s="9"/>
+      <c r="A1091" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1091" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="C1091" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1091" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1091" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1091" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1091" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1091" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1091" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1091" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1091" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1091" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="M1091" s="5"/>
       <c r="N1091" s="5"/>
       <c r="O1091" s="5"/>
     </row>
     <row r="1092" spans="1:15">
-      <c r="A1092" s="3"/>
-      <c r="B1092" s="4"/>
-      <c r="C1092" s="44"/>
-      <c r="D1092" s="44"/>
-      <c r="E1092" s="44"/>
-      <c r="F1092" s="7"/>
-      <c r="G1092" s="4"/>
-      <c r="H1092" s="4"/>
-      <c r="I1092" s="6"/>
-      <c r="J1092" s="4"/>
-      <c r="K1092" s="4"/>
-      <c r="L1092" s="4"/>
-      <c r="M1092" s="5"/>
-      <c r="N1092" s="5"/>
+      <c r="A1092" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1092" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1092" s="44" t="s">
+        <v>905</v>
+      </c>
+      <c r="D1092" s="44">
+        <v>64247022</v>
+      </c>
+      <c r="E1092" s="44">
+        <v>2</v>
+      </c>
+      <c r="F1092" s="8">
+        <v>253394</v>
+      </c>
+      <c r="G1092" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1092" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1092" s="6">
+        <v>1612582</v>
+      </c>
+      <c r="J1092" s="4">
+        <v>243</v>
+      </c>
+      <c r="K1092" s="4">
+        <v>580.01</v>
+      </c>
+      <c r="L1092" s="9">
+        <v>23653.34</v>
+      </c>
+      <c r="M1092" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1092" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="O1092" s="5"/>
     </row>
     <row r="1093" spans="1:15">
-      <c r="A1093" s="3"/>
-      <c r="B1093" s="4"/>
-      <c r="C1093" s="44"/>
-      <c r="D1093" s="44"/>
-      <c r="E1093" s="44"/>
-      <c r="F1093" s="7"/>
-      <c r="G1093" s="4"/>
-      <c r="H1093" s="4"/>
-      <c r="I1093" s="6"/>
-      <c r="J1093" s="4"/>
-      <c r="K1093" s="4"/>
-      <c r="L1093" s="4"/>
+      <c r="A1093" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1093" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="C1093" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1093" s="44">
+        <v>64253083</v>
+      </c>
+      <c r="E1093" s="44">
+        <v>2</v>
+      </c>
+      <c r="F1093" s="7">
+        <v>259143</v>
+      </c>
+      <c r="G1093" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="H1093" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1093" s="6">
+        <v>1619940</v>
+      </c>
+      <c r="J1093" s="4">
+        <v>2</v>
+      </c>
+      <c r="K1093" s="4">
+        <v>4.92</v>
+      </c>
+      <c r="L1093" s="4">
+        <v>293.05</v>
+      </c>
       <c r="M1093" s="5"/>
       <c r="N1093" s="5"/>
       <c r="O1093" s="5"/>
     </row>
     <row r="1094" spans="1:15">
-      <c r="A1094" s="3"/>
-      <c r="B1094" s="4"/>
-      <c r="C1094" s="44"/>
-      <c r="D1094" s="44"/>
-      <c r="E1094" s="44"/>
-      <c r="F1094" s="7"/>
-      <c r="G1094" s="4"/>
-      <c r="H1094" s="4"/>
-      <c r="I1094" s="6"/>
-      <c r="J1094" s="4"/>
-      <c r="K1094" s="4"/>
-      <c r="L1094" s="4"/>
+      <c r="A1094" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1094" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="C1094" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1094" s="44">
+        <v>64253083</v>
+      </c>
+      <c r="E1094" s="44">
+        <v>2</v>
+      </c>
+      <c r="F1094" s="7">
+        <v>259146</v>
+      </c>
+      <c r="G1094" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="H1094" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1094" s="6">
+        <v>1619941</v>
+      </c>
+      <c r="J1094" s="4">
+        <v>4</v>
+      </c>
+      <c r="K1094" s="4">
+        <v>13.98</v>
+      </c>
+      <c r="L1094" s="4">
+        <v>551.83000000000004</v>
+      </c>
       <c r="M1094" s="5"/>
       <c r="N1094" s="5"/>
       <c r="O1094" s="5"/>
     </row>
     <row r="1095" spans="1:15">
-      <c r="A1095" s="3"/>
-      <c r="B1095" s="4"/>
-      <c r="C1095" s="44"/>
-      <c r="D1095" s="44"/>
-      <c r="E1095" s="44"/>
-      <c r="F1095" s="4"/>
-      <c r="G1095" s="4"/>
-      <c r="H1095" s="4"/>
-      <c r="I1095" s="4"/>
-      <c r="J1095" s="4"/>
-      <c r="K1095" s="4"/>
-      <c r="L1095" s="4"/>
+      <c r="A1095" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1095" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="C1095" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1095" s="44">
+        <v>64253083</v>
+      </c>
+      <c r="E1095" s="44">
+        <v>2</v>
+      </c>
+      <c r="F1095" s="7">
+        <v>259150</v>
+      </c>
+      <c r="G1095" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="H1095" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="I1095" s="6">
+        <v>1619939</v>
+      </c>
+      <c r="J1095" s="4">
+        <v>6</v>
+      </c>
+      <c r="K1095" s="4">
+        <v>13.24</v>
+      </c>
+      <c r="L1095" s="4">
+        <v>581.34</v>
+      </c>
       <c r="M1095" s="5"/>
       <c r="N1095" s="5"/>
       <c r="O1095" s="5"/>
     </row>
     <row r="1096" spans="1:15">
-      <c r="A1096" s="3"/>
-      <c r="B1096" s="4"/>
-      <c r="C1096" s="44"/>
-      <c r="D1096" s="45"/>
+      <c r="A1096" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1096" s="4">
+        <v>4</v>
+      </c>
+      <c r="C1096" s="44">
+        <v>612.15</v>
+      </c>
+      <c r="D1096" s="45">
+        <v>25079.56</v>
+      </c>
       <c r="E1096" s="44"/>
       <c r="F1096" s="4"/>
       <c r="G1096" s="4"/>
@@ -45027,10 +45337,18 @@
       <c r="O1096" s="5"/>
     </row>
     <row r="1097" spans="1:15">
-      <c r="A1097" s="3"/>
-      <c r="B1097" s="4"/>
-      <c r="C1097" s="44"/>
-      <c r="D1097" s="44"/>
+      <c r="A1097" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1097" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="C1097" s="44" t="s">
+        <v>715</v>
+      </c>
+      <c r="D1097" s="44" t="s">
+        <v>906</v>
+      </c>
       <c r="E1097" s="44"/>
       <c r="F1097" s="4"/>
       <c r="G1097" s="4"/>
@@ -45044,44 +45362,102 @@
       <c r="O1097" s="5"/>
     </row>
     <row r="1098" spans="1:15">
-      <c r="A1098" s="3"/>
-      <c r="B1098" s="4"/>
-      <c r="C1098" s="44"/>
-      <c r="D1098" s="44"/>
-      <c r="E1098" s="44"/>
-      <c r="F1098" s="8"/>
-      <c r="G1098" s="4"/>
-      <c r="H1098" s="4"/>
-      <c r="I1098" s="6"/>
-      <c r="J1098" s="4"/>
-      <c r="K1098" s="9"/>
-      <c r="L1098" s="9"/>
+      <c r="A1098" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1098" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1098" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1098" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1098" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1098" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1098" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1098" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1098" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1098" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1098" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1098" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="M1098" s="5"/>
       <c r="N1098" s="5"/>
       <c r="O1098" s="5"/>
     </row>
     <row r="1099" spans="1:15">
-      <c r="A1099" s="3"/>
-      <c r="B1099" s="4"/>
-      <c r="C1099" s="44"/>
-      <c r="D1099" s="44"/>
-      <c r="E1099" s="44"/>
-      <c r="F1099" s="4"/>
-      <c r="G1099" s="4"/>
-      <c r="H1099" s="4"/>
-      <c r="I1099" s="4"/>
-      <c r="J1099" s="4"/>
-      <c r="K1099" s="4"/>
-      <c r="L1099" s="4"/>
-      <c r="M1099" s="5"/>
+      <c r="A1099" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1099" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1099" s="44" t="s">
+        <v>531</v>
+      </c>
+      <c r="D1099" s="44">
+        <v>64248104</v>
+      </c>
+      <c r="E1099" s="44">
+        <v>2</v>
+      </c>
+      <c r="F1099" s="8">
+        <v>254304</v>
+      </c>
+      <c r="G1099" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1099" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1099" s="6">
+        <v>1613845</v>
+      </c>
+      <c r="J1099" s="4">
+        <v>289</v>
+      </c>
+      <c r="K1099" s="9">
+        <v>1266.5899999999999</v>
+      </c>
+      <c r="L1099" s="9">
+        <v>29626.82</v>
+      </c>
+      <c r="M1099" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="N1099" s="5"/>
       <c r="O1099" s="5"/>
     </row>
     <row r="1100" spans="1:15">
-      <c r="A1100" s="3"/>
-      <c r="B1100" s="4"/>
-      <c r="C1100" s="45"/>
-      <c r="D1100" s="45"/>
+      <c r="A1100" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1100" s="4">
+        <v>1</v>
+      </c>
+      <c r="C1100" s="45">
+        <v>1266.5899999999999</v>
+      </c>
+      <c r="D1100" s="45">
+        <v>29626.82</v>
+      </c>
       <c r="E1100" s="44"/>
       <c r="F1100" s="4"/>
       <c r="G1100" s="4"/>
@@ -45095,10 +45471,18 @@
       <c r="O1100" s="5"/>
     </row>
     <row r="1101" spans="1:15">
-      <c r="A1101" s="3"/>
-      <c r="B1101" s="4"/>
-      <c r="C1101" s="44"/>
-      <c r="D1101" s="44"/>
+      <c r="A1101" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1101" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1101" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1101" s="44" t="s">
+        <v>907</v>
+      </c>
       <c r="E1101" s="44"/>
       <c r="F1101" s="4"/>
       <c r="G1101" s="4"/>
@@ -45112,112 +45496,274 @@
       <c r="O1101" s="5"/>
     </row>
     <row r="1102" spans="1:15">
-      <c r="A1102" s="3"/>
-      <c r="B1102" s="4"/>
-      <c r="C1102" s="44"/>
-      <c r="D1102" s="44"/>
-      <c r="E1102" s="44"/>
-      <c r="F1102" s="8"/>
-      <c r="G1102" s="4"/>
-      <c r="H1102" s="4"/>
-      <c r="I1102" s="6"/>
-      <c r="J1102" s="4"/>
-      <c r="K1102" s="4"/>
-      <c r="L1102" s="9"/>
+      <c r="A1102" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1102" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1102" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1102" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1102" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1102" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1102" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1102" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1102" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1102" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1102" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1102" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="M1102" s="5"/>
       <c r="N1102" s="5"/>
       <c r="O1102" s="5"/>
     </row>
     <row r="1103" spans="1:15">
-      <c r="A1103" s="3"/>
-      <c r="B1103" s="4"/>
-      <c r="C1103" s="44"/>
-      <c r="D1103" s="44"/>
-      <c r="E1103" s="44"/>
-      <c r="F1103" s="8"/>
-      <c r="G1103" s="4"/>
-      <c r="H1103" s="4"/>
-      <c r="I1103" s="6"/>
-      <c r="J1103" s="4"/>
-      <c r="K1103" s="4"/>
-      <c r="L1103" s="4"/>
-      <c r="M1103" s="5"/>
+      <c r="A1103" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1103" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="C1103" s="44" t="s">
+        <v>767</v>
+      </c>
+      <c r="D1103" s="44">
+        <v>64253083</v>
+      </c>
+      <c r="E1103" s="44">
+        <v>2</v>
+      </c>
+      <c r="F1103" s="8">
+        <v>259108</v>
+      </c>
+      <c r="G1103" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="H1103" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1103" s="6">
+        <v>1619938</v>
+      </c>
+      <c r="J1103" s="4">
+        <v>105</v>
+      </c>
+      <c r="K1103" s="4">
+        <v>427.46</v>
+      </c>
+      <c r="L1103" s="9">
+        <v>11097.42</v>
+      </c>
+      <c r="M1103" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="N1103" s="5"/>
       <c r="O1103" s="5"/>
     </row>
     <row r="1104" spans="1:15">
-      <c r="A1104" s="3"/>
-      <c r="B1104" s="4"/>
-      <c r="C1104" s="44"/>
-      <c r="D1104" s="44"/>
-      <c r="E1104" s="44"/>
-      <c r="F1104" s="8"/>
-      <c r="G1104" s="4"/>
-      <c r="H1104" s="4"/>
-      <c r="I1104" s="6"/>
-      <c r="J1104" s="4"/>
-      <c r="K1104" s="4"/>
-      <c r="L1104" s="4"/>
-      <c r="M1104" s="5"/>
+      <c r="A1104" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1104" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="C1104" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1104" s="44">
+        <v>64253083</v>
+      </c>
+      <c r="E1104" s="44">
+        <v>2</v>
+      </c>
+      <c r="F1104" s="8">
+        <v>259137</v>
+      </c>
+      <c r="G1104" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1104" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1104" s="6">
+        <v>1619933</v>
+      </c>
+      <c r="J1104" s="4">
+        <v>2</v>
+      </c>
+      <c r="K1104" s="4">
+        <v>4.26</v>
+      </c>
+      <c r="L1104" s="4">
+        <v>198.98</v>
+      </c>
+      <c r="M1104" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="N1104" s="5"/>
       <c r="O1104" s="5"/>
     </row>
     <row r="1105" spans="1:15">
-      <c r="A1105" s="3"/>
-      <c r="B1105" s="4"/>
-      <c r="C1105" s="44"/>
-      <c r="D1105" s="44"/>
-      <c r="E1105" s="44"/>
-      <c r="F1105" s="8"/>
-      <c r="G1105" s="4"/>
-      <c r="H1105" s="4"/>
-      <c r="I1105" s="6"/>
-      <c r="J1105" s="4"/>
-      <c r="K1105" s="4"/>
-      <c r="L1105" s="4"/>
-      <c r="M1105" s="5"/>
+      <c r="A1105" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1105" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="C1105" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1105" s="44">
+        <v>64253083</v>
+      </c>
+      <c r="E1105" s="44">
+        <v>2</v>
+      </c>
+      <c r="F1105" s="8">
+        <v>259138</v>
+      </c>
+      <c r="G1105" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1105" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1105" s="6">
+        <v>1619934</v>
+      </c>
+      <c r="J1105" s="4">
+        <v>5</v>
+      </c>
+      <c r="K1105" s="4">
+        <v>12.3</v>
+      </c>
+      <c r="L1105" s="4">
+        <v>732.62</v>
+      </c>
+      <c r="M1105" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="N1105" s="5"/>
       <c r="O1105" s="5"/>
     </row>
     <row r="1106" spans="1:15">
-      <c r="A1106" s="3"/>
-      <c r="B1106" s="4"/>
-      <c r="C1106" s="44"/>
-      <c r="D1106" s="44"/>
-      <c r="E1106" s="44"/>
-      <c r="F1106" s="8"/>
-      <c r="G1106" s="4"/>
-      <c r="H1106" s="4"/>
-      <c r="I1106" s="6"/>
-      <c r="J1106" s="4"/>
-      <c r="K1106" s="4"/>
-      <c r="L1106" s="4"/>
-      <c r="M1106" s="5"/>
+      <c r="A1106" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1106" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="C1106" s="44" t="s">
+        <v>908</v>
+      </c>
+      <c r="D1106" s="44">
+        <v>64253083</v>
+      </c>
+      <c r="E1106" s="44">
+        <v>2</v>
+      </c>
+      <c r="F1106" s="8">
+        <v>259145</v>
+      </c>
+      <c r="G1106" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1106" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1106" s="6">
+        <v>1619929</v>
+      </c>
+      <c r="J1106" s="4">
+        <v>7</v>
+      </c>
+      <c r="K1106" s="4">
+        <v>15.05</v>
+      </c>
+      <c r="L1106" s="4">
+        <v>657.33</v>
+      </c>
+      <c r="M1106" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="N1106" s="5"/>
       <c r="O1106" s="5"/>
     </row>
     <row r="1107" spans="1:15">
-      <c r="A1107" s="3"/>
-      <c r="B1107" s="4"/>
-      <c r="C1107" s="44"/>
-      <c r="D1107" s="44"/>
-      <c r="E1107" s="44"/>
-      <c r="F1107" s="4"/>
-      <c r="G1107" s="4"/>
-      <c r="H1107" s="4"/>
-      <c r="I1107" s="4"/>
-      <c r="J1107" s="4"/>
-      <c r="K1107" s="4"/>
-      <c r="L1107" s="4"/>
-      <c r="M1107" s="5"/>
+      <c r="A1107" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1107" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="C1107" s="44" t="s">
+        <v>908</v>
+      </c>
+      <c r="D1107" s="44">
+        <v>64253083</v>
+      </c>
+      <c r="E1107" s="44">
+        <v>2</v>
+      </c>
+      <c r="F1107" s="8">
+        <v>259149</v>
+      </c>
+      <c r="G1107" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1107" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1107" s="6">
+        <v>1619930</v>
+      </c>
+      <c r="J1107" s="4">
+        <v>1</v>
+      </c>
+      <c r="K1107" s="4">
+        <v>6.3</v>
+      </c>
+      <c r="L1107" s="4">
+        <v>112.26</v>
+      </c>
+      <c r="M1107" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="N1107" s="5"/>
       <c r="O1107" s="5"/>
     </row>
     <row r="1108" spans="1:15">
-      <c r="A1108" s="3"/>
-      <c r="B1108" s="4"/>
-      <c r="C1108" s="44"/>
-      <c r="D1108" s="45"/>
+      <c r="A1108" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1108" s="4">
+        <v>5</v>
+      </c>
+      <c r="C1108" s="44">
+        <v>465.37</v>
+      </c>
+      <c r="D1108" s="45">
+        <v>12798.61</v>
+      </c>
       <c r="E1108" s="44"/>
       <c r="F1108" s="4"/>
       <c r="G1108" s="4"/>
@@ -45231,10 +45777,18 @@
       <c r="O1108" s="5"/>
     </row>
     <row r="1109" spans="1:15">
-      <c r="A1109" s="3"/>
-      <c r="B1109" s="43"/>
-      <c r="C1109" s="44"/>
-      <c r="D1109" s="44"/>
+      <c r="A1109" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1109" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1109" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1109" s="44" t="s">
+        <v>909</v>
+      </c>
       <c r="E1109" s="44"/>
       <c r="F1109" s="4"/>
       <c r="G1109" s="4"/>
@@ -45248,78 +45802,188 @@
       <c r="O1109" s="5"/>
     </row>
     <row r="1110" spans="1:15">
-      <c r="A1110" s="3"/>
-      <c r="B1110" s="4"/>
-      <c r="C1110" s="44"/>
-      <c r="D1110" s="44"/>
-      <c r="E1110" s="44"/>
-      <c r="F1110" s="8"/>
-      <c r="G1110" s="4"/>
-      <c r="H1110" s="4"/>
-      <c r="I1110" s="6"/>
-      <c r="J1110" s="4"/>
-      <c r="K1110" s="4"/>
-      <c r="L1110" s="9"/>
+      <c r="A1110" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1110" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1110" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1110" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1110" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1110" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1110" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1110" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1110" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1110" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1110" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1110" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="M1110" s="5"/>
       <c r="N1110" s="5"/>
       <c r="O1110" s="5"/>
     </row>
     <row r="1111" spans="1:15">
-      <c r="A1111" s="3"/>
-      <c r="B1111" s="4"/>
-      <c r="C1111" s="44"/>
-      <c r="D1111" s="44"/>
-      <c r="E1111" s="44"/>
-      <c r="F1111" s="8"/>
-      <c r="G1111" s="4"/>
-      <c r="H1111" s="4"/>
-      <c r="I1111" s="6"/>
-      <c r="J1111" s="4"/>
-      <c r="K1111" s="4"/>
-      <c r="L1111" s="4"/>
-      <c r="M1111" s="5"/>
+      <c r="A1111" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1111" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="C1111" s="44" t="s">
+        <v>721</v>
+      </c>
+      <c r="D1111" s="44">
+        <v>64253083</v>
+      </c>
+      <c r="E1111" s="44">
+        <v>2</v>
+      </c>
+      <c r="F1111" s="8">
+        <v>259106</v>
+      </c>
+      <c r="G1111" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="H1111" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1111" s="6">
+        <v>1619916</v>
+      </c>
+      <c r="J1111" s="4">
+        <v>74</v>
+      </c>
+      <c r="K1111" s="4">
+        <v>292.3</v>
+      </c>
+      <c r="L1111" s="9">
+        <v>6506.68</v>
+      </c>
+      <c r="M1111" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="N1111" s="5"/>
       <c r="O1111" s="5"/>
     </row>
     <row r="1112" spans="1:15">
-      <c r="A1112" s="3"/>
-      <c r="B1112" s="4"/>
-      <c r="C1112" s="44"/>
-      <c r="D1112" s="44"/>
-      <c r="E1112" s="44"/>
-      <c r="F1112" s="8"/>
-      <c r="G1112" s="4"/>
-      <c r="H1112" s="4"/>
-      <c r="I1112" s="6"/>
-      <c r="J1112" s="4"/>
-      <c r="K1112" s="4"/>
-      <c r="L1112" s="4"/>
-      <c r="M1112" s="5"/>
+      <c r="A1112" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1112" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="C1112" s="44" t="s">
+        <v>910</v>
+      </c>
+      <c r="D1112" s="44">
+        <v>64253083</v>
+      </c>
+      <c r="E1112" s="44">
+        <v>2</v>
+      </c>
+      <c r="F1112" s="8">
+        <v>259142</v>
+      </c>
+      <c r="G1112" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1112" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1112" s="6">
+        <v>1619923</v>
+      </c>
+      <c r="J1112" s="4">
+        <v>5</v>
+      </c>
+      <c r="K1112" s="4">
+        <v>11.83</v>
+      </c>
+      <c r="L1112" s="4">
+        <v>636.25</v>
+      </c>
+      <c r="M1112" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="N1112" s="5"/>
       <c r="O1112" s="5"/>
     </row>
     <row r="1113" spans="1:15">
-      <c r="A1113" s="3"/>
-      <c r="B1113" s="4"/>
-      <c r="C1113" s="44"/>
-      <c r="D1113" s="44"/>
-      <c r="E1113" s="44"/>
-      <c r="F1113" s="4"/>
-      <c r="G1113" s="4"/>
-      <c r="H1113" s="4"/>
-      <c r="I1113" s="4"/>
-      <c r="J1113" s="4"/>
-      <c r="K1113" s="4"/>
-      <c r="L1113" s="4"/>
-      <c r="M1113" s="5"/>
+      <c r="A1113" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1113" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="C1113" s="44" t="s">
+        <v>910</v>
+      </c>
+      <c r="D1113" s="44">
+        <v>64253083</v>
+      </c>
+      <c r="E1113" s="44">
+        <v>2</v>
+      </c>
+      <c r="F1113" s="8">
+        <v>259148</v>
+      </c>
+      <c r="G1113" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1113" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1113" s="6">
+        <v>1619924</v>
+      </c>
+      <c r="J1113" s="4">
+        <v>3</v>
+      </c>
+      <c r="K1113" s="4">
+        <v>11.05</v>
+      </c>
+      <c r="L1113" s="4">
+        <v>386.98</v>
+      </c>
+      <c r="M1113" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="N1113" s="5"/>
       <c r="O1113" s="5"/>
     </row>
     <row r="1114" spans="1:15">
-      <c r="A1114" s="3"/>
-      <c r="B1114" s="4"/>
-      <c r="C1114" s="44"/>
-      <c r="D1114" s="45"/>
+      <c r="A1114" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1114" s="4">
+        <v>3</v>
+      </c>
+      <c r="C1114" s="44">
+        <v>315.17</v>
+      </c>
+      <c r="D1114" s="45">
+        <v>7529.91</v>
+      </c>
       <c r="E1114" s="44"/>
       <c r="F1114" s="4"/>
       <c r="G1114" s="4"/>
@@ -45333,10 +45997,18 @@
       <c r="O1114" s="5"/>
     </row>
     <row r="1115" spans="1:15">
-      <c r="A1115" s="3"/>
-      <c r="B1115" s="43"/>
-      <c r="C1115" s="44"/>
-      <c r="D1115" s="44"/>
+      <c r="A1115" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1115" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1115" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1115" s="44" t="s">
+        <v>911</v>
+      </c>
       <c r="E1115" s="44"/>
       <c r="F1115" s="4"/>
       <c r="G1115" s="4"/>
@@ -45350,44 +46022,102 @@
       <c r="O1115" s="5"/>
     </row>
     <row r="1116" spans="1:15">
-      <c r="A1116" s="3"/>
-      <c r="B1116" s="4"/>
-      <c r="C1116" s="44"/>
-      <c r="D1116" s="44"/>
-      <c r="E1116" s="44"/>
-      <c r="F1116" s="8"/>
-      <c r="G1116" s="4"/>
-      <c r="H1116" s="4"/>
-      <c r="I1116" s="6"/>
-      <c r="J1116" s="4"/>
-      <c r="K1116" s="4"/>
-      <c r="L1116" s="9"/>
+      <c r="A1116" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1116" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1116" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1116" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1116" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1116" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1116" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1116" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1116" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1116" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1116" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1116" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="M1116" s="5"/>
       <c r="N1116" s="5"/>
       <c r="O1116" s="5"/>
     </row>
     <row r="1117" spans="1:15">
-      <c r="A1117" s="3"/>
-      <c r="B1117" s="4"/>
-      <c r="C1117" s="44"/>
-      <c r="D1117" s="44"/>
-      <c r="E1117" s="44"/>
-      <c r="F1117" s="4"/>
-      <c r="G1117" s="4"/>
-      <c r="H1117" s="4"/>
-      <c r="I1117" s="4"/>
-      <c r="J1117" s="4"/>
-      <c r="K1117" s="4"/>
-      <c r="L1117" s="4"/>
-      <c r="M1117" s="5"/>
+      <c r="A1117" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1117" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="C1117" s="44" t="s">
+        <v>717</v>
+      </c>
+      <c r="D1117" s="44">
+        <v>64253083</v>
+      </c>
+      <c r="E1117" s="44">
+        <v>2</v>
+      </c>
+      <c r="F1117" s="8">
+        <v>259104</v>
+      </c>
+      <c r="G1117" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="H1117" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1117" s="6">
+        <v>1619911</v>
+      </c>
+      <c r="J1117" s="4">
+        <v>107</v>
+      </c>
+      <c r="K1117" s="4">
+        <v>509.67</v>
+      </c>
+      <c r="L1117" s="9">
+        <v>10534.85</v>
+      </c>
+      <c r="M1117" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="N1117" s="5"/>
       <c r="O1117" s="5"/>
     </row>
     <row r="1118" spans="1:15">
-      <c r="A1118" s="3"/>
-      <c r="B1118" s="4"/>
-      <c r="C1118" s="44"/>
-      <c r="D1118" s="45"/>
+      <c r="A1118" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1118" s="4">
+        <v>1</v>
+      </c>
+      <c r="C1118" s="44">
+        <v>509.67</v>
+      </c>
+      <c r="D1118" s="45">
+        <v>10534.85</v>
+      </c>
       <c r="E1118" s="44"/>
       <c r="F1118" s="4"/>
       <c r="G1118" s="4"/>
@@ -45401,10 +46131,18 @@
       <c r="O1118" s="5"/>
     </row>
     <row r="1119" spans="1:15">
-      <c r="A1119" s="3"/>
-      <c r="B1119" s="43"/>
-      <c r="C1119" s="44"/>
-      <c r="D1119" s="44"/>
+      <c r="A1119" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1119" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1119" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1119" s="44" t="s">
+        <v>912</v>
+      </c>
       <c r="E1119" s="44"/>
       <c r="F1119" s="4"/>
       <c r="G1119" s="4"/>
@@ -45418,44 +46156,102 @@
       <c r="O1119" s="5"/>
     </row>
     <row r="1120" spans="1:15">
-      <c r="A1120" s="3"/>
-      <c r="B1120" s="4"/>
-      <c r="C1120" s="44"/>
-      <c r="D1120" s="44"/>
-      <c r="E1120" s="44"/>
-      <c r="F1120" s="8"/>
-      <c r="G1120" s="4"/>
-      <c r="H1120" s="4"/>
-      <c r="I1120" s="6"/>
-      <c r="J1120" s="4"/>
-      <c r="K1120" s="4"/>
-      <c r="L1120" s="9"/>
+      <c r="A1120" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1120" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1120" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1120" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1120" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1120" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1120" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1120" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1120" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1120" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1120" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1120" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="M1120" s="5"/>
       <c r="N1120" s="5"/>
       <c r="O1120" s="5"/>
     </row>
     <row r="1121" spans="1:15">
-      <c r="A1121" s="3"/>
-      <c r="B1121" s="4"/>
-      <c r="C1121" s="44"/>
-      <c r="D1121" s="44"/>
-      <c r="E1121" s="44"/>
-      <c r="F1121" s="4"/>
-      <c r="G1121" s="4"/>
-      <c r="H1121" s="4"/>
-      <c r="I1121" s="4"/>
-      <c r="J1121" s="4"/>
-      <c r="K1121" s="4"/>
-      <c r="L1121" s="4"/>
-      <c r="M1121" s="5"/>
+      <c r="A1121" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1121" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="C1121" s="44" t="s">
+        <v>723</v>
+      </c>
+      <c r="D1121" s="44">
+        <v>64253083</v>
+      </c>
+      <c r="E1121" s="44">
+        <v>2</v>
+      </c>
+      <c r="F1121" s="8">
+        <v>259102</v>
+      </c>
+      <c r="G1121" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="H1121" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1121" s="6">
+        <v>1619915</v>
+      </c>
+      <c r="J1121" s="4">
+        <v>127</v>
+      </c>
+      <c r="K1121" s="4">
+        <v>558.76</v>
+      </c>
+      <c r="L1121" s="9">
+        <v>11117.4</v>
+      </c>
+      <c r="M1121" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="N1121" s="5"/>
       <c r="O1121" s="5"/>
     </row>
     <row r="1122" spans="1:15">
-      <c r="A1122" s="3"/>
-      <c r="B1122" s="4"/>
-      <c r="C1122" s="44"/>
-      <c r="D1122" s="45"/>
+      <c r="A1122" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1122" s="4">
+        <v>1</v>
+      </c>
+      <c r="C1122" s="44">
+        <v>558.76</v>
+      </c>
+      <c r="D1122" s="45">
+        <v>11117.4</v>
+      </c>
       <c r="E1122" s="44"/>
       <c r="F1122" s="4"/>
       <c r="G1122" s="4"/>
@@ -45469,10 +46265,18 @@
       <c r="O1122" s="5"/>
     </row>
     <row r="1123" spans="1:15">
-      <c r="A1123" s="3"/>
-      <c r="B1123" s="4"/>
-      <c r="C1123" s="44"/>
-      <c r="D1123" s="44"/>
+      <c r="A1123" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1123" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1123" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1123" s="44" t="s">
+        <v>913</v>
+      </c>
       <c r="E1123" s="44"/>
       <c r="F1123" s="4"/>
       <c r="G1123" s="4"/>
@@ -45486,146 +46290,368 @@
       <c r="O1123" s="5"/>
     </row>
     <row r="1124" spans="1:15">
-      <c r="A1124" s="3"/>
-      <c r="B1124" s="4"/>
-      <c r="C1124" s="44"/>
-      <c r="D1124" s="44"/>
-      <c r="E1124" s="44"/>
-      <c r="F1124" s="8"/>
-      <c r="G1124" s="4"/>
-      <c r="H1124" s="4"/>
-      <c r="I1124" s="6"/>
-      <c r="J1124" s="4"/>
-      <c r="K1124" s="4"/>
-      <c r="L1124" s="9"/>
+      <c r="A1124" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1124" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="C1124" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1124" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1124" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1124" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1124" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1124" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1124" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1124" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1124" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1124" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="M1124" s="5"/>
       <c r="N1124" s="5"/>
       <c r="O1124" s="5"/>
     </row>
     <row r="1125" spans="1:15">
-      <c r="A1125" s="3"/>
-      <c r="B1125" s="4"/>
-      <c r="C1125" s="44"/>
-      <c r="D1125" s="44"/>
-      <c r="E1125" s="44"/>
-      <c r="F1125" s="8"/>
-      <c r="G1125" s="4"/>
-      <c r="H1125" s="4"/>
-      <c r="I1125" s="6"/>
-      <c r="J1125" s="4"/>
-      <c r="K1125" s="4"/>
-      <c r="L1125" s="9"/>
-      <c r="M1125" s="5"/>
-      <c r="N1125" s="5"/>
-      <c r="O1125" s="5"/>
+      <c r="A1125" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1125" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1125" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1125" s="44">
+        <v>228270</v>
+      </c>
+      <c r="E1125" s="44">
+        <v>2</v>
+      </c>
+      <c r="F1125" s="8">
+        <v>1196648</v>
+      </c>
+      <c r="G1125" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1125" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1125" s="6">
+        <v>1620580</v>
+      </c>
+      <c r="J1125" s="4">
+        <v>84</v>
+      </c>
+      <c r="K1125" s="4">
+        <v>526.79999999999995</v>
+      </c>
+      <c r="L1125" s="9">
+        <v>3501.54</v>
+      </c>
+      <c r="M1125" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1125" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1125" s="5" t="s">
+        <v>902</v>
+      </c>
     </row>
     <row r="1126" spans="1:15">
-      <c r="A1126" s="3"/>
-      <c r="B1126" s="4"/>
-      <c r="C1126" s="44"/>
-      <c r="D1126" s="44"/>
-      <c r="E1126" s="44"/>
-      <c r="F1126" s="8"/>
-      <c r="G1126" s="4"/>
-      <c r="H1126" s="4"/>
-      <c r="I1126" s="6"/>
-      <c r="J1126" s="4"/>
-      <c r="K1126" s="4"/>
-      <c r="L1126" s="4"/>
-      <c r="M1126" s="5"/>
-      <c r="N1126" s="5"/>
-      <c r="O1126" s="5"/>
+      <c r="A1126" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1126" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="C1126" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1126" s="44">
+        <v>228660</v>
+      </c>
+      <c r="E1126" s="44">
+        <v>2</v>
+      </c>
+      <c r="F1126" s="8">
+        <v>1198427</v>
+      </c>
+      <c r="G1126" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1126" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1126" s="6">
+        <v>1602294</v>
+      </c>
+      <c r="J1126" s="4">
+        <v>106</v>
+      </c>
+      <c r="K1126" s="4">
+        <v>332.44</v>
+      </c>
+      <c r="L1126" s="9">
+        <v>2667.84</v>
+      </c>
+      <c r="M1126" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1126" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1126" s="5" t="s">
+        <v>902</v>
+      </c>
     </row>
     <row r="1127" spans="1:15">
-      <c r="A1127" s="3"/>
-      <c r="B1127" s="4"/>
-      <c r="C1127" s="44"/>
-      <c r="D1127" s="44"/>
-      <c r="E1127" s="44"/>
-      <c r="F1127" s="8"/>
-      <c r="G1127" s="4"/>
-      <c r="H1127" s="4"/>
-      <c r="I1127" s="6"/>
-      <c r="J1127" s="4"/>
-      <c r="K1127" s="4"/>
-      <c r="L1127" s="9"/>
-      <c r="M1127" s="5"/>
+      <c r="A1127" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1127" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="C1127" s="44" t="s">
+        <v>915</v>
+      </c>
+      <c r="D1127" s="44">
+        <v>64253083</v>
+      </c>
+      <c r="E1127" s="44">
+        <v>2</v>
+      </c>
+      <c r="F1127" s="8">
+        <v>259129</v>
+      </c>
+      <c r="G1127" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="H1127" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1127" s="6">
+        <v>1619925</v>
+      </c>
+      <c r="J1127" s="4">
+        <v>7</v>
+      </c>
+      <c r="K1127" s="4">
+        <v>15.81</v>
+      </c>
+      <c r="L1127" s="4">
+        <v>736.56</v>
+      </c>
+      <c r="M1127" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="N1127" s="5"/>
       <c r="O1127" s="5"/>
     </row>
     <row r="1128" spans="1:15">
-      <c r="A1128" s="3"/>
-      <c r="B1128" s="4"/>
-      <c r="C1128" s="44"/>
-      <c r="D1128" s="44"/>
-      <c r="E1128" s="44"/>
-      <c r="F1128" s="8"/>
-      <c r="G1128" s="4"/>
-      <c r="H1128" s="4"/>
-      <c r="I1128" s="6"/>
-      <c r="J1128" s="4"/>
-      <c r="K1128" s="4"/>
-      <c r="L1128" s="9"/>
-      <c r="M1128" s="5"/>
+      <c r="A1128" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1128" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="C1128" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1128" s="44">
+        <v>64253083</v>
+      </c>
+      <c r="E1128" s="44">
+        <v>2</v>
+      </c>
+      <c r="F1128" s="8">
+        <v>259131</v>
+      </c>
+      <c r="G1128" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1128" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1128" s="6">
+        <v>1619951</v>
+      </c>
+      <c r="J1128" s="4">
+        <v>12</v>
+      </c>
+      <c r="K1128" s="4">
+        <v>36.94</v>
+      </c>
+      <c r="L1128" s="9">
+        <v>1522.66</v>
+      </c>
+      <c r="M1128" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="N1128" s="5"/>
       <c r="O1128" s="5"/>
     </row>
     <row r="1129" spans="1:15">
-      <c r="A1129" s="3"/>
-      <c r="B1129" s="4"/>
-      <c r="C1129" s="44"/>
-      <c r="D1129" s="44"/>
-      <c r="E1129" s="44"/>
-      <c r="F1129" s="8"/>
-      <c r="G1129" s="4"/>
-      <c r="H1129" s="4"/>
-      <c r="I1129" s="6"/>
-      <c r="J1129" s="4"/>
-      <c r="K1129" s="4"/>
-      <c r="L1129" s="4"/>
-      <c r="M1129" s="5"/>
+      <c r="A1129" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1129" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="C1129" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1129" s="44">
+        <v>64253083</v>
+      </c>
+      <c r="E1129" s="44">
+        <v>2</v>
+      </c>
+      <c r="F1129" s="8">
+        <v>259132</v>
+      </c>
+      <c r="G1129" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1129" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1129" s="6">
+        <v>1619909</v>
+      </c>
+      <c r="J1129" s="4">
+        <v>15</v>
+      </c>
+      <c r="K1129" s="4">
+        <v>32.67</v>
+      </c>
+      <c r="L1129" s="9">
+        <v>1330.56</v>
+      </c>
+      <c r="M1129" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="N1129" s="5"/>
       <c r="O1129" s="5"/>
     </row>
     <row r="1130" spans="1:15">
-      <c r="A1130" s="3"/>
-      <c r="B1130" s="4"/>
-      <c r="C1130" s="44"/>
-      <c r="D1130" s="44"/>
-      <c r="E1130" s="44"/>
-      <c r="F1130" s="8"/>
-      <c r="G1130" s="4"/>
-      <c r="H1130" s="4"/>
-      <c r="I1130" s="6"/>
-      <c r="J1130" s="4"/>
-      <c r="K1130" s="4"/>
-      <c r="L1130" s="4"/>
-      <c r="M1130" s="5"/>
+      <c r="A1130" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1130" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="C1130" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1130" s="44">
+        <v>64253083</v>
+      </c>
+      <c r="E1130" s="44">
+        <v>2</v>
+      </c>
+      <c r="F1130" s="8">
+        <v>259134</v>
+      </c>
+      <c r="G1130" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1130" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1130" s="6">
+        <v>1619910</v>
+      </c>
+      <c r="J1130" s="4">
+        <v>2</v>
+      </c>
+      <c r="K1130" s="4">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="L1130" s="4">
+        <v>223.54</v>
+      </c>
+      <c r="M1130" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="N1130" s="5"/>
       <c r="O1130" s="5"/>
     </row>
     <row r="1131" spans="1:15">
-      <c r="A1131" s="3"/>
-      <c r="B1131" s="4"/>
-      <c r="C1131" s="44"/>
-      <c r="D1131" s="44"/>
-      <c r="E1131" s="44"/>
-      <c r="F1131" s="4"/>
-      <c r="G1131" s="4"/>
-      <c r="H1131" s="4"/>
-      <c r="I1131" s="4"/>
-      <c r="J1131" s="4"/>
-      <c r="K1131" s="4"/>
-      <c r="L1131" s="4"/>
-      <c r="M1131" s="5"/>
+      <c r="A1131" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1131" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="C1131" s="44" t="s">
+        <v>915</v>
+      </c>
+      <c r="D1131" s="44">
+        <v>64253083</v>
+      </c>
+      <c r="E1131" s="44">
+        <v>2</v>
+      </c>
+      <c r="F1131" s="8">
+        <v>259135</v>
+      </c>
+      <c r="G1131" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="H1131" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1131" s="6">
+        <v>1619926</v>
+      </c>
+      <c r="J1131" s="4">
+        <v>2</v>
+      </c>
+      <c r="K1131" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="L1131" s="4">
+        <v>190.96</v>
+      </c>
+      <c r="M1131" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="N1131" s="5"/>
       <c r="O1131" s="5"/>
     </row>
     <row r="1132" spans="1:15">
-      <c r="A1132" s="3"/>
-      <c r="B1132" s="4"/>
-      <c r="C1132" s="44"/>
-      <c r="D1132" s="45"/>
+      <c r="A1132" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1132" s="4">
+        <v>7</v>
+      </c>
+      <c r="C1132" s="44">
+        <v>957.38</v>
+      </c>
+      <c r="D1132" s="45">
+        <v>10173.66</v>
+      </c>
       <c r="E1132" s="44"/>
       <c r="F1132" s="4"/>
       <c r="G1132" s="4"/>
@@ -45639,10 +46665,18 @@
       <c r="O1132" s="5"/>
     </row>
     <row r="1133" spans="1:15">
-      <c r="A1133" s="3"/>
-      <c r="B1133" s="4"/>
-      <c r="C1133" s="44"/>
-      <c r="D1133" s="44"/>
+      <c r="A1133" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1133" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C1133" s="44" t="s">
+        <v>497</v>
+      </c>
+      <c r="D1133" s="44" t="s">
+        <v>916</v>
+      </c>
       <c r="E1133" s="44"/>
       <c r="F1133" s="4"/>
       <c r="G1133" s="4"/>
@@ -45656,129 +46690,329 @@
       <c r="O1133" s="5"/>
     </row>
     <row r="1134" spans="1:15">
-      <c r="A1134" s="3"/>
-      <c r="B1134" s="4"/>
-      <c r="C1134" s="44"/>
-      <c r="D1134" s="44"/>
-      <c r="E1134" s="44"/>
-      <c r="F1134" s="8"/>
-      <c r="G1134" s="4"/>
-      <c r="H1134" s="4"/>
-      <c r="I1134" s="6"/>
-      <c r="J1134" s="4"/>
-      <c r="K1134" s="4"/>
-      <c r="L1134" s="4"/>
+      <c r="A1134" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1134" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1134" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1134" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1134" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1134" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1134" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1134" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1134" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1134" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1134" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1134" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="M1134" s="5"/>
       <c r="N1134" s="5"/>
       <c r="O1134" s="5"/>
     </row>
     <row r="1135" spans="1:15">
-      <c r="A1135" s="3"/>
-      <c r="B1135" s="4"/>
-      <c r="C1135" s="44"/>
-      <c r="D1135" s="44"/>
-      <c r="E1135" s="44"/>
-      <c r="F1135" s="8"/>
-      <c r="G1135" s="4"/>
-      <c r="H1135" s="4"/>
-      <c r="I1135" s="6"/>
-      <c r="J1135" s="4"/>
-      <c r="K1135" s="4"/>
-      <c r="L1135" s="4"/>
-      <c r="M1135" s="5"/>
-      <c r="N1135" s="5"/>
-      <c r="O1135" s="5"/>
+      <c r="A1135" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1135" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="C1135" s="44" t="s">
+        <v>568</v>
+      </c>
+      <c r="D1135" s="44">
+        <v>64253083</v>
+      </c>
+      <c r="E1135" s="44">
+        <v>2</v>
+      </c>
+      <c r="F1135" s="8">
+        <v>259130</v>
+      </c>
+      <c r="G1135" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="H1135" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1135" s="6">
+        <v>1619917</v>
+      </c>
+      <c r="J1135" s="4">
+        <v>3</v>
+      </c>
+      <c r="K1135" s="4">
+        <v>6.68</v>
+      </c>
+      <c r="L1135" s="4">
+        <v>285.60000000000002</v>
+      </c>
+      <c r="M1135" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1135" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1135" s="5" t="s">
+        <v>902</v>
+      </c>
     </row>
     <row r="1136" spans="1:15">
-      <c r="A1136" s="3"/>
-      <c r="B1136" s="4"/>
-      <c r="C1136" s="44"/>
-      <c r="D1136" s="44"/>
-      <c r="E1136" s="44"/>
-      <c r="F1136" s="8"/>
-      <c r="G1136" s="4"/>
-      <c r="H1136" s="4"/>
-      <c r="I1136" s="6"/>
-      <c r="J1136" s="4"/>
-      <c r="K1136" s="4"/>
-      <c r="L1136" s="9"/>
-      <c r="M1136" s="5"/>
-      <c r="N1136" s="5"/>
-      <c r="O1136" s="5"/>
+      <c r="A1136" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1136" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="C1136" s="44" t="s">
+        <v>568</v>
+      </c>
+      <c r="D1136" s="44">
+        <v>64253083</v>
+      </c>
+      <c r="E1136" s="44">
+        <v>2</v>
+      </c>
+      <c r="F1136" s="8">
+        <v>259133</v>
+      </c>
+      <c r="G1136" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="H1136" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1136" s="6">
+        <v>1619918</v>
+      </c>
+      <c r="J1136" s="4">
+        <v>5</v>
+      </c>
+      <c r="K1136" s="4">
+        <v>12.3</v>
+      </c>
+      <c r="L1136" s="4">
+        <v>732.62</v>
+      </c>
+      <c r="M1136" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1136" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1136" s="5" t="s">
+        <v>902</v>
+      </c>
     </row>
     <row r="1137" spans="1:15">
-      <c r="A1137" s="3"/>
-      <c r="B1137" s="4"/>
-      <c r="C1137" s="44"/>
-      <c r="D1137" s="44"/>
-      <c r="E1137" s="44"/>
-      <c r="F1137" s="8"/>
-      <c r="G1137" s="4"/>
-      <c r="H1137" s="4"/>
-      <c r="I1137" s="6"/>
-      <c r="J1137" s="4"/>
-      <c r="K1137" s="4"/>
-      <c r="L1137" s="9"/>
-      <c r="M1137" s="5"/>
-      <c r="N1137" s="5"/>
-      <c r="O1137" s="5"/>
+      <c r="A1137" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1137" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="C1137" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1137" s="44">
+        <v>64253083</v>
+      </c>
+      <c r="E1137" s="44">
+        <v>2</v>
+      </c>
+      <c r="F1137" s="8">
+        <v>259136</v>
+      </c>
+      <c r="G1137" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1137" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1137" s="6">
+        <v>1619927</v>
+      </c>
+      <c r="J1137" s="4">
+        <v>15</v>
+      </c>
+      <c r="K1137" s="4">
+        <v>40.82</v>
+      </c>
+      <c r="L1137" s="9">
+        <v>1358.4</v>
+      </c>
+      <c r="M1137" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1137" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1137" s="5" t="s">
+        <v>902</v>
+      </c>
     </row>
     <row r="1138" spans="1:15">
-      <c r="A1138" s="3"/>
-      <c r="B1138" s="4"/>
-      <c r="C1138" s="44"/>
-      <c r="D1138" s="44"/>
-      <c r="E1138" s="44"/>
-      <c r="F1138" s="7"/>
-      <c r="G1138" s="4"/>
-      <c r="H1138" s="4"/>
-      <c r="I1138" s="6"/>
-      <c r="J1138" s="4"/>
-      <c r="K1138" s="4"/>
-      <c r="L1138" s="4"/>
-      <c r="M1138" s="5"/>
-      <c r="N1138" s="5"/>
-      <c r="O1138" s="5"/>
+      <c r="A1138" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1138" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="C1138" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1138" s="44">
+        <v>64253083</v>
+      </c>
+      <c r="E1138" s="44">
+        <v>2</v>
+      </c>
+      <c r="F1138" s="8">
+        <v>259139</v>
+      </c>
+      <c r="G1138" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1138" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1138" s="6">
+        <v>1619928</v>
+      </c>
+      <c r="J1138" s="4">
+        <v>14</v>
+      </c>
+      <c r="K1138" s="4">
+        <v>40.630000000000003</v>
+      </c>
+      <c r="L1138" s="9">
+        <v>1627.58</v>
+      </c>
+      <c r="M1138" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1138" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1138" s="5" t="s">
+        <v>902</v>
+      </c>
     </row>
     <row r="1139" spans="1:15">
-      <c r="A1139" s="3"/>
-      <c r="B1139" s="4"/>
-      <c r="C1139" s="44"/>
-      <c r="D1139" s="44"/>
-      <c r="E1139" s="44"/>
-      <c r="F1139" s="7"/>
-      <c r="G1139" s="4"/>
-      <c r="H1139" s="4"/>
-      <c r="I1139" s="6"/>
-      <c r="J1139" s="4"/>
-      <c r="K1139" s="4"/>
-      <c r="L1139" s="9"/>
+      <c r="A1139" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1139" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="C1139" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="D1139" s="44">
+        <v>64253083</v>
+      </c>
+      <c r="E1139" s="44">
+        <v>2</v>
+      </c>
+      <c r="F1139" s="7">
+        <v>259144</v>
+      </c>
+      <c r="G1139" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H1139" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1139" s="6">
+        <v>1619921</v>
+      </c>
+      <c r="J1139" s="4">
+        <v>2</v>
+      </c>
+      <c r="K1139" s="4">
+        <v>4.74</v>
+      </c>
+      <c r="L1139" s="4">
+        <v>274.72000000000003</v>
+      </c>
       <c r="M1139" s="5"/>
       <c r="N1139" s="5"/>
       <c r="O1139" s="5"/>
     </row>
     <row r="1140" spans="1:15">
-      <c r="A1140" s="3"/>
-      <c r="B1140" s="4"/>
-      <c r="C1140" s="44"/>
-      <c r="D1140" s="44"/>
-      <c r="E1140" s="44"/>
-      <c r="F1140" s="4"/>
-      <c r="G1140" s="4"/>
-      <c r="H1140" s="4"/>
-      <c r="I1140" s="4"/>
-      <c r="J1140" s="4"/>
-      <c r="K1140" s="4"/>
-      <c r="L1140" s="4"/>
+      <c r="A1140" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1140" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="C1140" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="D1140" s="44">
+        <v>64253083</v>
+      </c>
+      <c r="E1140" s="44">
+        <v>2</v>
+      </c>
+      <c r="F1140" s="7">
+        <v>259147</v>
+      </c>
+      <c r="G1140" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H1140" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1140" s="6">
+        <v>1619922</v>
+      </c>
+      <c r="J1140" s="4">
+        <v>11</v>
+      </c>
+      <c r="K1140" s="4">
+        <v>25.18</v>
+      </c>
+      <c r="L1140" s="9">
+        <v>1226.29</v>
+      </c>
       <c r="M1140" s="5"/>
       <c r="N1140" s="5"/>
       <c r="O1140" s="5"/>
     </row>
     <row r="1141" spans="1:15">
-      <c r="A1141" s="3"/>
-      <c r="B1141" s="4"/>
-      <c r="C1141" s="44"/>
-      <c r="D1141" s="45"/>
+      <c r="A1141" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1141" s="4">
+        <v>6</v>
+      </c>
+      <c r="C1141" s="44">
+        <v>130.35</v>
+      </c>
+      <c r="D1141" s="45">
+        <v>5505.21</v>
+      </c>
       <c r="E1141" s="44"/>
       <c r="F1141" s="4"/>
       <c r="G1141" s="4"/>
@@ -45792,10 +47026,18 @@
       <c r="O1141" s="5"/>
     </row>
     <row r="1142" spans="1:15">
-      <c r="A1142" s="3"/>
-      <c r="B1142" s="43"/>
-      <c r="C1142" s="44"/>
-      <c r="D1142" s="44"/>
+      <c r="A1142" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1142" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1142" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1142" s="44" t="s">
+        <v>917</v>
+      </c>
       <c r="E1142" s="44"/>
       <c r="F1142" s="4"/>
       <c r="G1142" s="4"/>
@@ -45809,55 +47051,111 @@
       <c r="O1142" s="5"/>
     </row>
     <row r="1143" spans="1:15">
-      <c r="A1143" s="3"/>
-      <c r="B1143" s="4"/>
-      <c r="C1143" s="44"/>
-      <c r="D1143" s="44"/>
-      <c r="E1143" s="44"/>
-      <c r="F1143" s="8"/>
-      <c r="G1143" s="4"/>
-      <c r="H1143" s="4"/>
-      <c r="I1143" s="6"/>
-      <c r="J1143" s="4"/>
-      <c r="K1143" s="4"/>
-      <c r="L1143" s="9"/>
+      <c r="A1143" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1143" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1143" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1143" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1143" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1143" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1143" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1143" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1143" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1143" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1143" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1143" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="M1143" s="5"/>
       <c r="N1143" s="5"/>
       <c r="O1143" s="5"/>
     </row>
     <row r="1144" spans="1:15">
-      <c r="A1144" s="3"/>
-      <c r="B1144" s="4"/>
-      <c r="C1144" s="44"/>
-      <c r="D1144" s="44"/>
-      <c r="E1144" s="44"/>
-      <c r="F1144" s="5"/>
-      <c r="G1144" s="5"/>
-      <c r="H1144" s="5"/>
-      <c r="I1144" s="5"/>
-      <c r="J1144" s="5"/>
-      <c r="K1144" s="5"/>
-      <c r="L1144" s="5"/>
+      <c r="A1144" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1144" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="C1144" s="44" t="s">
+        <v>918</v>
+      </c>
+      <c r="D1144" s="44">
+        <v>230040</v>
+      </c>
+      <c r="E1144" s="44">
+        <v>2</v>
+      </c>
+      <c r="F1144" s="8">
+        <v>1205205</v>
+      </c>
+      <c r="G1144" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="H1144" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1144" s="6">
+        <v>1619728</v>
+      </c>
+      <c r="J1144" s="4">
+        <v>111</v>
+      </c>
+      <c r="K1144" s="4">
+        <v>996.85</v>
+      </c>
+      <c r="L1144" s="9">
+        <v>4594.42</v>
+      </c>
       <c r="M1144" s="5"/>
       <c r="N1144" s="5"/>
       <c r="O1144" s="5"/>
     </row>
     <row r="1145" spans="1:15">
-      <c r="A1145" s="46"/>
-      <c r="B1145" s="47"/>
-      <c r="C1145" s="48"/>
-      <c r="D1145" s="49"/>
+      <c r="A1145" s="46">
+        <v>45467</v>
+      </c>
+      <c r="B1145" s="47">
+        <v>1</v>
+      </c>
+      <c r="C1145" s="48">
+        <v>996.85</v>
+      </c>
+      <c r="D1145" s="49">
+        <v>4594.42</v>
+      </c>
       <c r="E1145" s="48"/>
-      <c r="F1145" s="50"/>
-      <c r="G1145" s="50"/>
-      <c r="H1145" s="50"/>
-      <c r="I1145" s="50"/>
-      <c r="J1145" s="50"/>
-      <c r="K1145" s="50"/>
-      <c r="L1145" s="50"/>
-      <c r="M1145" s="50"/>
-      <c r="N1145" s="50"/>
-      <c r="O1145" s="50"/>
+      <c r="F1145" s="5"/>
+      <c r="G1145" s="5"/>
+      <c r="H1145" s="5"/>
+      <c r="I1145" s="5"/>
+      <c r="J1145" s="5"/>
+      <c r="K1145" s="5"/>
+      <c r="L1145" s="5"/>
+      <c r="M1145" s="5"/>
+      <c r="N1145" s="5"/>
+      <c r="O1145" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="M1:M65">
@@ -45898,17 +47196,17 @@
       <formula>"Entregue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1085:M1145">
+  <conditionalFormatting sqref="M1086:M1145">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Entregue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1085:M1145">
+  <conditionalFormatting sqref="M1086:M1145">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Reentrega"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1085:M1145">
+  <conditionalFormatting sqref="M1086:M1145">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Devoluçao total"</formula>
     </cfRule>
